--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A24" sqref="A24:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="304">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,825 @@
   </si>
   <si>
     <t>Token</t>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插屏广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插屏广告描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>ad1desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ronna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yotta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留2</t>
+  </si>
+  <si>
+    <t>字段预留3</t>
+  </si>
+  <si>
+    <t>字段预留4</t>
+  </si>
+  <si>
+    <t>字段预留5</t>
+  </si>
+  <si>
+    <t>字段预留6</t>
+  </si>
+  <si>
+    <t>字段预留7</t>
+  </si>
+  <si>
+    <t>字段预留8</t>
+  </si>
+  <si>
+    <t>字段预留9</t>
+  </si>
+  <si>
+    <t>字段预留10</t>
+  </si>
+  <si>
+    <t>个人信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产5</t>
+  </si>
+  <si>
+    <t>矿产6</t>
+  </si>
+  <si>
+    <t>矿产7</t>
+  </si>
+  <si>
+    <t>矿产8</t>
+  </si>
+  <si>
+    <t>矿产9</t>
+  </si>
+  <si>
+    <t>矿产10</t>
+  </si>
+  <si>
+    <t>mine4</t>
+  </si>
+  <si>
+    <t>mine4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine5</t>
+  </si>
+  <si>
+    <t>mine6</t>
+  </si>
+  <si>
+    <t>mine7</t>
+  </si>
+  <si>
+    <t>mine8</t>
+  </si>
+  <si>
+    <t>mine9</t>
+  </si>
+  <si>
+    <t>mine10</t>
+  </si>
+  <si>
+    <t>经理描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理7</t>
+  </si>
+  <si>
+    <t>经理7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理8</t>
+  </si>
+  <si>
+    <t>经理9</t>
+  </si>
+  <si>
+    <t>经理10</t>
+  </si>
+  <si>
+    <t>经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理3</t>
+  </si>
+  <si>
+    <t>经理4</t>
+  </si>
+  <si>
+    <t>经理5</t>
+  </si>
+  <si>
+    <t>经理6</t>
+  </si>
+  <si>
+    <t>高级经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理3</t>
+  </si>
+  <si>
+    <t>高级经理4</t>
+  </si>
+  <si>
+    <t>高级经理5</t>
+  </si>
+  <si>
+    <t>高级经理6</t>
+  </si>
+  <si>
+    <t>高级经理7</t>
+  </si>
+  <si>
+    <t>高级经理8</t>
+  </si>
+  <si>
+    <t>高级经理9</t>
+  </si>
+  <si>
+    <t>高级经理10</t>
+  </si>
+  <si>
+    <t>manger7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manger8</t>
+  </si>
+  <si>
+    <t>manger9</t>
+  </si>
+  <si>
+    <t>manger10</t>
+  </si>
+  <si>
+    <t>manager1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
+  </si>
+  <si>
+    <t>manager5</t>
+  </si>
+  <si>
+    <t>manager6</t>
+  </si>
+  <si>
+    <t>manager7</t>
+  </si>
+  <si>
+    <t>manager8</t>
+  </si>
+  <si>
+    <t>manager9</t>
+  </si>
+  <si>
+    <t>manager10</t>
+  </si>
+  <si>
+    <t>leader1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader3</t>
+  </si>
+  <si>
+    <t>leader4</t>
+  </si>
+  <si>
+    <t>leader5</t>
+  </si>
+  <si>
+    <t>leader6</t>
+  </si>
+  <si>
+    <t>leader7</t>
+  </si>
+  <si>
+    <t>leader8</t>
+  </si>
+  <si>
+    <t>leader9</t>
+  </si>
+  <si>
+    <t>leader10</t>
+  </si>
+  <si>
+    <t>经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理描述2</t>
+  </si>
+  <si>
+    <t>经理描述3</t>
+  </si>
+  <si>
+    <t>经理描述4</t>
+  </si>
+  <si>
+    <t>经理描述5</t>
+  </si>
+  <si>
+    <t>经理描述6</t>
+  </si>
+  <si>
+    <t>经理描述7</t>
+  </si>
+  <si>
+    <t>经理描述8</t>
+  </si>
+  <si>
+    <t>经理描述9</t>
+  </si>
+  <si>
+    <t>经理描述10</t>
+  </si>
+  <si>
+    <t>高级经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理描述2</t>
+  </si>
+  <si>
+    <t>高级经理描述3</t>
+  </si>
+  <si>
+    <t>高级经理描述4</t>
+  </si>
+  <si>
+    <t>高级经理描述5</t>
+  </si>
+  <si>
+    <t>高级经理描述6</t>
+  </si>
+  <si>
+    <t>高级经理描述7</t>
+  </si>
+  <si>
+    <t>高级经理描述8</t>
+  </si>
+  <si>
+    <t>高级经理描述9</t>
+  </si>
+  <si>
+    <t>高级经理描述10</t>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+  </si>
+  <si>
+    <t>lalala3</t>
+  </si>
+  <si>
+    <t>lalala4</t>
+  </si>
+  <si>
+    <t>lalala5</t>
+  </si>
+  <si>
+    <t>lalala6</t>
+  </si>
+  <si>
+    <t>lalala7</t>
+  </si>
+  <si>
+    <t>lalala8</t>
+  </si>
+  <si>
+    <t>lalala9</t>
+  </si>
+  <si>
+    <t>lalala10</t>
+  </si>
+  <si>
+    <t>项目7</t>
+  </si>
+  <si>
+    <t>项目7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目8</t>
+  </si>
+  <si>
+    <t>项目8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目9</t>
+  </si>
+  <si>
+    <t>项目3</t>
+  </si>
+  <si>
+    <t>项目4</t>
+  </si>
+  <si>
+    <t>项目5</t>
+  </si>
+  <si>
+    <t>项目6</t>
+  </si>
+  <si>
+    <t>项目10</t>
+  </si>
+  <si>
+    <t>develop7</t>
+  </si>
+  <si>
+    <t>develop7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop8</t>
+  </si>
+  <si>
+    <t>develop9</t>
+  </si>
+  <si>
+    <t>develop10</t>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶产出增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop2</t>
+  </si>
+  <si>
+    <t>develop3</t>
+  </si>
+  <si>
+    <t>develop4</t>
+  </si>
+  <si>
+    <t>develop5</t>
+  </si>
+  <si>
+    <t>develop6</t>
+  </si>
+  <si>
+    <t>crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述2</t>
+  </si>
+  <si>
+    <t>项目描述3</t>
+  </si>
+  <si>
+    <t>项目描述4</t>
+  </si>
+  <si>
+    <t>项目描述5</t>
+  </si>
+  <si>
+    <t>项目描述6</t>
+  </si>
+  <si>
+    <t>项目描述7</t>
+  </si>
+  <si>
+    <t>项目描述8</t>
+  </si>
+  <si>
+    <t>项目描述9</t>
+  </si>
+  <si>
+    <t>项目描述10</t>
+  </si>
+  <si>
+    <t>翻倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubledesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystaldesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级2</t>
+  </si>
+  <si>
+    <t>矿产增级3</t>
+  </si>
+  <si>
+    <t>矿产增级4</t>
+  </si>
+  <si>
+    <t>矿产增级5</t>
+  </si>
+  <si>
+    <t>矿产增级6</t>
+  </si>
+  <si>
+    <t>矿产增级7</t>
+  </si>
+  <si>
+    <t>矿产增级8</t>
+  </si>
+  <si>
+    <t>矿产增级9</t>
+  </si>
+  <si>
+    <t>矿产增级10</t>
+  </si>
+  <si>
+    <t>mine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine2</t>
+  </si>
+  <si>
+    <t>mine3</t>
+  </si>
+  <si>
+    <t>矿产增加描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minedesc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增加描述2</t>
+  </si>
+  <si>
+    <t>minedesc2</t>
+  </si>
+  <si>
+    <t>矿产增加描述3</t>
+  </si>
+  <si>
+    <t>minedesc3</t>
+  </si>
+  <si>
+    <t>矿产增加描述4</t>
+  </si>
+  <si>
+    <t>minedesc4</t>
+  </si>
+  <si>
+    <t>矿产增加描述5</t>
+  </si>
+  <si>
+    <t>minedesc5</t>
+  </si>
+  <si>
+    <t>矿产增加描述6</t>
+  </si>
+  <si>
+    <t>minedesc6</t>
+  </si>
+  <si>
+    <t>矿产增加描述7</t>
+  </si>
+  <si>
+    <t>minedesc7</t>
+  </si>
+  <si>
+    <t>矿产增加描述8</t>
+  </si>
+  <si>
+    <t>minedesc8</t>
+  </si>
+  <si>
+    <t>矿产增加描述9</t>
+  </si>
+  <si>
+    <t>minedesc9</t>
+  </si>
+  <si>
+    <t>矿产增加描述10</t>
+  </si>
+  <si>
+    <t>minedesc10</t>
   </si>
 </sst>
 </file>
@@ -286,7 +1105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,15 +1128,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -598,16 +1446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -782,16 +1631,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>20101</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>10104</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -811,14 +1658,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>20102</v>
+        <v>10105</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -838,14 +1685,14 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>20103</v>
+        <v>10106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -865,14 +1712,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>20201</v>
+        <v>10107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
@@ -892,14 +1739,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>20201</v>
+        <v>10108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -919,14 +1766,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>20201</v>
+        <v>10109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -944,18 +1791,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>30101</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>10110</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -975,275 +1820,6670 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>30102</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>20101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>30103</v>
+      <c r="A15" s="6">
+        <v>20102</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>30201</v>
+        <v>20103</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>30202</v>
+      <c r="A17" s="6">
+        <v>20104</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>30203</v>
+        <v>20105</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>20106</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2">
-        <v>45</v>
-      </c>
-      <c r="I18" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>40101</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I19" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>40102</v>
+        <v>20107</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>40103</v>
+      <c r="A21" s="6">
+        <v>20108</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>40104</v>
+        <v>20109</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="E22" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>40105</v>
+      <c r="A23" s="6">
+        <v>20110</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43</v>
+      </c>
+      <c r="I23" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>20111</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44</v>
+      </c>
+      <c r="I24" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>20112</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>20113</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="2">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2">
+        <v>46</v>
+      </c>
+      <c r="I26" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>20114</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="2">
+        <v>17</v>
+      </c>
+      <c r="F27" s="2">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2">
+        <v>37</v>
+      </c>
+      <c r="H27" s="2">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="I27" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>20115</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="2">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2">
+        <v>28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2">
+        <v>48</v>
+      </c>
+      <c r="I28" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>20116</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>20117</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>20118</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="2">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2">
+        <v>41</v>
+      </c>
+      <c r="H31" s="2">
+        <v>51</v>
+      </c>
+      <c r="I31" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>20119</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="2">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42</v>
+      </c>
+      <c r="H32" s="2">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>20120</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="2">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2">
+        <v>53</v>
+      </c>
+      <c r="I33" s="2">
         <v>63</v>
       </c>
-      <c r="E23" s="2">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>20121</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="2">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2">
+        <v>34</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44</v>
+      </c>
+      <c r="H34" s="2">
+        <v>54</v>
+      </c>
+      <c r="I34" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>20122</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="2">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45</v>
+      </c>
+      <c r="H35" s="2">
+        <v>55</v>
+      </c>
+      <c r="I35" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>20123</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="2">
+        <v>26</v>
+      </c>
+      <c r="F36" s="2">
+        <v>36</v>
+      </c>
+      <c r="G36" s="2">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2">
+        <v>56</v>
+      </c>
+      <c r="I36" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>20201</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="2">
+        <v>27</v>
+      </c>
+      <c r="F37" s="2">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" s="2">
+        <v>57</v>
+      </c>
+      <c r="I37" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>20202</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="2">
+        <v>28</v>
+      </c>
+      <c r="F38" s="2">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" s="2">
+        <v>58</v>
+      </c>
+      <c r="I38" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>20203</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="2">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2">
+        <v>39</v>
+      </c>
+      <c r="G39" s="2">
+        <v>49</v>
+      </c>
+      <c r="H39" s="2">
+        <v>59</v>
+      </c>
+      <c r="I39" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>20204</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="2">
+        <v>30</v>
+      </c>
+      <c r="F40" s="2">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2">
+        <v>50</v>
+      </c>
+      <c r="H40" s="2">
+        <v>60</v>
+      </c>
+      <c r="I40" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>20205</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="2">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" s="2">
+        <v>51</v>
+      </c>
+      <c r="H41" s="2">
+        <v>61</v>
+      </c>
+      <c r="I41" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>20206</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="2">
+        <v>32</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <v>52</v>
+      </c>
+      <c r="H42" s="2">
+        <v>62</v>
+      </c>
+      <c r="I42" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>20207</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="2">
+        <v>33</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43</v>
+      </c>
+      <c r="G43" s="2">
+        <v>53</v>
+      </c>
+      <c r="H43" s="2">
+        <v>63</v>
+      </c>
+      <c r="I43" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>20208</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="2">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44</v>
+      </c>
+      <c r="G44" s="2">
+        <v>54</v>
+      </c>
+      <c r="H44" s="2">
+        <v>64</v>
+      </c>
+      <c r="I44" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>20209</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="2">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2">
+        <v>55</v>
+      </c>
+      <c r="H45" s="2">
+        <v>65</v>
+      </c>
+      <c r="I45" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>20210</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="2">
+        <v>36</v>
+      </c>
+      <c r="F46" s="2">
+        <v>46</v>
+      </c>
+      <c r="G46" s="2">
+        <v>56</v>
+      </c>
+      <c r="H46" s="2">
+        <v>66</v>
+      </c>
+      <c r="I46" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>20211</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2">
+        <v>57</v>
+      </c>
+      <c r="H47" s="2">
+        <v>67</v>
+      </c>
+      <c r="I47" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>20212</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="2">
+        <v>38</v>
+      </c>
+      <c r="F48" s="2">
+        <v>48</v>
+      </c>
+      <c r="G48" s="2">
+        <v>58</v>
+      </c>
+      <c r="H48" s="2">
+        <v>68</v>
+      </c>
+      <c r="I48" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>20213</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="2">
+        <v>39</v>
+      </c>
+      <c r="F49" s="2">
+        <v>49</v>
+      </c>
+      <c r="G49" s="2">
+        <v>59</v>
+      </c>
+      <c r="H49" s="2">
+        <v>69</v>
+      </c>
+      <c r="I49" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>20214</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" s="2">
+        <v>50</v>
+      </c>
+      <c r="G50" s="2">
+        <v>60</v>
+      </c>
+      <c r="H50" s="2">
+        <v>70</v>
+      </c>
+      <c r="I50" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>20215</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" s="2">
+        <v>61</v>
+      </c>
+      <c r="H51" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>20216</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" s="2">
+        <v>52</v>
+      </c>
+      <c r="G52" s="2">
+        <v>62</v>
+      </c>
+      <c r="H52" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>20217</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" s="2">
+        <v>53</v>
+      </c>
+      <c r="G53" s="2">
+        <v>63</v>
+      </c>
+      <c r="H53" s="2">
+        <v>73</v>
+      </c>
+      <c r="I53" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>20218</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44</v>
+      </c>
+      <c r="F54" s="2">
+        <v>54</v>
+      </c>
+      <c r="G54" s="2">
+        <v>64</v>
+      </c>
+      <c r="H54" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>20219</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45</v>
+      </c>
+      <c r="F55" s="2">
+        <v>55</v>
+      </c>
+      <c r="G55" s="2">
+        <v>65</v>
+      </c>
+      <c r="H55" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>20220</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="2">
+        <v>46</v>
+      </c>
+      <c r="F56" s="2">
+        <v>56</v>
+      </c>
+      <c r="G56" s="2">
+        <v>66</v>
+      </c>
+      <c r="H56" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>20221</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="2">
+        <v>47</v>
+      </c>
+      <c r="F57" s="2">
+        <v>57</v>
+      </c>
+      <c r="G57" s="2">
+        <v>67</v>
+      </c>
+      <c r="H57" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>20222</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="2">
+        <v>48</v>
+      </c>
+      <c r="F58" s="2">
+        <v>58</v>
+      </c>
+      <c r="G58" s="2">
+        <v>68</v>
+      </c>
+      <c r="H58" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>20223</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E59" s="2">
+        <v>49</v>
+      </c>
+      <c r="F59" s="2">
+        <v>59</v>
+      </c>
+      <c r="G59" s="2">
+        <v>69</v>
+      </c>
+      <c r="H59" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>21101</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="2">
+        <v>50</v>
+      </c>
+      <c r="F60" s="2">
+        <v>60</v>
+      </c>
+      <c r="G60" s="2">
+        <v>70</v>
+      </c>
+      <c r="H60" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>21102</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="2">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2">
+        <v>71</v>
+      </c>
+      <c r="H61" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>21103</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="2">
+        <v>52</v>
+      </c>
+      <c r="F62" s="2">
+        <v>62</v>
+      </c>
+      <c r="G62" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" s="2">
+        <v>82</v>
+      </c>
+      <c r="I62" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>21104</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E63" s="2">
+        <v>53</v>
+      </c>
+      <c r="F63" s="2">
+        <v>63</v>
+      </c>
+      <c r="G63" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>21105</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" s="2">
+        <v>54</v>
+      </c>
+      <c r="F64" s="2">
+        <v>64</v>
+      </c>
+      <c r="G64" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" s="2">
+        <v>84</v>
+      </c>
+      <c r="I64" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>21106</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E65" s="2">
+        <v>55</v>
+      </c>
+      <c r="F65" s="2">
+        <v>65</v>
+      </c>
+      <c r="G65" s="2">
+        <v>75</v>
+      </c>
+      <c r="H65" s="2">
+        <v>85</v>
+      </c>
+      <c r="I65" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>21107</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="2">
+        <v>56</v>
+      </c>
+      <c r="F66" s="2">
+        <v>66</v>
+      </c>
+      <c r="G66" s="2">
+        <v>76</v>
+      </c>
+      <c r="H66" s="2">
+        <v>86</v>
+      </c>
+      <c r="I66" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>21108</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="2">
+        <v>57</v>
+      </c>
+      <c r="F67" s="2">
+        <v>67</v>
+      </c>
+      <c r="G67" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" s="2">
+        <v>87</v>
+      </c>
+      <c r="I67" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>21109</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="2">
+        <v>58</v>
+      </c>
+      <c r="F68" s="2">
+        <v>68</v>
+      </c>
+      <c r="G68" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" s="2">
+        <v>88</v>
+      </c>
+      <c r="I68" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>21110</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="2">
+        <v>59</v>
+      </c>
+      <c r="F69" s="2">
+        <v>69</v>
+      </c>
+      <c r="G69" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" s="2">
+        <v>89</v>
+      </c>
+      <c r="I69" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>21111</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="2">
+        <v>60</v>
+      </c>
+      <c r="F70" s="2">
+        <v>70</v>
+      </c>
+      <c r="G70" s="2">
+        <v>80</v>
+      </c>
+      <c r="H70" s="2">
+        <v>90</v>
+      </c>
+      <c r="I70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>21112</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="2">
+        <v>61</v>
+      </c>
+      <c r="F71" s="2">
+        <v>71</v>
+      </c>
+      <c r="G71" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" s="2">
+        <v>91</v>
+      </c>
+      <c r="I71" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>21113</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="2">
+        <v>62</v>
+      </c>
+      <c r="F72" s="2">
+        <v>72</v>
+      </c>
+      <c r="G72" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" s="2">
+        <v>92</v>
+      </c>
+      <c r="I72" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>21114</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="2">
+        <v>63</v>
+      </c>
+      <c r="F73" s="2">
+        <v>73</v>
+      </c>
+      <c r="G73" s="2">
+        <v>83</v>
+      </c>
+      <c r="H73" s="2">
+        <v>93</v>
+      </c>
+      <c r="I73" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>21115</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="2">
+        <v>64</v>
+      </c>
+      <c r="F74" s="2">
+        <v>74</v>
+      </c>
+      <c r="G74" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" s="2">
+        <v>94</v>
+      </c>
+      <c r="I74" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>21116</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="2">
+        <v>65</v>
+      </c>
+      <c r="F75" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" s="2">
+        <v>85</v>
+      </c>
+      <c r="H75" s="2">
+        <v>95</v>
+      </c>
+      <c r="I75" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>21117</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="2">
+        <v>66</v>
+      </c>
+      <c r="F76" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" s="2">
+        <v>96</v>
+      </c>
+      <c r="I76" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>21118</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="2">
+        <v>67</v>
+      </c>
+      <c r="F77" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" s="2">
+        <v>97</v>
+      </c>
+      <c r="I77" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>21119</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" s="2">
+        <v>68</v>
+      </c>
+      <c r="F78" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" s="2">
+        <v>98</v>
+      </c>
+      <c r="I78" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>21120</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="2">
+        <v>69</v>
+      </c>
+      <c r="F79" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" s="2">
+        <v>89</v>
+      </c>
+      <c r="H79" s="2">
+        <v>99</v>
+      </c>
+      <c r="I79" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>21121</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="2">
+        <v>70</v>
+      </c>
+      <c r="F80" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" s="2">
+        <v>90</v>
+      </c>
+      <c r="H80" s="2">
+        <v>100</v>
+      </c>
+      <c r="I80" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>21122</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="2">
+        <v>71</v>
+      </c>
+      <c r="F81" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" s="2">
+        <v>91</v>
+      </c>
+      <c r="H81" s="2">
+        <v>101</v>
+      </c>
+      <c r="I81" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>21123</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="2">
+        <v>72</v>
+      </c>
+      <c r="F82" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" s="2">
+        <v>92</v>
+      </c>
+      <c r="H82" s="2">
+        <v>102</v>
+      </c>
+      <c r="I82" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>21124</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="2">
+        <v>73</v>
+      </c>
+      <c r="F83" s="2">
+        <v>83</v>
+      </c>
+      <c r="G83" s="2">
+        <v>93</v>
+      </c>
+      <c r="H83" s="2">
+        <v>103</v>
+      </c>
+      <c r="I83" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>21125</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2">
+        <v>94</v>
+      </c>
+      <c r="H84" s="2">
+        <v>104</v>
+      </c>
+      <c r="I84" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>21201</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" s="2">
+        <v>95</v>
+      </c>
+      <c r="H85" s="2">
+        <v>105</v>
+      </c>
+      <c r="I85" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>21202</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="2">
+        <v>76</v>
+      </c>
+      <c r="F86" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" s="2">
+        <v>96</v>
+      </c>
+      <c r="H86" s="2">
+        <v>106</v>
+      </c>
+      <c r="I86" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>21203</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" s="2">
+        <v>97</v>
+      </c>
+      <c r="H87" s="2">
+        <v>107</v>
+      </c>
+      <c r="I87" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>21204</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" s="2">
+        <v>98</v>
+      </c>
+      <c r="H88" s="2">
+        <v>108</v>
+      </c>
+      <c r="I88" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>21205</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E89" s="2">
+        <v>79</v>
+      </c>
+      <c r="F89" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" s="2">
+        <v>99</v>
+      </c>
+      <c r="H89" s="2">
+        <v>109</v>
+      </c>
+      <c r="I89" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>21206</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="2">
+        <v>80</v>
+      </c>
+      <c r="F90" s="2">
+        <v>90</v>
+      </c>
+      <c r="G90" s="2">
+        <v>100</v>
+      </c>
+      <c r="H90" s="2">
+        <v>110</v>
+      </c>
+      <c r="I90" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>21207</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E91" s="2">
+        <v>81</v>
+      </c>
+      <c r="F91" s="2">
+        <v>91</v>
+      </c>
+      <c r="G91" s="2">
+        <v>101</v>
+      </c>
+      <c r="H91" s="2">
+        <v>111</v>
+      </c>
+      <c r="I91" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>21208</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E92" s="2">
+        <v>82</v>
+      </c>
+      <c r="F92" s="2">
+        <v>92</v>
+      </c>
+      <c r="G92" s="2">
+        <v>102</v>
+      </c>
+      <c r="H92" s="2">
+        <v>112</v>
+      </c>
+      <c r="I92" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>21209</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="2">
+        <v>83</v>
+      </c>
+      <c r="F93" s="2">
+        <v>93</v>
+      </c>
+      <c r="G93" s="2">
+        <v>103</v>
+      </c>
+      <c r="H93" s="2">
+        <v>113</v>
+      </c>
+      <c r="I93" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>21210</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" s="2">
+        <v>84</v>
+      </c>
+      <c r="F94" s="2">
+        <v>94</v>
+      </c>
+      <c r="G94" s="2">
+        <v>104</v>
+      </c>
+      <c r="H94" s="2">
+        <v>114</v>
+      </c>
+      <c r="I94" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>21211</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E95" s="2">
+        <v>85</v>
+      </c>
+      <c r="F95" s="2">
+        <v>95</v>
+      </c>
+      <c r="G95" s="2">
+        <v>105</v>
+      </c>
+      <c r="H95" s="2">
+        <v>115</v>
+      </c>
+      <c r="I95" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>21212</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" s="2">
+        <v>96</v>
+      </c>
+      <c r="G96" s="2">
+        <v>106</v>
+      </c>
+      <c r="H96" s="2">
+        <v>116</v>
+      </c>
+      <c r="I96" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>21213</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" s="2">
+        <v>87</v>
+      </c>
+      <c r="F97" s="2">
+        <v>97</v>
+      </c>
+      <c r="G97" s="2">
+        <v>107</v>
+      </c>
+      <c r="H97" s="2">
+        <v>117</v>
+      </c>
+      <c r="I97" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>21214</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98" s="2">
+        <v>88</v>
+      </c>
+      <c r="F98" s="2">
+        <v>98</v>
+      </c>
+      <c r="G98" s="2">
+        <v>108</v>
+      </c>
+      <c r="H98" s="2">
+        <v>118</v>
+      </c>
+      <c r="I98" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>21215</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="2">
+        <v>89</v>
+      </c>
+      <c r="F99" s="2">
+        <v>99</v>
+      </c>
+      <c r="G99" s="2">
+        <v>109</v>
+      </c>
+      <c r="H99" s="2">
+        <v>119</v>
+      </c>
+      <c r="I99" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>21216</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="2">
+        <v>90</v>
+      </c>
+      <c r="F100" s="2">
+        <v>100</v>
+      </c>
+      <c r="G100" s="2">
+        <v>110</v>
+      </c>
+      <c r="H100" s="2">
+        <v>120</v>
+      </c>
+      <c r="I100" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>21217</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="2">
+        <v>91</v>
+      </c>
+      <c r="F101" s="2">
+        <v>101</v>
+      </c>
+      <c r="G101" s="2">
+        <v>111</v>
+      </c>
+      <c r="H101" s="2">
+        <v>121</v>
+      </c>
+      <c r="I101" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>21218</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="2">
+        <v>92</v>
+      </c>
+      <c r="F102" s="2">
+        <v>102</v>
+      </c>
+      <c r="G102" s="2">
+        <v>112</v>
+      </c>
+      <c r="H102" s="2">
+        <v>122</v>
+      </c>
+      <c r="I102" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>21219</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="2">
+        <v>93</v>
+      </c>
+      <c r="F103" s="2">
+        <v>103</v>
+      </c>
+      <c r="G103" s="2">
+        <v>113</v>
+      </c>
+      <c r="H103" s="2">
+        <v>123</v>
+      </c>
+      <c r="I103" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>21220</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="2">
+        <v>94</v>
+      </c>
+      <c r="F104" s="2">
+        <v>104</v>
+      </c>
+      <c r="G104" s="2">
+        <v>114</v>
+      </c>
+      <c r="H104" s="2">
+        <v>124</v>
+      </c>
+      <c r="I104" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>21221</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="2">
+        <v>95</v>
+      </c>
+      <c r="F105" s="2">
+        <v>105</v>
+      </c>
+      <c r="G105" s="2">
+        <v>115</v>
+      </c>
+      <c r="H105" s="2">
+        <v>125</v>
+      </c>
+      <c r="I105" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>21222</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="2">
+        <v>96</v>
+      </c>
+      <c r="F106" s="2">
+        <v>106</v>
+      </c>
+      <c r="G106" s="2">
+        <v>116</v>
+      </c>
+      <c r="H106" s="2">
+        <v>126</v>
+      </c>
+      <c r="I106" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>21223</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" s="2">
+        <v>97</v>
+      </c>
+      <c r="F107" s="2">
+        <v>107</v>
+      </c>
+      <c r="G107" s="2">
+        <v>117</v>
+      </c>
+      <c r="H107" s="2">
+        <v>127</v>
+      </c>
+      <c r="I107" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>21224</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" s="2">
+        <v>98</v>
+      </c>
+      <c r="F108" s="2">
+        <v>108</v>
+      </c>
+      <c r="G108" s="2">
+        <v>118</v>
+      </c>
+      <c r="H108" s="2">
+        <v>128</v>
+      </c>
+      <c r="I108" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>21225</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" s="2">
+        <v>99</v>
+      </c>
+      <c r="F109" s="2">
+        <v>109</v>
+      </c>
+      <c r="G109" s="2">
+        <v>119</v>
+      </c>
+      <c r="H109" s="2">
+        <v>129</v>
+      </c>
+      <c r="I109" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>22101</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E110" s="2">
+        <v>100</v>
+      </c>
+      <c r="F110" s="2">
+        <v>110</v>
+      </c>
+      <c r="G110" s="2">
+        <v>120</v>
+      </c>
+      <c r="H110" s="2">
+        <v>130</v>
+      </c>
+      <c r="I110" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>22102</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E111" s="2">
+        <v>101</v>
+      </c>
+      <c r="F111" s="2">
+        <v>111</v>
+      </c>
+      <c r="G111" s="2">
+        <v>121</v>
+      </c>
+      <c r="H111" s="2">
+        <v>131</v>
+      </c>
+      <c r="I111" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>22103</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="2">
+        <v>102</v>
+      </c>
+      <c r="F112" s="2">
+        <v>112</v>
+      </c>
+      <c r="G112" s="2">
+        <v>122</v>
+      </c>
+      <c r="H112" s="2">
+        <v>132</v>
+      </c>
+      <c r="I112" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>22104</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2">
+        <v>103</v>
+      </c>
+      <c r="F113" s="2">
+        <v>113</v>
+      </c>
+      <c r="G113" s="2">
+        <v>123</v>
+      </c>
+      <c r="H113" s="2">
+        <v>133</v>
+      </c>
+      <c r="I113" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>22105</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="2">
+        <v>104</v>
+      </c>
+      <c r="F114" s="2">
+        <v>114</v>
+      </c>
+      <c r="G114" s="2">
+        <v>124</v>
+      </c>
+      <c r="H114" s="2">
+        <v>134</v>
+      </c>
+      <c r="I114" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>22106</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E115" s="2">
+        <v>105</v>
+      </c>
+      <c r="F115" s="2">
+        <v>115</v>
+      </c>
+      <c r="G115" s="2">
+        <v>125</v>
+      </c>
+      <c r="H115" s="2">
+        <v>135</v>
+      </c>
+      <c r="I115" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>22107</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="2">
+        <v>106</v>
+      </c>
+      <c r="F116" s="2">
+        <v>116</v>
+      </c>
+      <c r="G116" s="2">
+        <v>126</v>
+      </c>
+      <c r="H116" s="2">
+        <v>136</v>
+      </c>
+      <c r="I116" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>22108</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="2">
+        <v>107</v>
+      </c>
+      <c r="F117" s="2">
+        <v>117</v>
+      </c>
+      <c r="G117" s="2">
+        <v>127</v>
+      </c>
+      <c r="H117" s="2">
+        <v>137</v>
+      </c>
+      <c r="I117" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>22109</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="2">
+        <v>108</v>
+      </c>
+      <c r="F118" s="2">
+        <v>118</v>
+      </c>
+      <c r="G118" s="2">
+        <v>128</v>
+      </c>
+      <c r="H118" s="2">
+        <v>138</v>
+      </c>
+      <c r="I118" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>22110</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="2">
+        <v>109</v>
+      </c>
+      <c r="F119" s="2">
+        <v>119</v>
+      </c>
+      <c r="G119" s="2">
+        <v>129</v>
+      </c>
+      <c r="H119" s="2">
+        <v>139</v>
+      </c>
+      <c r="I119" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>22201</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" s="2">
+        <v>110</v>
+      </c>
+      <c r="F120" s="2">
+        <v>120</v>
+      </c>
+      <c r="G120" s="2">
+        <v>130</v>
+      </c>
+      <c r="H120" s="2">
+        <v>140</v>
+      </c>
+      <c r="I120" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>22202</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" s="2">
+        <v>111</v>
+      </c>
+      <c r="F121" s="2">
+        <v>121</v>
+      </c>
+      <c r="G121" s="2">
+        <v>131</v>
+      </c>
+      <c r="H121" s="2">
+        <v>141</v>
+      </c>
+      <c r="I121" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>22203</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="2">
+        <v>112</v>
+      </c>
+      <c r="F122" s="2">
+        <v>122</v>
+      </c>
+      <c r="G122" s="2">
+        <v>132</v>
+      </c>
+      <c r="H122" s="2">
+        <v>142</v>
+      </c>
+      <c r="I122" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>22204</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" s="2">
+        <v>113</v>
+      </c>
+      <c r="F123" s="2">
+        <v>123</v>
+      </c>
+      <c r="G123" s="2">
+        <v>133</v>
+      </c>
+      <c r="H123" s="2">
+        <v>143</v>
+      </c>
+      <c r="I123" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>22205</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E124" s="2">
+        <v>114</v>
+      </c>
+      <c r="F124" s="2">
+        <v>124</v>
+      </c>
+      <c r="G124" s="2">
+        <v>134</v>
+      </c>
+      <c r="H124" s="2">
+        <v>144</v>
+      </c>
+      <c r="I124" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>22206</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="2">
+        <v>115</v>
+      </c>
+      <c r="F125" s="2">
+        <v>125</v>
+      </c>
+      <c r="G125" s="2">
+        <v>135</v>
+      </c>
+      <c r="H125" s="2">
+        <v>145</v>
+      </c>
+      <c r="I125" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>22207</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" s="2">
+        <v>116</v>
+      </c>
+      <c r="F126" s="2">
+        <v>126</v>
+      </c>
+      <c r="G126" s="2">
+        <v>136</v>
+      </c>
+      <c r="H126" s="2">
+        <v>146</v>
+      </c>
+      <c r="I126" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>22208</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E127" s="2">
+        <v>117</v>
+      </c>
+      <c r="F127" s="2">
+        <v>127</v>
+      </c>
+      <c r="G127" s="2">
+        <v>137</v>
+      </c>
+      <c r="H127" s="2">
+        <v>147</v>
+      </c>
+      <c r="I127" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>22209</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" s="2">
+        <v>118</v>
+      </c>
+      <c r="F128" s="2">
+        <v>128</v>
+      </c>
+      <c r="G128" s="2">
+        <v>138</v>
+      </c>
+      <c r="H128" s="2">
+        <v>148</v>
+      </c>
+      <c r="I128" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>22210</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E129" s="2">
+        <v>119</v>
+      </c>
+      <c r="F129" s="2">
+        <v>129</v>
+      </c>
+      <c r="G129" s="2">
+        <v>139</v>
+      </c>
+      <c r="H129" s="2">
+        <v>149</v>
+      </c>
+      <c r="I129" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>30101</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" s="2">
+        <v>10</v>
+      </c>
+      <c r="F130" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G130" s="2">
         <v>30</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H130" s="2">
         <v>40</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I130" s="2">
         <v>50</v>
       </c>
-      <c r="I23" s="2">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>30102</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="2">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2">
+        <v>21</v>
+      </c>
+      <c r="G131" s="2">
+        <v>31</v>
+      </c>
+      <c r="H131" s="2">
+        <v>41</v>
+      </c>
+      <c r="I131" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>30103</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="2">
+        <v>12</v>
+      </c>
+      <c r="F132" s="2">
+        <v>22</v>
+      </c>
+      <c r="G132" s="2">
+        <v>32</v>
+      </c>
+      <c r="H132" s="2">
+        <v>42</v>
+      </c>
+      <c r="I132" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>30104</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="2">
+        <v>13</v>
+      </c>
+      <c r="F133" s="2">
+        <v>23</v>
+      </c>
+      <c r="G133" s="2">
+        <v>33</v>
+      </c>
+      <c r="H133" s="2">
+        <v>43</v>
+      </c>
+      <c r="I133" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>30105</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="2">
+        <v>14</v>
+      </c>
+      <c r="F134" s="2">
+        <v>24</v>
+      </c>
+      <c r="G134" s="2">
+        <v>34</v>
+      </c>
+      <c r="H134" s="2">
+        <v>44</v>
+      </c>
+      <c r="I134" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>30106</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" s="2">
+        <v>15</v>
+      </c>
+      <c r="F135" s="2">
+        <v>25</v>
+      </c>
+      <c r="G135" s="2">
+        <v>35</v>
+      </c>
+      <c r="H135" s="2">
+        <v>45</v>
+      </c>
+      <c r="I135" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>30107</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E136" s="2">
+        <v>16</v>
+      </c>
+      <c r="F136" s="2">
+        <v>26</v>
+      </c>
+      <c r="G136" s="2">
+        <v>36</v>
+      </c>
+      <c r="H136" s="2">
+        <v>46</v>
+      </c>
+      <c r="I136" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>30108</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E137" s="2">
+        <v>17</v>
+      </c>
+      <c r="F137" s="2">
+        <v>27</v>
+      </c>
+      <c r="G137" s="2">
+        <v>37</v>
+      </c>
+      <c r="H137" s="2">
+        <v>47</v>
+      </c>
+      <c r="I137" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>30109</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="2">
+        <v>18</v>
+      </c>
+      <c r="F138" s="2">
+        <v>28</v>
+      </c>
+      <c r="G138" s="2">
+        <v>38</v>
+      </c>
+      <c r="H138" s="2">
+        <v>48</v>
+      </c>
+      <c r="I138" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>30110</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="2">
+        <v>19</v>
+      </c>
+      <c r="F139" s="2">
+        <v>29</v>
+      </c>
+      <c r="G139" s="2">
+        <v>39</v>
+      </c>
+      <c r="H139" s="2">
+        <v>49</v>
+      </c>
+      <c r="I139" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>30111</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="2">
+        <v>20</v>
+      </c>
+      <c r="F140" s="2">
+        <v>30</v>
+      </c>
+      <c r="G140" s="2">
+        <v>40</v>
+      </c>
+      <c r="H140" s="2">
+        <v>50</v>
+      </c>
+      <c r="I140" s="2">
         <v>60</v>
       </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>30112</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="2">
+        <v>21</v>
+      </c>
+      <c r="F141" s="2">
+        <v>31</v>
+      </c>
+      <c r="G141" s="2">
+        <v>41</v>
+      </c>
+      <c r="H141" s="2">
+        <v>51</v>
+      </c>
+      <c r="I141" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>30113</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E142" s="2">
+        <v>22</v>
+      </c>
+      <c r="F142" s="2">
+        <v>32</v>
+      </c>
+      <c r="G142" s="2">
+        <v>42</v>
+      </c>
+      <c r="H142" s="2">
+        <v>52</v>
+      </c>
+      <c r="I142" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>30114</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E143" s="2">
+        <v>23</v>
+      </c>
+      <c r="F143" s="2">
+        <v>33</v>
+      </c>
+      <c r="G143" s="2">
+        <v>43</v>
+      </c>
+      <c r="H143" s="2">
+        <v>53</v>
+      </c>
+      <c r="I143" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>30115</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="2">
+        <v>24</v>
+      </c>
+      <c r="F144" s="2">
+        <v>34</v>
+      </c>
+      <c r="G144" s="2">
+        <v>44</v>
+      </c>
+      <c r="H144" s="2">
+        <v>54</v>
+      </c>
+      <c r="I144" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>30116</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E145" s="2">
+        <v>25</v>
+      </c>
+      <c r="F145" s="2">
+        <v>35</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45</v>
+      </c>
+      <c r="H145" s="2">
+        <v>55</v>
+      </c>
+      <c r="I145" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>30117</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E146" s="2">
+        <v>26</v>
+      </c>
+      <c r="F146" s="2">
+        <v>36</v>
+      </c>
+      <c r="G146" s="2">
+        <v>46</v>
+      </c>
+      <c r="H146" s="2">
+        <v>56</v>
+      </c>
+      <c r="I146" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>30118</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="2">
+        <v>27</v>
+      </c>
+      <c r="F147" s="2">
+        <v>37</v>
+      </c>
+      <c r="G147" s="2">
+        <v>47</v>
+      </c>
+      <c r="H147" s="2">
+        <v>57</v>
+      </c>
+      <c r="I147" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>30119</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="2">
+        <v>28</v>
+      </c>
+      <c r="F148" s="2">
+        <v>38</v>
+      </c>
+      <c r="G148" s="2">
+        <v>48</v>
+      </c>
+      <c r="H148" s="2">
+        <v>58</v>
+      </c>
+      <c r="I148" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>30120</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="2">
+        <v>29</v>
+      </c>
+      <c r="F149" s="2">
+        <v>39</v>
+      </c>
+      <c r="G149" s="2">
+        <v>49</v>
+      </c>
+      <c r="H149" s="2">
+        <v>59</v>
+      </c>
+      <c r="I149" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>30121</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E150" s="2">
+        <v>30</v>
+      </c>
+      <c r="F150" s="2">
+        <v>40</v>
+      </c>
+      <c r="G150" s="2">
+        <v>50</v>
+      </c>
+      <c r="H150" s="2">
+        <v>60</v>
+      </c>
+      <c r="I150" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>30122</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" s="2">
+        <v>31</v>
+      </c>
+      <c r="F151" s="2">
+        <v>41</v>
+      </c>
+      <c r="G151" s="2">
+        <v>51</v>
+      </c>
+      <c r="H151" s="2">
+        <v>61</v>
+      </c>
+      <c r="I151" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>30123</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E152" s="2">
+        <v>32</v>
+      </c>
+      <c r="F152" s="2">
+        <v>42</v>
+      </c>
+      <c r="G152" s="2">
+        <v>52</v>
+      </c>
+      <c r="H152" s="2">
+        <v>62</v>
+      </c>
+      <c r="I152" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>30124</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E153" s="2">
+        <v>33</v>
+      </c>
+      <c r="F153" s="2">
+        <v>43</v>
+      </c>
+      <c r="G153" s="2">
+        <v>53</v>
+      </c>
+      <c r="H153" s="2">
+        <v>63</v>
+      </c>
+      <c r="I153" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>30125</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E154" s="2">
+        <v>34</v>
+      </c>
+      <c r="F154" s="2">
+        <v>44</v>
+      </c>
+      <c r="G154" s="2">
+        <v>54</v>
+      </c>
+      <c r="H154" s="2">
+        <v>64</v>
+      </c>
+      <c r="I154" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>30126</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" s="2">
+        <v>35</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45</v>
+      </c>
+      <c r="G155" s="2">
+        <v>55</v>
+      </c>
+      <c r="H155" s="2">
+        <v>65</v>
+      </c>
+      <c r="I155" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>30127</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="2">
+        <v>36</v>
+      </c>
+      <c r="F156" s="2">
+        <v>46</v>
+      </c>
+      <c r="G156" s="2">
+        <v>56</v>
+      </c>
+      <c r="H156" s="2">
+        <v>66</v>
+      </c>
+      <c r="I156" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>30128</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E157" s="2">
+        <v>37</v>
+      </c>
+      <c r="F157" s="2">
+        <v>47</v>
+      </c>
+      <c r="G157" s="2">
+        <v>57</v>
+      </c>
+      <c r="H157" s="2">
+        <v>67</v>
+      </c>
+      <c r="I157" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>30129</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E158" s="2">
+        <v>38</v>
+      </c>
+      <c r="F158" s="2">
+        <v>48</v>
+      </c>
+      <c r="G158" s="2">
+        <v>58</v>
+      </c>
+      <c r="H158" s="2">
+        <v>68</v>
+      </c>
+      <c r="I158" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>30130</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E159" s="2">
+        <v>39</v>
+      </c>
+      <c r="F159" s="2">
+        <v>49</v>
+      </c>
+      <c r="G159" s="2">
+        <v>59</v>
+      </c>
+      <c r="H159" s="2">
+        <v>69</v>
+      </c>
+      <c r="I159" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>30201</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E160" s="2">
+        <v>40</v>
+      </c>
+      <c r="F160" s="2">
+        <v>50</v>
+      </c>
+      <c r="G160" s="2">
+        <v>60</v>
+      </c>
+      <c r="H160" s="2">
+        <v>70</v>
+      </c>
+      <c r="I160" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>30202</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E161" s="2">
+        <v>41</v>
+      </c>
+      <c r="F161" s="2">
+        <v>51</v>
+      </c>
+      <c r="G161" s="2">
+        <v>61</v>
+      </c>
+      <c r="H161" s="2">
+        <v>71</v>
+      </c>
+      <c r="I161" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>30203</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E162" s="2">
+        <v>42</v>
+      </c>
+      <c r="F162" s="2">
+        <v>52</v>
+      </c>
+      <c r="G162" s="2">
+        <v>62</v>
+      </c>
+      <c r="H162" s="2">
+        <v>72</v>
+      </c>
+      <c r="I162" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>30204</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E163" s="2">
+        <v>43</v>
+      </c>
+      <c r="F163" s="2">
+        <v>53</v>
+      </c>
+      <c r="G163" s="2">
+        <v>63</v>
+      </c>
+      <c r="H163" s="2">
+        <v>73</v>
+      </c>
+      <c r="I163" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>30205</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44</v>
+      </c>
+      <c r="F164" s="2">
+        <v>54</v>
+      </c>
+      <c r="G164" s="2">
+        <v>64</v>
+      </c>
+      <c r="H164" s="2">
+        <v>74</v>
+      </c>
+      <c r="I164" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>30206</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45</v>
+      </c>
+      <c r="F165" s="2">
+        <v>55</v>
+      </c>
+      <c r="G165" s="2">
+        <v>65</v>
+      </c>
+      <c r="H165" s="2">
+        <v>75</v>
+      </c>
+      <c r="I165" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>30207</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E166" s="2">
+        <v>46</v>
+      </c>
+      <c r="F166" s="2">
+        <v>56</v>
+      </c>
+      <c r="G166" s="2">
+        <v>66</v>
+      </c>
+      <c r="H166" s="2">
+        <v>76</v>
+      </c>
+      <c r="I166" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>30208</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E167" s="2">
+        <v>47</v>
+      </c>
+      <c r="F167" s="2">
+        <v>57</v>
+      </c>
+      <c r="G167" s="2">
+        <v>67</v>
+      </c>
+      <c r="H167" s="2">
+        <v>77</v>
+      </c>
+      <c r="I167" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>30209</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E168" s="2">
+        <v>48</v>
+      </c>
+      <c r="F168" s="2">
+        <v>58</v>
+      </c>
+      <c r="G168" s="2">
+        <v>68</v>
+      </c>
+      <c r="H168" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>30210</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E169" s="2">
+        <v>49</v>
+      </c>
+      <c r="F169" s="2">
+        <v>59</v>
+      </c>
+      <c r="G169" s="2">
+        <v>69</v>
+      </c>
+      <c r="H169" s="2">
+        <v>79</v>
+      </c>
+      <c r="I169" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>30201</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" s="2">
+        <v>50</v>
+      </c>
+      <c r="F170" s="2">
+        <v>60</v>
+      </c>
+      <c r="G170" s="2">
+        <v>70</v>
+      </c>
+      <c r="H170" s="2">
+        <v>80</v>
+      </c>
+      <c r="I170" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>30202</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E171" s="2">
+        <v>51</v>
+      </c>
+      <c r="F171" s="2">
+        <v>61</v>
+      </c>
+      <c r="G171" s="2">
+        <v>71</v>
+      </c>
+      <c r="H171" s="2">
+        <v>81</v>
+      </c>
+      <c r="I171" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>30203</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E172" s="2">
+        <v>52</v>
+      </c>
+      <c r="F172" s="2">
+        <v>62</v>
+      </c>
+      <c r="G172" s="2">
+        <v>72</v>
+      </c>
+      <c r="H172" s="2">
+        <v>82</v>
+      </c>
+      <c r="I172" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>30204</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="2">
+        <v>53</v>
+      </c>
+      <c r="F173" s="2">
+        <v>63</v>
+      </c>
+      <c r="G173" s="2">
+        <v>73</v>
+      </c>
+      <c r="H173" s="2">
+        <v>83</v>
+      </c>
+      <c r="I173" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>30205</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174" s="2">
+        <v>54</v>
+      </c>
+      <c r="F174" s="2">
+        <v>64</v>
+      </c>
+      <c r="G174" s="2">
+        <v>74</v>
+      </c>
+      <c r="H174" s="2">
+        <v>84</v>
+      </c>
+      <c r="I174" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>30206</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" s="2">
+        <v>55</v>
+      </c>
+      <c r="F175" s="2">
+        <v>65</v>
+      </c>
+      <c r="G175" s="2">
+        <v>75</v>
+      </c>
+      <c r="H175" s="2">
+        <v>85</v>
+      </c>
+      <c r="I175" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>30207</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E176" s="2">
+        <v>56</v>
+      </c>
+      <c r="F176" s="2">
+        <v>66</v>
+      </c>
+      <c r="G176" s="2">
+        <v>76</v>
+      </c>
+      <c r="H176" s="2">
+        <v>86</v>
+      </c>
+      <c r="I176" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>30208</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E177" s="2">
+        <v>57</v>
+      </c>
+      <c r="F177" s="2">
+        <v>67</v>
+      </c>
+      <c r="G177" s="2">
+        <v>77</v>
+      </c>
+      <c r="H177" s="2">
+        <v>87</v>
+      </c>
+      <c r="I177" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>30209</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E178" s="2">
+        <v>58</v>
+      </c>
+      <c r="F178" s="2">
+        <v>68</v>
+      </c>
+      <c r="G178" s="2">
+        <v>78</v>
+      </c>
+      <c r="H178" s="2">
+        <v>88</v>
+      </c>
+      <c r="I178" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>30210</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E179" s="2">
+        <v>59</v>
+      </c>
+      <c r="F179" s="2">
+        <v>69</v>
+      </c>
+      <c r="G179" s="2">
+        <v>79</v>
+      </c>
+      <c r="H179" s="2">
+        <v>89</v>
+      </c>
+      <c r="I179" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>30201</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E180" s="2">
+        <v>60</v>
+      </c>
+      <c r="F180" s="2">
+        <v>70</v>
+      </c>
+      <c r="G180" s="2">
+        <v>80</v>
+      </c>
+      <c r="H180" s="2">
+        <v>90</v>
+      </c>
+      <c r="I180" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>30202</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E181" s="2">
+        <v>61</v>
+      </c>
+      <c r="F181" s="2">
+        <v>71</v>
+      </c>
+      <c r="G181" s="2">
+        <v>81</v>
+      </c>
+      <c r="H181" s="2">
+        <v>91</v>
+      </c>
+      <c r="I181" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>30203</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E182" s="2">
+        <v>62</v>
+      </c>
+      <c r="F182" s="2">
+        <v>72</v>
+      </c>
+      <c r="G182" s="2">
+        <v>82</v>
+      </c>
+      <c r="H182" s="2">
+        <v>92</v>
+      </c>
+      <c r="I182" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>30204</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E183" s="2">
+        <v>63</v>
+      </c>
+      <c r="F183" s="2">
+        <v>73</v>
+      </c>
+      <c r="G183" s="2">
+        <v>83</v>
+      </c>
+      <c r="H183" s="2">
+        <v>93</v>
+      </c>
+      <c r="I183" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>30205</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E184" s="2">
+        <v>64</v>
+      </c>
+      <c r="F184" s="2">
+        <v>74</v>
+      </c>
+      <c r="G184" s="2">
+        <v>84</v>
+      </c>
+      <c r="H184" s="2">
+        <v>94</v>
+      </c>
+      <c r="I184" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>30206</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E185" s="2">
+        <v>65</v>
+      </c>
+      <c r="F185" s="2">
+        <v>75</v>
+      </c>
+      <c r="G185" s="2">
+        <v>85</v>
+      </c>
+      <c r="H185" s="2">
+        <v>95</v>
+      </c>
+      <c r="I185" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>30207</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E186" s="2">
+        <v>66</v>
+      </c>
+      <c r="F186" s="2">
+        <v>76</v>
+      </c>
+      <c r="G186" s="2">
+        <v>86</v>
+      </c>
+      <c r="H186" s="2">
+        <v>96</v>
+      </c>
+      <c r="I186" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>30208</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E187" s="2">
+        <v>67</v>
+      </c>
+      <c r="F187" s="2">
+        <v>77</v>
+      </c>
+      <c r="G187" s="2">
+        <v>87</v>
+      </c>
+      <c r="H187" s="2">
+        <v>97</v>
+      </c>
+      <c r="I187" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>30209</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" s="2">
+        <v>68</v>
+      </c>
+      <c r="F188" s="2">
+        <v>78</v>
+      </c>
+      <c r="G188" s="2">
+        <v>88</v>
+      </c>
+      <c r="H188" s="2">
+        <v>98</v>
+      </c>
+      <c r="I188" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>30210</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E189" s="2">
+        <v>69</v>
+      </c>
+      <c r="F189" s="2">
+        <v>79</v>
+      </c>
+      <c r="G189" s="2">
+        <v>89</v>
+      </c>
+      <c r="H189" s="2">
+        <v>99</v>
+      </c>
+      <c r="I189" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>40101</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E190" s="2">
+        <v>16</v>
+      </c>
+      <c r="F190" s="2">
+        <v>26</v>
+      </c>
+      <c r="G190" s="2">
+        <v>36</v>
+      </c>
+      <c r="H190" s="2">
+        <v>46</v>
+      </c>
+      <c r="I190" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>40102</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E191" s="2">
+        <v>17</v>
+      </c>
+      <c r="F191" s="2">
+        <v>27</v>
+      </c>
+      <c r="G191" s="2">
+        <v>37</v>
+      </c>
+      <c r="H191" s="2">
+        <v>47</v>
+      </c>
+      <c r="I191" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>40103</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E192" s="2">
+        <v>18</v>
+      </c>
+      <c r="F192" s="2">
+        <v>28</v>
+      </c>
+      <c r="G192" s="2">
+        <v>38</v>
+      </c>
+      <c r="H192" s="2">
+        <v>48</v>
+      </c>
+      <c r="I192" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>40104</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E193" s="2">
+        <v>19</v>
+      </c>
+      <c r="F193" s="2">
+        <v>29</v>
+      </c>
+      <c r="G193" s="2">
+        <v>39</v>
+      </c>
+      <c r="H193" s="2">
+        <v>49</v>
+      </c>
+      <c r="I193" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>40105</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194" s="2">
+        <v>20</v>
+      </c>
+      <c r="F194" s="2">
+        <v>30</v>
+      </c>
+      <c r="G194" s="2">
+        <v>40</v>
+      </c>
+      <c r="H194" s="2">
+        <v>50</v>
+      </c>
+      <c r="I194" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>50101</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" s="2">
+        <v>111</v>
+      </c>
+      <c r="F195" s="2">
+        <v>211</v>
+      </c>
+      <c r="G195" s="2">
+        <v>311</v>
+      </c>
+      <c r="H195" s="2">
+        <v>411</v>
+      </c>
+      <c r="I195" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>50102</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E196" s="2">
+        <v>112</v>
+      </c>
+      <c r="F196" s="2">
+        <v>212</v>
+      </c>
+      <c r="G196" s="2">
+        <v>312</v>
+      </c>
+      <c r="H196" s="2">
+        <v>412</v>
+      </c>
+      <c r="I196" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>50103</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E197" s="2">
+        <v>113</v>
+      </c>
+      <c r="F197" s="2">
+        <v>213</v>
+      </c>
+      <c r="G197" s="2">
+        <v>313</v>
+      </c>
+      <c r="H197" s="2">
+        <v>413</v>
+      </c>
+      <c r="I197" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>50201</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E198" s="2">
+        <v>114</v>
+      </c>
+      <c r="F198" s="2">
+        <v>214</v>
+      </c>
+      <c r="G198" s="2">
+        <v>314</v>
+      </c>
+      <c r="H198" s="2">
+        <v>414</v>
+      </c>
+      <c r="I198" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>50202</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E199" s="2">
+        <v>115</v>
+      </c>
+      <c r="F199" s="2">
+        <v>215</v>
+      </c>
+      <c r="G199" s="2">
+        <v>315</v>
+      </c>
+      <c r="H199" s="2">
+        <v>415</v>
+      </c>
+      <c r="I199" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>50203</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E200" s="2">
+        <v>116</v>
+      </c>
+      <c r="F200" s="2">
+        <v>216</v>
+      </c>
+      <c r="G200" s="2">
+        <v>316</v>
+      </c>
+      <c r="H200" s="2">
+        <v>416</v>
+      </c>
+      <c r="I200" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>60101</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E201" s="2">
+        <v>117</v>
+      </c>
+      <c r="F201" s="2">
+        <v>217</v>
+      </c>
+      <c r="G201" s="2">
+        <v>317</v>
+      </c>
+      <c r="H201" s="2">
+        <v>417</v>
+      </c>
+      <c r="I201" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>60102</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E202" s="2">
+        <v>118</v>
+      </c>
+      <c r="F202" s="2">
+        <v>218</v>
+      </c>
+      <c r="G202" s="2">
+        <v>318</v>
+      </c>
+      <c r="H202" s="2">
+        <v>418</v>
+      </c>
+      <c r="I202" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>60103</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E203" s="2">
+        <v>119</v>
+      </c>
+      <c r="F203" s="2">
+        <v>219</v>
+      </c>
+      <c r="G203" s="2">
+        <v>319</v>
+      </c>
+      <c r="H203" s="2">
+        <v>419</v>
+      </c>
+      <c r="I203" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>60104</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E204" s="2">
+        <v>120</v>
+      </c>
+      <c r="F204" s="2">
+        <v>220</v>
+      </c>
+      <c r="G204" s="2">
+        <v>320</v>
+      </c>
+      <c r="H204" s="2">
+        <v>420</v>
+      </c>
+      <c r="I204" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>60105</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E205" s="2">
+        <v>121</v>
+      </c>
+      <c r="F205" s="2">
+        <v>221</v>
+      </c>
+      <c r="G205" s="2">
+        <v>321</v>
+      </c>
+      <c r="H205" s="2">
+        <v>421</v>
+      </c>
+      <c r="I205" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>70101</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E206" s="2">
+        <v>3</v>
+      </c>
+      <c r="F206" s="2">
+        <v>3</v>
+      </c>
+      <c r="G206" s="2">
+        <v>3</v>
+      </c>
+      <c r="H206" s="2">
+        <v>3</v>
+      </c>
+      <c r="I206" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>70102</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E207" s="2">
+        <v>6</v>
+      </c>
+      <c r="F207" s="2">
+        <v>6</v>
+      </c>
+      <c r="G207" s="2">
+        <v>6</v>
+      </c>
+      <c r="H207" s="2">
+        <v>6</v>
+      </c>
+      <c r="I207" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>70103</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E208" s="2">
+        <v>9</v>
+      </c>
+      <c r="F208" s="2">
+        <v>9</v>
+      </c>
+      <c r="G208" s="2">
+        <v>9</v>
+      </c>
+      <c r="H208" s="2">
+        <v>9</v>
+      </c>
+      <c r="I208" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>70104</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E209" s="2">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2">
+        <v>12</v>
+      </c>
+      <c r="G209" s="2">
+        <v>12</v>
+      </c>
+      <c r="H209" s="2">
+        <v>12</v>
+      </c>
+      <c r="I209" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>70105</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E210" s="2">
+        <v>15</v>
+      </c>
+      <c r="F210" s="2">
+        <v>15</v>
+      </c>
+      <c r="G210" s="2">
+        <v>15</v>
+      </c>
+      <c r="H210" s="2">
+        <v>15</v>
+      </c>
+      <c r="I210" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>70106</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E211" s="2">
+        <v>18</v>
+      </c>
+      <c r="F211" s="2">
+        <v>18</v>
+      </c>
+      <c r="G211" s="2">
+        <v>18</v>
+      </c>
+      <c r="H211" s="2">
+        <v>18</v>
+      </c>
+      <c r="I211" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>70107</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E212" s="2">
+        <v>21</v>
+      </c>
+      <c r="F212" s="2">
+        <v>21</v>
+      </c>
+      <c r="G212" s="2">
+        <v>21</v>
+      </c>
+      <c r="H212" s="2">
+        <v>21</v>
+      </c>
+      <c r="I212" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>70108</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E213" s="2">
+        <v>24</v>
+      </c>
+      <c r="F213" s="2">
+        <v>24</v>
+      </c>
+      <c r="G213" s="2">
+        <v>24</v>
+      </c>
+      <c r="H213" s="2">
+        <v>24</v>
+      </c>
+      <c r="I213" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>70109</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E214" s="2">
+        <v>27</v>
+      </c>
+      <c r="F214" s="2">
+        <v>27</v>
+      </c>
+      <c r="G214" s="2">
+        <v>27</v>
+      </c>
+      <c r="H214" s="2">
+        <v>27</v>
+      </c>
+      <c r="I214" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>70110</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E215" s="2">
+        <v>30</v>
+      </c>
+      <c r="F215" s="2">
+        <v>30</v>
+      </c>
+      <c r="G215" s="2">
+        <v>30</v>
+      </c>
+      <c r="H215" s="2">
+        <v>30</v>
+      </c>
+      <c r="I215" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>70111</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E216" s="5">
+        <v>33</v>
+      </c>
+      <c r="F216" s="5">
+        <v>33</v>
+      </c>
+      <c r="G216" s="5">
+        <v>33</v>
+      </c>
+      <c r="H216" s="5">
+        <v>33</v>
+      </c>
+      <c r="I216" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>70112</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E217" s="2">
+        <v>36</v>
+      </c>
+      <c r="F217" s="2">
+        <v>36</v>
+      </c>
+      <c r="G217" s="2">
+        <v>36</v>
+      </c>
+      <c r="H217" s="2">
+        <v>36</v>
+      </c>
+      <c r="I217" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>70113</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E218" s="5">
+        <v>39</v>
+      </c>
+      <c r="F218" s="5">
+        <v>39</v>
+      </c>
+      <c r="G218" s="5">
+        <v>39</v>
+      </c>
+      <c r="H218" s="5">
+        <v>39</v>
+      </c>
+      <c r="I218" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>70114</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E219" s="2">
+        <v>42</v>
+      </c>
+      <c r="F219" s="2">
+        <v>42</v>
+      </c>
+      <c r="G219" s="2">
+        <v>42</v>
+      </c>
+      <c r="H219" s="2">
+        <v>42</v>
+      </c>
+      <c r="I219" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>70115</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E220" s="5">
+        <v>45</v>
+      </c>
+      <c r="F220" s="5">
+        <v>45</v>
+      </c>
+      <c r="G220" s="5">
+        <v>45</v>
+      </c>
+      <c r="H220" s="5">
+        <v>45</v>
+      </c>
+      <c r="I220" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>80101</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>80102</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>80103</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>80104</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>80105</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>80106</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>80107</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>80108</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>80109</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>80110</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>81101</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>81102</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>81103</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>81104</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>81105</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>81106</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>81107</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>81108</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>81109</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>81110</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>82101</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>82102</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>82103</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>82104</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>82105</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>82106</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>82107</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>82108</v>
+      </c>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>82109</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>82110</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" s="4">
+        <v>83101</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" s="4">
+        <v>83102</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>83103</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>83104</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>83105</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" s="4">
+        <v>83106</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" s="4">
+        <v>83107</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" s="4">
+        <v>83108</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>83109</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>83110</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>84101</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="4">
+        <v>84102</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" s="4">
+        <v>84103</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>84104</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>84105</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>84106</v>
+      </c>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>84107</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>84108</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" s="4">
+        <v>84109</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="4">
+        <v>84110</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" s="4">
+        <v>85101</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" s="4">
+        <v>85102</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" s="4">
+        <v>85103</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" s="4">
+        <v>85104</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>85105</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" s="4">
+        <v>85106</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" s="4">
+        <v>85107</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" s="4">
+        <v>85108</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" s="4">
+        <v>85109</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" s="4">
+        <v>85110</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" s="4">
+        <v>86101</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" s="4">
+        <v>86102</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283" s="4">
+        <v>86103</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284" s="4">
+        <v>86104</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="4">
+        <v>86105</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="4">
+        <v>86106</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="4">
+        <v>86107</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288" s="4">
+        <v>86108</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="2"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" s="4">
+        <v>86109</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" s="4">
+        <v>86110</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="429">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,6 +1065,489 @@
   </si>
   <si>
     <t>minedesc10</t>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join the event！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptocurrency exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密货币交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-设置弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-活动提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证（点击复制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORT(press to copy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你离开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的时间内获得的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告获取双倍奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome back,Ripper Miner!</t>
+  </si>
+  <si>
+    <t>You were offline</t>
+  </si>
+  <si>
+    <t>YOU EARNED</t>
+  </si>
+  <si>
+    <t>on Crypto World while you were gone</t>
+  </si>
+  <si>
+    <t>Watch an ad for Double Earnings</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocks</t>
+  </si>
+  <si>
+    <t>Unlocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想让你的利润最大化吗投资这些企业以解锁利润奖金！</t>
+  </si>
+  <si>
+    <t>want to maximize your profits？ invest in these businesses to unlock profit bonuses!</t>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>一共赚取了多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifetime earnings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash on hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁矿产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置矿产次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset mineral resources</t>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These make your life easier and help you optimize your assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些让你的生活更轻松，帮助优化资产！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megatoken</t>
+  </si>
+  <si>
+    <t>Managers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们被召唤去服务和帮助你消灭宇宙！</t>
+  </si>
+  <si>
+    <t>They are called to serve and help you to annihilate the Universe</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你赚的游戏币越多，你吸引的投资者就越多！他们增加利润，但你需要卖掉你的企业并开始结束！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more currency you earn, the more Investors you attract! Theyincrease profits,but your`ll need to sell your businesses and startover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your total Investors</t>
+  </si>
+  <si>
+    <t>你拥有的水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目中获得的额外利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Bonus Per Inverstor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启获得钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors claimed with restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLAIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取钻石数量</t>
+  </si>
+  <si>
+    <t>销售界面-售卖弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors ready to boost profits!</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取奖励需要重置你的矿产，但会让你更快的获取比特币。或者使用黄金保住你的矿产！</t>
+  </si>
+  <si>
+    <t>Claiming requires resetting your preogress,butyou`ll earn it back quickly in no time! Or,use Goldto keep your existing progress.</t>
+  </si>
+  <si>
+    <t>重置并且售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖并且不重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim &amp; Keep Progress</t>
+  </si>
+  <si>
+    <t>Reset &amp; Claim</t>
+  </si>
+  <si>
+    <t>你的黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Gold</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1166,11 +1645,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1446,22 +1952,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E283" sqref="E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="4" max="4" width="75.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1635,10 +2141,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -1662,10 +2168,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -1689,10 +2195,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -1716,10 +2222,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
@@ -1743,10 +2249,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -1770,10 +2276,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -1797,10 +2303,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -1988,10 +2494,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2015,10 +2521,10 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
@@ -2042,10 +2548,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
@@ -2069,10 +2575,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
@@ -2096,10 +2602,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
@@ -2123,10 +2629,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -2150,10 +2656,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
@@ -2177,10 +2683,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2">
         <v>17</v>
@@ -2204,10 +2710,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" s="2">
         <v>18</v>
@@ -2231,10 +2737,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" s="2">
         <v>19</v>
@@ -2258,10 +2764,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30" s="2">
         <v>20</v>
@@ -2285,10 +2791,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="2">
         <v>21</v>
@@ -2312,10 +2818,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -2339,10 +2845,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33" s="2">
         <v>23</v>
@@ -2366,10 +2872,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" s="2">
         <v>24</v>
@@ -2393,10 +2899,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="2">
         <v>25</v>
@@ -2420,10 +2926,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E36" s="2">
         <v>26</v>
@@ -2447,10 +2953,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="2">
         <v>27</v>
@@ -2474,10 +2980,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="2">
         <v>28</v>
@@ -2501,10 +3007,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="2">
         <v>29</v>
@@ -2528,10 +3034,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="2">
         <v>30</v>
@@ -2555,10 +3061,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E41" s="2">
         <v>31</v>
@@ -2582,10 +3088,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="2">
         <v>32</v>
@@ -2609,10 +3115,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E43" s="2">
         <v>33</v>
@@ -2636,10 +3142,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2">
         <v>34</v>
@@ -2663,10 +3169,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E45" s="2">
         <v>35</v>
@@ -2690,10 +3196,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E46" s="2">
         <v>36</v>
@@ -2717,10 +3223,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="2">
         <v>37</v>
@@ -2744,10 +3250,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48" s="2">
         <v>38</v>
@@ -2771,10 +3277,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E49" s="2">
         <v>39</v>
@@ -2798,10 +3304,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="2">
         <v>40</v>
@@ -2825,10 +3331,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" s="2">
         <v>41</v>
@@ -2852,10 +3358,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="2">
         <v>42</v>
@@ -2879,10 +3385,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="2">
         <v>43</v>
@@ -2906,10 +3412,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2">
         <v>44</v>
@@ -2933,10 +3439,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E55" s="2">
         <v>45</v>
@@ -2960,10 +3466,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="2">
         <v>46</v>
@@ -2987,10 +3493,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="2">
         <v>47</v>
@@ -3014,10 +3520,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E58" s="2">
         <v>48</v>
@@ -3041,10 +3547,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E59" s="2">
         <v>49</v>
@@ -3068,10 +3574,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E60" s="2">
         <v>50</v>
@@ -3095,10 +3601,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="2">
         <v>51</v>
@@ -3122,10 +3628,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2">
         <v>52</v>
@@ -3149,10 +3655,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E63" s="2">
         <v>53</v>
@@ -3176,10 +3682,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E64" s="2">
         <v>54</v>
@@ -3203,10 +3709,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E65" s="2">
         <v>55</v>
@@ -3230,10 +3736,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2">
         <v>56</v>
@@ -3257,10 +3763,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" s="2">
         <v>57</v>
@@ -3284,10 +3790,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2">
         <v>58</v>
@@ -3311,10 +3817,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" s="2">
         <v>59</v>
@@ -3338,10 +3844,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="2">
         <v>60</v>
@@ -3365,10 +3871,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2">
         <v>61</v>
@@ -3392,10 +3898,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" s="2">
         <v>62</v>
@@ -3419,10 +3925,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E73" s="2">
         <v>63</v>
@@ -3446,10 +3952,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E74" s="2">
         <v>64</v>
@@ -3473,10 +3979,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E75" s="2">
         <v>65</v>
@@ -3500,10 +4006,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2">
         <v>66</v>
@@ -3527,10 +4033,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" s="2">
         <v>67</v>
@@ -3554,10 +4060,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="2">
         <v>68</v>
@@ -3581,10 +4087,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E79" s="2">
         <v>69</v>
@@ -3608,10 +4114,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" s="2">
         <v>70</v>
@@ -3635,10 +4141,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2">
         <v>71</v>
@@ -3662,10 +4168,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2">
         <v>72</v>
@@ -3689,10 +4195,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E83" s="2">
         <v>73</v>
@@ -3716,10 +4222,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E84" s="2">
         <v>74</v>
@@ -3743,10 +4249,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E85" s="2">
         <v>75</v>
@@ -3770,10 +4276,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="2">
         <v>76</v>
@@ -3797,10 +4303,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E87" s="2">
         <v>77</v>
@@ -3824,10 +4330,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E88" s="2">
         <v>78</v>
@@ -3851,10 +4357,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E89" s="2">
         <v>79</v>
@@ -3878,10 +4384,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E90" s="2">
         <v>80</v>
@@ -3905,10 +4411,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E91" s="2">
         <v>81</v>
@@ -3932,10 +4438,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="E92" s="2">
         <v>82</v>
@@ -3959,10 +4465,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E93" s="2">
         <v>83</v>
@@ -3986,10 +4492,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E94" s="2">
         <v>84</v>
@@ -4013,10 +4519,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E95" s="2">
         <v>85</v>
@@ -4040,10 +4546,10 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E96" s="2">
         <v>86</v>
@@ -4067,10 +4573,10 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E97" s="2">
         <v>87</v>
@@ -4094,10 +4600,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E98" s="2">
         <v>88</v>
@@ -4121,10 +4627,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E99" s="2">
         <v>89</v>
@@ -4148,10 +4654,10 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E100" s="2">
         <v>90</v>
@@ -4175,10 +4681,10 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E101" s="2">
         <v>91</v>
@@ -4202,10 +4708,10 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="E102" s="2">
         <v>92</v>
@@ -4229,10 +4735,10 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E103" s="2">
         <v>93</v>
@@ -4256,10 +4762,10 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E104" s="2">
         <v>94</v>
@@ -4283,10 +4789,10 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E105" s="2">
         <v>95</v>
@@ -4310,10 +4816,10 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E106" s="2">
         <v>96</v>
@@ -4337,10 +4843,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E107" s="2">
         <v>97</v>
@@ -4364,10 +4870,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E108" s="2">
         <v>98</v>
@@ -4391,10 +4897,10 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E109" s="2">
         <v>99</v>
@@ -4418,10 +4924,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E110" s="2">
         <v>100</v>
@@ -4445,10 +4951,10 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E111" s="2">
         <v>101</v>
@@ -4472,10 +4978,10 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E112" s="2">
         <v>102</v>
@@ -4499,10 +5005,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E113" s="2">
         <v>103</v>
@@ -4526,10 +5032,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2">
         <v>104</v>
@@ -4553,10 +5059,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2">
         <v>105</v>
@@ -4580,10 +5086,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2">
         <v>106</v>
@@ -4607,10 +5113,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2">
         <v>107</v>
@@ -4634,10 +5140,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2">
         <v>108</v>
@@ -4661,10 +5167,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2">
         <v>109</v>
@@ -4688,10 +5194,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E120" s="2">
         <v>110</v>
@@ -4715,10 +5221,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E121" s="2">
         <v>111</v>
@@ -4742,10 +5248,10 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="E122" s="2">
         <v>112</v>
@@ -4769,10 +5275,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E123" s="2">
         <v>113</v>
@@ -4796,10 +5302,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="E124" s="2">
         <v>114</v>
@@ -4823,10 +5329,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="E125" s="2">
         <v>115</v>
@@ -4850,10 +5356,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E126" s="2">
         <v>116</v>
@@ -4877,10 +5383,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E127" s="2">
         <v>117</v>
@@ -4904,10 +5410,10 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E128" s="2">
         <v>118</v>
@@ -4931,10 +5437,10 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E129" s="2">
         <v>119</v>
@@ -5122,10 +5628,10 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E136" s="2">
         <v>16</v>
@@ -5149,10 +5655,10 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E137" s="2">
         <v>17</v>
@@ -5176,10 +5682,10 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E138" s="2">
         <v>18</v>
@@ -5203,10 +5709,10 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E139" s="2">
         <v>19</v>
@@ -5230,10 +5736,10 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E140" s="2">
         <v>20</v>
@@ -5257,10 +5763,10 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E141" s="2">
         <v>21</v>
@@ -5284,10 +5790,10 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E142" s="2">
         <v>22</v>
@@ -5311,10 +5817,10 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E143" s="2">
         <v>23</v>
@@ -5338,10 +5844,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E144" s="2">
         <v>24</v>
@@ -5365,10 +5871,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E145" s="2">
         <v>25</v>
@@ -5392,10 +5898,10 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E146" s="2">
         <v>26</v>
@@ -5419,10 +5925,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E147" s="2">
         <v>27</v>
@@ -5446,10 +5952,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E148" s="2">
         <v>28</v>
@@ -5473,10 +5979,10 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E149" s="2">
         <v>29</v>
@@ -5500,10 +6006,10 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E150" s="2">
         <v>30</v>
@@ -5527,10 +6033,10 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E151" s="2">
         <v>31</v>
@@ -5554,10 +6060,10 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E152" s="2">
         <v>32</v>
@@ -5581,10 +6087,10 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E153" s="2">
         <v>33</v>
@@ -5608,10 +6114,10 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E154" s="2">
         <v>34</v>
@@ -5635,10 +6141,10 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E155" s="2">
         <v>35</v>
@@ -5662,10 +6168,10 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E156" s="2">
         <v>36</v>
@@ -5689,10 +6195,10 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E157" s="2">
         <v>37</v>
@@ -5716,10 +6222,10 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E158" s="2">
         <v>38</v>
@@ -5743,10 +6249,10 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E159" s="2">
         <v>39</v>
@@ -5769,13 +6275,13 @@
         <v>30201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E160" s="2">
         <v>40</v>
@@ -5799,10 +6305,10 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E161" s="2">
         <v>41</v>
@@ -5826,10 +6332,10 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E162" s="2">
         <v>42</v>
@@ -5853,10 +6359,10 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E163" s="2">
         <v>43</v>
@@ -5880,10 +6386,10 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E164" s="2">
         <v>44</v>
@@ -5907,10 +6413,10 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165" s="2">
         <v>45</v>
@@ -5934,10 +6440,10 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E166" s="2">
         <v>46</v>
@@ -5961,10 +6467,10 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E167" s="2">
         <v>47</v>
@@ -5988,10 +6494,10 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E168" s="2">
         <v>48</v>
@@ -6015,10 +6521,10 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E169" s="2">
         <v>49</v>
@@ -6038,14 +6544,14 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>30201</v>
+        <v>30211</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E170" s="2">
         <v>50</v>
@@ -6065,14 +6571,14 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>30202</v>
+        <v>30212</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E171" s="2">
         <v>51</v>
@@ -6092,14 +6598,14 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>30203</v>
+        <v>30213</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E172" s="2">
         <v>52</v>
@@ -6119,14 +6625,14 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>30204</v>
+        <v>30214</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E173" s="2">
         <v>53</v>
@@ -6146,14 +6652,14 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>30205</v>
+        <v>30215</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E174" s="2">
         <v>54</v>
@@ -6173,14 +6679,14 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>30206</v>
+        <v>30216</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E175" s="2">
         <v>55</v>
@@ -6200,14 +6706,14 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>30207</v>
+        <v>30217</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E176" s="2">
         <v>56</v>
@@ -6227,14 +6733,14 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>30208</v>
+        <v>30218</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E177" s="2">
         <v>57</v>
@@ -6254,14 +6760,14 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>30209</v>
+        <v>30219</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E178" s="2">
         <v>58</v>
@@ -6281,14 +6787,14 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>30210</v>
+        <v>30220</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E179" s="2">
         <v>59</v>
@@ -6308,14 +6814,14 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>30201</v>
+        <v>30221</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E180" s="2">
         <v>60</v>
@@ -6335,14 +6841,14 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>30202</v>
+        <v>30222</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E181" s="2">
         <v>61</v>
@@ -6362,14 +6868,14 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>30203</v>
+        <v>30223</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E182" s="2">
         <v>62</v>
@@ -6389,14 +6895,14 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>30204</v>
+        <v>30224</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E183" s="2">
         <v>63</v>
@@ -6416,14 +6922,14 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>30205</v>
+        <v>30225</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E184" s="2">
         <v>64</v>
@@ -6443,14 +6949,14 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>30206</v>
+        <v>30226</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E185" s="2">
         <v>65</v>
@@ -6470,14 +6976,14 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>30207</v>
+        <v>30227</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E186" s="2">
         <v>66</v>
@@ -6497,14 +7003,14 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>30208</v>
+        <v>30228</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E187" s="2">
         <v>67</v>
@@ -6524,14 +7030,14 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>30209</v>
+        <v>30229</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E188" s="2">
         <v>68</v>
@@ -6551,14 +7057,14 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>30210</v>
+        <v>30230</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E189" s="2">
         <v>69</v>
@@ -7019,13 +7525,13 @@
         <v>70101</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D206" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -7049,10 +7555,10 @@
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E207" s="2">
         <v>6</v>
@@ -7076,10 +7582,10 @@
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E208" s="2">
         <v>9</v>
@@ -7103,10 +7609,10 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E209" s="2">
         <v>12</v>
@@ -7130,10 +7636,10 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E210" s="2">
         <v>15</v>
@@ -7157,10 +7663,10 @@
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E211" s="2">
         <v>18</v>
@@ -7184,10 +7690,10 @@
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E212" s="2">
         <v>21</v>
@@ -7211,10 +7717,10 @@
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E213" s="2">
         <v>24</v>
@@ -7238,10 +7744,10 @@
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E214" s="2">
         <v>27</v>
@@ -7265,10 +7771,10 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E215" s="2">
         <v>30</v>
@@ -7292,10 +7798,10 @@
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E216" s="5">
         <v>33</v>
@@ -7319,10 +7825,10 @@
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E217" s="2">
         <v>36</v>
@@ -7346,10 +7852,10 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E218" s="5">
         <v>39</v>
@@ -7373,10 +7879,10 @@
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E219" s="2">
         <v>42</v>
@@ -7400,10 +7906,10 @@
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E220" s="5">
         <v>45</v>
@@ -7423,75 +7929,87 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>80101</v>
+        <v>70201</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>80102</v>
+        <v>70202</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
+      <c r="C222" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>80103</v>
+        <v>70203</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
+      <c r="C223" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <v>80104</v>
+        <v>70204</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
+      <c r="C224" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>80105</v>
-      </c>
-      <c r="B225" s="2"/>
+        <v>80101</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C225" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D225" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -7500,13 +8018,15 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>80106</v>
+        <v>80102</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D226" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -7515,13 +8035,15 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>80107</v>
+        <v>80103</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D227" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -7530,13 +8052,15 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>80108</v>
+        <v>80104</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D228" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -7545,13 +8069,15 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>80109</v>
+        <v>80105</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D229" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -7560,13 +8086,17 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>80110</v>
-      </c>
-      <c r="B230" s="2"/>
+        <v>80106</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="C230" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D230" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -7575,15 +8105,17 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>81101</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>130</v>
+        <v>80107</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D231" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -7592,13 +8124,17 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>81102</v>
-      </c>
-      <c r="B232" s="2"/>
+        <v>80201</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="C232" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D232" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -7607,13 +8143,17 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>81103</v>
-      </c>
-      <c r="B233" s="2"/>
+        <v>80202</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="C233" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D233" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -7622,13 +8162,17 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>81104</v>
-      </c>
-      <c r="B234" s="2"/>
+        <v>80301</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="C234" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -7637,13 +8181,15 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>81105</v>
-      </c>
-      <c r="B235" s="2"/>
+        <v>80302</v>
+      </c>
+      <c r="B235" s="7"/>
       <c r="C235" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D235" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -7652,13 +8198,15 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>81106</v>
-      </c>
-      <c r="B236" s="2"/>
+        <v>80303</v>
+      </c>
+      <c r="B236" s="7"/>
       <c r="C236" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D236" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -7667,13 +8215,15 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>81107</v>
-      </c>
-      <c r="B237" s="2"/>
+        <v>80304</v>
+      </c>
+      <c r="B237" s="7"/>
       <c r="C237" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D237" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -7682,13 +8232,15 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>81108</v>
-      </c>
-      <c r="B238" s="2"/>
+        <v>80305</v>
+      </c>
+      <c r="B238" s="7"/>
       <c r="C238" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -7697,13 +8249,15 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>81109</v>
-      </c>
-      <c r="B239" s="2"/>
+        <v>80306</v>
+      </c>
+      <c r="B239" s="7"/>
       <c r="C239" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D239" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -7712,13 +8266,15 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>81110</v>
-      </c>
-      <c r="B240" s="2"/>
+        <v>80307</v>
+      </c>
+      <c r="B240" s="7"/>
       <c r="C240" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D240" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -7727,15 +8283,15 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>82101</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>80401</v>
+      </c>
+      <c r="B241" s="7"/>
       <c r="C241" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D241" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -7744,13 +8300,15 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>82102</v>
-      </c>
-      <c r="B242" s="2"/>
+        <v>80402</v>
+      </c>
+      <c r="B242" s="7"/>
       <c r="C242" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D242" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -7759,13 +8317,17 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>82103</v>
-      </c>
-      <c r="B243" s="2"/>
+        <v>80501</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="C243" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D243" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -7774,13 +8336,15 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>82104</v>
-      </c>
-      <c r="B244" s="2"/>
+        <v>80502</v>
+      </c>
+      <c r="B244" s="7"/>
       <c r="C244" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D244" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -7789,13 +8353,15 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>82105</v>
-      </c>
-      <c r="B245" s="2"/>
+        <v>80503</v>
+      </c>
+      <c r="B245" s="7"/>
       <c r="C245" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D245" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -7804,13 +8370,17 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>82106</v>
-      </c>
-      <c r="B246" s="2"/>
+        <v>80601</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="C246" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D246" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -7819,13 +8389,15 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>82107</v>
-      </c>
-      <c r="B247" s="2"/>
+        <v>80602</v>
+      </c>
+      <c r="B247" s="7"/>
       <c r="C247" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D247" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -7834,13 +8406,15 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>82108</v>
-      </c>
-      <c r="B248" s="2"/>
+        <v>80603</v>
+      </c>
+      <c r="B248" s="7"/>
       <c r="C248" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D248" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -7849,13 +8423,15 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <v>82109</v>
-      </c>
-      <c r="B249" s="2"/>
+        <v>80604</v>
+      </c>
+      <c r="B249" s="7"/>
       <c r="C249" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D249" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -7864,13 +8440,15 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
-        <v>82110</v>
-      </c>
-      <c r="B250" s="2"/>
+        <v>80605</v>
+      </c>
+      <c r="B250" s="7"/>
       <c r="C250" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D250" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -7879,15 +8457,17 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
-        <v>83101</v>
+        <v>81101</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D251" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -7896,13 +8476,15 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
-        <v>83102</v>
+        <v>81102</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -7911,13 +8493,15 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <v>83103</v>
+        <v>81103</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D253" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -7926,13 +8510,15 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <v>83104</v>
+        <v>81104</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D254" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -7941,13 +8527,15 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
-        <v>83105</v>
+        <v>81105</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D255" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -7956,13 +8544,15 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
-        <v>83106</v>
+        <v>81106</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D256" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -7971,13 +8561,15 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
-        <v>83107</v>
+        <v>81107</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D257" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -7986,13 +8578,15 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
-        <v>83108</v>
+        <v>81108</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D258" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -8001,13 +8595,17 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
-        <v>83109</v>
-      </c>
-      <c r="B259" s="2"/>
+        <v>82101</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C259" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D259" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -8016,13 +8614,15 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
-        <v>83110</v>
+        <v>82102</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D260" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -8031,15 +8631,15 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
-        <v>84101</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>82103</v>
+      </c>
+      <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D261" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -8048,13 +8648,15 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
-        <v>84102</v>
+        <v>82104</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D262" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -8063,13 +8665,15 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
-        <v>84103</v>
+        <v>82105</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D263" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -8078,13 +8682,15 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
-        <v>84104</v>
+        <v>82106</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -8093,13 +8699,17 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
-        <v>84105</v>
-      </c>
-      <c r="B265" s="2"/>
+        <v>83101</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C265" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D265" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -8108,13 +8718,15 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
-        <v>84106</v>
+        <v>83102</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D266" s="2"/>
+      <c r="C266" t="s">
+        <v>398</v>
+      </c>
+      <c r="D266" t="s">
+        <v>399</v>
+      </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -8123,13 +8735,15 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
-        <v>84107</v>
+        <v>83103</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D267" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -8138,13 +8752,15 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
-        <v>84108</v>
+        <v>83104</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D268" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -8153,13 +8769,15 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
-        <v>84109</v>
+        <v>83105</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D269" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -8168,13 +8786,17 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
-        <v>84110</v>
-      </c>
-      <c r="B270" s="2"/>
+        <v>84101</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C270" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D270" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -8183,15 +8805,15 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
-        <v>85101</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>84102</v>
+      </c>
+      <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D271" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -8200,13 +8822,15 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
-        <v>85102</v>
+        <v>84103</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -8215,13 +8839,15 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
-        <v>85103</v>
+        <v>84104</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -8230,13 +8856,15 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
-        <v>85104</v>
+        <v>84105</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -8245,13 +8873,15 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
-        <v>85105</v>
+        <v>84106</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -8260,13 +8890,17 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
-        <v>85106</v>
-      </c>
-      <c r="B276" s="2"/>
+        <v>84201</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="C276" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D276" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -8275,13 +8909,15 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
-        <v>85107</v>
+        <v>84202</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -8290,13 +8926,15 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
-        <v>85108</v>
+        <v>84203</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -8305,13 +8943,15 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
-        <v>85109</v>
+        <v>84204</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D279" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -8320,13 +8960,15 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
-        <v>85110</v>
+        <v>84205</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D280" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -8335,15 +8977,15 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
-        <v>86101</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>84206</v>
+      </c>
+      <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D281" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -8352,11 +8994,13 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
-        <v>86102</v>
-      </c>
-      <c r="B282" s="2"/>
+        <v>85101</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C282" s="2" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -8367,11 +9011,11 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
-        <v>86103</v>
+        <v>85102</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -8382,11 +9026,11 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
-        <v>86104</v>
+        <v>85103</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -8397,11 +9041,11 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
-        <v>86105</v>
+        <v>85104</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -8412,11 +9056,11 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
-        <v>86106</v>
+        <v>85105</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -8427,11 +9071,11 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
-        <v>86107</v>
+        <v>85106</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -8442,11 +9086,11 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
-        <v>86108</v>
+        <v>85107</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -8457,11 +9101,11 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
-        <v>86109</v>
+        <v>85108</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -8472,11 +9116,11 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
-        <v>86110</v>
+        <v>85109</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -8485,8 +9129,211 @@
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
     </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" s="4">
+        <v>85110</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" s="4">
+        <v>86101</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" s="4">
+        <v>86102</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294" s="4">
+        <v>86103</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295" s="4">
+        <v>86104</v>
+      </c>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="4">
+        <v>86105</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="4">
+        <v>86106</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="4">
+        <v>86107</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="4">
+        <v>86108</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="4">
+        <v>86109</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="4">
+        <v>86110</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="4">
+        <v>90101</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="4">
+        <v>90102</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -252,14 +252,6 @@
     <t>Token</t>
   </si>
   <si>
-    <t>广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插屏广告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1548,6 +1540,14 @@
   </si>
   <si>
     <t>Your Gold</t>
+  </si>
+  <si>
+    <t>商店内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E283" sqref="E283"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1967,7 +1967,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2141,10 +2141,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -2168,10 +2168,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -2195,10 +2195,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -2222,10 +2222,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
@@ -2249,10 +2249,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -2276,10 +2276,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -2303,10 +2303,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -2494,10 +2494,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
@@ -2548,10 +2548,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
@@ -2575,10 +2575,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
@@ -2602,10 +2602,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
@@ -2629,10 +2629,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -2656,10 +2656,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
@@ -2683,10 +2683,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E27" s="2">
         <v>17</v>
@@ -2710,10 +2710,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E28" s="2">
         <v>18</v>
@@ -2737,10 +2737,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E29" s="2">
         <v>19</v>
@@ -2764,10 +2764,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2">
         <v>20</v>
@@ -2791,10 +2791,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2">
         <v>21</v>
@@ -2818,10 +2818,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -2845,10 +2845,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="2">
         <v>23</v>
@@ -2872,10 +2872,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="2">
         <v>24</v>
@@ -2899,10 +2899,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E35" s="2">
         <v>25</v>
@@ -2926,10 +2926,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E36" s="2">
         <v>26</v>
@@ -2953,10 +2953,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E37" s="2">
         <v>27</v>
@@ -2980,10 +2980,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2">
         <v>28</v>
@@ -3007,10 +3007,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" s="2">
         <v>29</v>
@@ -3034,10 +3034,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E40" s="2">
         <v>30</v>
@@ -3061,10 +3061,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2">
         <v>31</v>
@@ -3088,10 +3088,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E42" s="2">
         <v>32</v>
@@ -3115,10 +3115,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E43" s="2">
         <v>33</v>
@@ -3142,10 +3142,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E44" s="2">
         <v>34</v>
@@ -3169,10 +3169,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E45" s="2">
         <v>35</v>
@@ -3196,10 +3196,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46" s="2">
         <v>36</v>
@@ -3223,10 +3223,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E47" s="2">
         <v>37</v>
@@ -3250,10 +3250,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E48" s="2">
         <v>38</v>
@@ -3277,10 +3277,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2">
         <v>39</v>
@@ -3304,10 +3304,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2">
         <v>40</v>
@@ -3331,10 +3331,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2">
         <v>41</v>
@@ -3358,10 +3358,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2">
         <v>42</v>
@@ -3385,10 +3385,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2">
         <v>43</v>
@@ -3412,10 +3412,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2">
         <v>44</v>
@@ -3439,10 +3439,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E55" s="2">
         <v>45</v>
@@ -3466,10 +3466,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2">
         <v>46</v>
@@ -3493,10 +3493,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2">
         <v>47</v>
@@ -3520,10 +3520,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E58" s="2">
         <v>48</v>
@@ -3547,10 +3547,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E59" s="2">
         <v>49</v>
@@ -3574,10 +3574,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" s="2">
         <v>50</v>
@@ -3601,10 +3601,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E61" s="2">
         <v>51</v>
@@ -3628,10 +3628,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2">
         <v>52</v>
@@ -3655,10 +3655,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E63" s="2">
         <v>53</v>
@@ -3682,10 +3682,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E64" s="2">
         <v>54</v>
@@ -3709,10 +3709,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E65" s="2">
         <v>55</v>
@@ -3736,10 +3736,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2">
         <v>56</v>
@@ -3763,10 +3763,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2">
         <v>57</v>
@@ -3790,10 +3790,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2">
         <v>58</v>
@@ -3817,10 +3817,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2">
         <v>59</v>
@@ -3844,10 +3844,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E70" s="2">
         <v>60</v>
@@ -3871,10 +3871,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E71" s="2">
         <v>61</v>
@@ -3898,10 +3898,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E72" s="2">
         <v>62</v>
@@ -3925,10 +3925,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E73" s="2">
         <v>63</v>
@@ -3952,10 +3952,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E74" s="2">
         <v>64</v>
@@ -3979,10 +3979,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E75" s="2">
         <v>65</v>
@@ -4006,10 +4006,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E76" s="2">
         <v>66</v>
@@ -4033,10 +4033,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2">
         <v>67</v>
@@ -4060,10 +4060,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E78" s="2">
         <v>68</v>
@@ -4087,10 +4087,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E79" s="2">
         <v>69</v>
@@ -4114,10 +4114,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E80" s="2">
         <v>70</v>
@@ -4141,10 +4141,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2">
         <v>71</v>
@@ -4168,10 +4168,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2">
         <v>72</v>
@@ -4195,10 +4195,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E83" s="2">
         <v>73</v>
@@ -4222,10 +4222,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E84" s="2">
         <v>74</v>
@@ -4249,10 +4249,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E85" s="2">
         <v>75</v>
@@ -4276,10 +4276,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="2">
         <v>76</v>
@@ -4303,10 +4303,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E87" s="2">
         <v>77</v>
@@ -4330,10 +4330,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E88" s="2">
         <v>78</v>
@@ -4357,10 +4357,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E89" s="2">
         <v>79</v>
@@ -4384,10 +4384,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E90" s="2">
         <v>80</v>
@@ -4411,10 +4411,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E91" s="2">
         <v>81</v>
@@ -4438,10 +4438,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E92" s="2">
         <v>82</v>
@@ -4465,10 +4465,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E93" s="2">
         <v>83</v>
@@ -4492,10 +4492,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E94" s="2">
         <v>84</v>
@@ -4519,10 +4519,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E95" s="2">
         <v>85</v>
@@ -4546,10 +4546,10 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E96" s="2">
         <v>86</v>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E97" s="2">
         <v>87</v>
@@ -4600,10 +4600,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E98" s="2">
         <v>88</v>
@@ -4627,10 +4627,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E99" s="2">
         <v>89</v>
@@ -4654,10 +4654,10 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E100" s="2">
         <v>90</v>
@@ -4681,10 +4681,10 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2">
         <v>91</v>
@@ -4708,10 +4708,10 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E102" s="2">
         <v>92</v>
@@ -4735,10 +4735,10 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E103" s="2">
         <v>93</v>
@@ -4762,10 +4762,10 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E104" s="2">
         <v>94</v>
@@ -4789,10 +4789,10 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E105" s="2">
         <v>95</v>
@@ -4816,10 +4816,10 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E106" s="2">
         <v>96</v>
@@ -4843,10 +4843,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E107" s="2">
         <v>97</v>
@@ -4870,10 +4870,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E108" s="2">
         <v>98</v>
@@ -4897,10 +4897,10 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E109" s="2">
         <v>99</v>
@@ -4924,10 +4924,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E110" s="2">
         <v>100</v>
@@ -4951,10 +4951,10 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E111" s="2">
         <v>101</v>
@@ -4978,10 +4978,10 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E112" s="2">
         <v>102</v>
@@ -5005,10 +5005,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2">
         <v>103</v>
@@ -5032,10 +5032,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E114" s="2">
         <v>104</v>
@@ -5059,10 +5059,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2">
         <v>105</v>
@@ -5086,10 +5086,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2">
         <v>106</v>
@@ -5113,10 +5113,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2">
         <v>107</v>
@@ -5140,10 +5140,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2">
         <v>108</v>
@@ -5167,10 +5167,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2">
         <v>109</v>
@@ -5194,10 +5194,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E120" s="2">
         <v>110</v>
@@ -5221,10 +5221,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E121" s="2">
         <v>111</v>
@@ -5248,10 +5248,10 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E122" s="2">
         <v>112</v>
@@ -5275,10 +5275,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E123" s="2">
         <v>113</v>
@@ -5302,10 +5302,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E124" s="2">
         <v>114</v>
@@ -5329,10 +5329,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E125" s="2">
         <v>115</v>
@@ -5356,10 +5356,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E126" s="2">
         <v>116</v>
@@ -5383,10 +5383,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E127" s="2">
         <v>117</v>
@@ -5410,10 +5410,10 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E128" s="2">
         <v>118</v>
@@ -5437,10 +5437,10 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E129" s="2">
         <v>119</v>
@@ -5628,10 +5628,10 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E136" s="2">
         <v>16</v>
@@ -5655,10 +5655,10 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E137" s="2">
         <v>17</v>
@@ -5682,10 +5682,10 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E138" s="2">
         <v>18</v>
@@ -5709,10 +5709,10 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E139" s="2">
         <v>19</v>
@@ -5736,10 +5736,10 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E140" s="2">
         <v>20</v>
@@ -5763,10 +5763,10 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E141" s="2">
         <v>21</v>
@@ -5790,10 +5790,10 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E142" s="2">
         <v>22</v>
@@ -5817,10 +5817,10 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E143" s="2">
         <v>23</v>
@@ -5844,10 +5844,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E144" s="2">
         <v>24</v>
@@ -5871,10 +5871,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E145" s="2">
         <v>25</v>
@@ -5898,10 +5898,10 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E146" s="2">
         <v>26</v>
@@ -5925,10 +5925,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2">
         <v>27</v>
@@ -5952,10 +5952,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E148" s="2">
         <v>28</v>
@@ -5979,10 +5979,10 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E149" s="2">
         <v>29</v>
@@ -6006,10 +6006,10 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E150" s="2">
         <v>30</v>
@@ -6033,10 +6033,10 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E151" s="2">
         <v>31</v>
@@ -6060,10 +6060,10 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E152" s="2">
         <v>32</v>
@@ -6087,10 +6087,10 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E153" s="2">
         <v>33</v>
@@ -6114,10 +6114,10 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E154" s="2">
         <v>34</v>
@@ -6141,10 +6141,10 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E155" s="2">
         <v>35</v>
@@ -6168,10 +6168,10 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E156" s="2">
         <v>36</v>
@@ -6195,10 +6195,10 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E157" s="2">
         <v>37</v>
@@ -6222,10 +6222,10 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E158" s="2">
         <v>38</v>
@@ -6249,10 +6249,10 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E159" s="2">
         <v>39</v>
@@ -6275,13 +6275,13 @@
         <v>30201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E160" s="2">
         <v>40</v>
@@ -6305,10 +6305,10 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E161" s="2">
         <v>41</v>
@@ -6332,10 +6332,10 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E162" s="2">
         <v>42</v>
@@ -6359,10 +6359,10 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E163" s="2">
         <v>43</v>
@@ -6386,10 +6386,10 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E164" s="2">
         <v>44</v>
@@ -6413,10 +6413,10 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E165" s="2">
         <v>45</v>
@@ -6440,10 +6440,10 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E166" s="2">
         <v>46</v>
@@ -6467,10 +6467,10 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E167" s="2">
         <v>47</v>
@@ -6494,10 +6494,10 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E168" s="2">
         <v>48</v>
@@ -6521,10 +6521,10 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E169" s="2">
         <v>49</v>
@@ -6548,10 +6548,10 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E170" s="2">
         <v>50</v>
@@ -6575,10 +6575,10 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E171" s="2">
         <v>51</v>
@@ -6602,10 +6602,10 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E172" s="2">
         <v>52</v>
@@ -6629,10 +6629,10 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E173" s="2">
         <v>53</v>
@@ -6656,10 +6656,10 @@
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E174" s="2">
         <v>54</v>
@@ -6683,10 +6683,10 @@
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E175" s="2">
         <v>55</v>
@@ -6710,10 +6710,10 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E176" s="2">
         <v>56</v>
@@ -6737,10 +6737,10 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E177" s="2">
         <v>57</v>
@@ -6764,10 +6764,10 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E178" s="2">
         <v>58</v>
@@ -6791,10 +6791,10 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E179" s="2">
         <v>59</v>
@@ -6818,10 +6818,10 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E180" s="2">
         <v>60</v>
@@ -6845,10 +6845,10 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E181" s="2">
         <v>61</v>
@@ -6872,10 +6872,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E182" s="2">
         <v>62</v>
@@ -6899,10 +6899,10 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E183" s="2">
         <v>63</v>
@@ -6926,10 +6926,10 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E184" s="2">
         <v>64</v>
@@ -6953,10 +6953,10 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E185" s="2">
         <v>65</v>
@@ -6980,10 +6980,10 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E186" s="2">
         <v>66</v>
@@ -7007,10 +7007,10 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E187" s="2">
         <v>67</v>
@@ -7034,10 +7034,10 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E188" s="2">
         <v>68</v>
@@ -7061,10 +7061,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E189" s="2">
         <v>69</v>
@@ -7224,13 +7224,13 @@
         <v>50101</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D195" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E195" s="2">
         <v>111</v>
@@ -7254,10 +7254,10 @@
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E196" s="2">
         <v>112</v>
@@ -7281,10 +7281,10 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E197" s="2">
         <v>113</v>
@@ -7308,10 +7308,10 @@
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E198" s="2">
         <v>114</v>
@@ -7335,10 +7335,10 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E199" s="2">
         <v>115</v>
@@ -7362,10 +7362,10 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E200" s="2">
         <v>116</v>
@@ -7388,13 +7388,13 @@
         <v>60101</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E201" s="2">
         <v>117</v>
@@ -7418,10 +7418,10 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E202" s="2">
         <v>118</v>
@@ -7445,10 +7445,10 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E203" s="2">
         <v>119</v>
@@ -7472,10 +7472,10 @@
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E204" s="2">
         <v>120</v>
@@ -7499,10 +7499,10 @@
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E205" s="2">
         <v>121</v>
@@ -7525,13 +7525,13 @@
         <v>70101</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E206" s="2">
         <v>3</v>
@@ -7555,10 +7555,10 @@
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E207" s="2">
         <v>6</v>
@@ -7582,10 +7582,10 @@
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E208" s="2">
         <v>9</v>
@@ -7609,10 +7609,10 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E209" s="2">
         <v>12</v>
@@ -7636,10 +7636,10 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E210" s="2">
         <v>15</v>
@@ -7663,10 +7663,10 @@
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E211" s="2">
         <v>18</v>
@@ -7690,10 +7690,10 @@
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E212" s="2">
         <v>21</v>
@@ -7717,10 +7717,10 @@
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E213" s="2">
         <v>24</v>
@@ -7744,10 +7744,10 @@
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E214" s="2">
         <v>27</v>
@@ -7771,10 +7771,10 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E215" s="2">
         <v>30</v>
@@ -7798,10 +7798,10 @@
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E216" s="5">
         <v>33</v>
@@ -7825,10 +7825,10 @@
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E217" s="2">
         <v>36</v>
@@ -7852,10 +7852,10 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E218" s="5">
         <v>39</v>
@@ -7879,10 +7879,10 @@
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E219" s="2">
         <v>42</v>
@@ -7906,10 +7906,10 @@
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E220" s="5">
         <v>45</v>
@@ -7932,13 +7932,13 @@
         <v>70201</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -7952,10 +7952,10 @@
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -7969,10 +7969,10 @@
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -7986,10 +7986,10 @@
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -8002,13 +8002,13 @@
         <v>80101</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -8022,10 +8022,10 @@
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -8039,10 +8039,10 @@
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -8056,10 +8056,10 @@
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -8073,10 +8073,10 @@
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -8089,13 +8089,13 @@
         <v>80106</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -8108,13 +8108,13 @@
         <v>80107</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -8127,13 +8127,13 @@
         <v>80201</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -8146,13 +8146,13 @@
         <v>80202</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -8165,13 +8165,13 @@
         <v>80301</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -8185,10 +8185,10 @@
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -8202,10 +8202,10 @@
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -8219,10 +8219,10 @@
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -8236,10 +8236,10 @@
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -8253,10 +8253,10 @@
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -8270,10 +8270,10 @@
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -8287,10 +8287,10 @@
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -8304,10 +8304,10 @@
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -8320,13 +8320,13 @@
         <v>80501</v>
       </c>
       <c r="B243" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -8340,10 +8340,10 @@
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -8357,10 +8357,10 @@
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -8373,13 +8373,13 @@
         <v>80601</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -8393,10 +8393,10 @@
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -8410,10 +8410,10 @@
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -8427,10 +8427,10 @@
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -8444,10 +8444,10 @@
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -8460,13 +8460,13 @@
         <v>81101</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -8480,10 +8480,10 @@
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -8497,10 +8497,10 @@
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -8514,10 +8514,10 @@
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -8531,10 +8531,10 @@
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -8548,10 +8548,10 @@
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -8565,10 +8565,10 @@
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -8582,10 +8582,10 @@
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -8598,13 +8598,13 @@
         <v>82101</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -8618,10 +8618,10 @@
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -8635,10 +8635,10 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -8652,10 +8652,10 @@
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -8669,10 +8669,10 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -8686,10 +8686,10 @@
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -8702,13 +8702,13 @@
         <v>83101</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -8722,10 +8722,10 @@
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D266" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -8739,10 +8739,10 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -8756,10 +8756,10 @@
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -8773,10 +8773,10 @@
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -8789,13 +8789,13 @@
         <v>84101</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -8809,10 +8809,10 @@
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
@@ -8826,10 +8826,10 @@
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -8843,10 +8843,10 @@
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -8860,10 +8860,10 @@
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -8877,10 +8877,10 @@
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -8893,13 +8893,13 @@
         <v>84201</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C276" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -8913,10 +8913,10 @@
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8930,10 +8930,10 @@
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8947,10 +8947,10 @@
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8964,10 +8964,10 @@
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8981,10 +8981,10 @@
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -8997,10 +8997,10 @@
         <v>85101</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9149,10 +9149,10 @@
         <v>86101</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9301,10 +9301,10 @@
         <v>90101</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>

--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="436">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,7 +252,22 @@
     <t>Token</t>
   </si>
   <si>
-    <t>插屏广告</t>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>ad1desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,1289 +279,1297 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插屏广告描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍速度描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍产出描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>ad1desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad2desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ronna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yotta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留2</t>
+  </si>
+  <si>
+    <t>字段预留3</t>
+  </si>
+  <si>
+    <t>字段预留4</t>
+  </si>
+  <si>
+    <t>字段预留5</t>
+  </si>
+  <si>
+    <t>字段预留6</t>
+  </si>
+  <si>
+    <t>字段预留7</t>
+  </si>
+  <si>
+    <t>字段预留8</t>
+  </si>
+  <si>
+    <t>字段预留9</t>
+  </si>
+  <si>
+    <t>字段预留10</t>
+  </si>
+  <si>
+    <t>个人信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产5</t>
+  </si>
+  <si>
+    <t>矿产6</t>
+  </si>
+  <si>
+    <t>矿产7</t>
+  </si>
+  <si>
+    <t>矿产8</t>
+  </si>
+  <si>
+    <t>矿产9</t>
+  </si>
+  <si>
+    <t>矿产10</t>
+  </si>
+  <si>
+    <t>mine4</t>
+  </si>
+  <si>
+    <t>mine4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine5</t>
+  </si>
+  <si>
+    <t>mine6</t>
+  </si>
+  <si>
+    <t>mine7</t>
+  </si>
+  <si>
+    <t>mine8</t>
+  </si>
+  <si>
+    <t>mine9</t>
+  </si>
+  <si>
+    <t>mine10</t>
+  </si>
+  <si>
+    <t>经理描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理7</t>
+  </si>
+  <si>
+    <t>经理7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理8</t>
+  </si>
+  <si>
+    <t>经理9</t>
+  </si>
+  <si>
+    <t>经理10</t>
+  </si>
+  <si>
+    <t>经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理3</t>
+  </si>
+  <si>
+    <t>经理4</t>
+  </si>
+  <si>
+    <t>经理5</t>
+  </si>
+  <si>
+    <t>经理6</t>
+  </si>
+  <si>
+    <t>高级经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理3</t>
+  </si>
+  <si>
+    <t>高级经理4</t>
+  </si>
+  <si>
+    <t>高级经理5</t>
+  </si>
+  <si>
+    <t>高级经理6</t>
+  </si>
+  <si>
+    <t>高级经理7</t>
+  </si>
+  <si>
+    <t>高级经理8</t>
+  </si>
+  <si>
+    <t>高级经理9</t>
+  </si>
+  <si>
+    <t>高级经理10</t>
+  </si>
+  <si>
+    <t>manger7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manger8</t>
+  </si>
+  <si>
+    <t>manger9</t>
+  </si>
+  <si>
+    <t>manger10</t>
+  </si>
+  <si>
+    <t>manager1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
+  </si>
+  <si>
+    <t>manager5</t>
+  </si>
+  <si>
+    <t>manager6</t>
+  </si>
+  <si>
+    <t>manager7</t>
+  </si>
+  <si>
+    <t>manager8</t>
+  </si>
+  <si>
+    <t>manager9</t>
+  </si>
+  <si>
+    <t>manager10</t>
+  </si>
+  <si>
+    <t>leader1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader3</t>
+  </si>
+  <si>
+    <t>leader4</t>
+  </si>
+  <si>
+    <t>leader5</t>
+  </si>
+  <si>
+    <t>leader6</t>
+  </si>
+  <si>
+    <t>leader7</t>
+  </si>
+  <si>
+    <t>leader8</t>
+  </si>
+  <si>
+    <t>leader9</t>
+  </si>
+  <si>
+    <t>leader10</t>
+  </si>
+  <si>
+    <t>经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理描述2</t>
+  </si>
+  <si>
+    <t>经理描述3</t>
+  </si>
+  <si>
+    <t>经理描述4</t>
+  </si>
+  <si>
+    <t>经理描述5</t>
+  </si>
+  <si>
+    <t>经理描述6</t>
+  </si>
+  <si>
+    <t>经理描述7</t>
+  </si>
+  <si>
+    <t>经理描述8</t>
+  </si>
+  <si>
+    <t>经理描述9</t>
+  </si>
+  <si>
+    <t>经理描述10</t>
+  </si>
+  <si>
+    <t>高级经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理描述2</t>
+  </si>
+  <si>
+    <t>高级经理描述3</t>
+  </si>
+  <si>
+    <t>高级经理描述4</t>
+  </si>
+  <si>
+    <t>高级经理描述5</t>
+  </si>
+  <si>
+    <t>高级经理描述6</t>
+  </si>
+  <si>
+    <t>高级经理描述7</t>
+  </si>
+  <si>
+    <t>高级经理描述8</t>
+  </si>
+  <si>
+    <t>高级经理描述9</t>
+  </si>
+  <si>
+    <t>高级经理描述10</t>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+  </si>
+  <si>
+    <t>lalala3</t>
+  </si>
+  <si>
+    <t>lalala4</t>
+  </si>
+  <si>
+    <t>lalala5</t>
+  </si>
+  <si>
+    <t>lalala6</t>
+  </si>
+  <si>
+    <t>lalala7</t>
+  </si>
+  <si>
+    <t>lalala8</t>
+  </si>
+  <si>
+    <t>lalala9</t>
+  </si>
+  <si>
+    <t>lalala10</t>
+  </si>
+  <si>
+    <t>项目7</t>
+  </si>
+  <si>
+    <t>项目7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目8</t>
+  </si>
+  <si>
+    <t>项目8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目9</t>
+  </si>
+  <si>
+    <t>项目3</t>
+  </si>
+  <si>
+    <t>项目4</t>
+  </si>
+  <si>
+    <t>项目5</t>
+  </si>
+  <si>
+    <t>项目6</t>
+  </si>
+  <si>
+    <t>项目10</t>
+  </si>
+  <si>
+    <t>develop7</t>
+  </si>
+  <si>
+    <t>develop7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop8</t>
+  </si>
+  <si>
+    <t>develop9</t>
+  </si>
+  <si>
+    <t>develop10</t>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶产出增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop2</t>
+  </si>
+  <si>
+    <t>develop3</t>
+  </si>
+  <si>
+    <t>develop4</t>
+  </si>
+  <si>
+    <t>develop5</t>
+  </si>
+  <si>
+    <t>develop6</t>
+  </si>
+  <si>
+    <t>crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述2</t>
+  </si>
+  <si>
+    <t>项目描述3</t>
+  </si>
+  <si>
+    <t>项目描述4</t>
+  </si>
+  <si>
+    <t>项目描述5</t>
+  </si>
+  <si>
+    <t>项目描述6</t>
+  </si>
+  <si>
+    <t>项目描述7</t>
+  </si>
+  <si>
+    <t>项目描述8</t>
+  </si>
+  <si>
+    <t>项目描述9</t>
+  </si>
+  <si>
+    <t>项目描述10</t>
+  </si>
+  <si>
+    <t>翻倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubledesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystaldesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级2</t>
+  </si>
+  <si>
+    <t>矿产增级3</t>
+  </si>
+  <si>
+    <t>矿产增级4</t>
+  </si>
+  <si>
+    <t>矿产增级5</t>
+  </si>
+  <si>
+    <t>矿产增级6</t>
+  </si>
+  <si>
+    <t>矿产增级7</t>
+  </si>
+  <si>
+    <t>矿产增级8</t>
+  </si>
+  <si>
+    <t>矿产增级9</t>
+  </si>
+  <si>
+    <t>矿产增级10</t>
+  </si>
+  <si>
+    <t>mine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine2</t>
+  </si>
+  <si>
+    <t>mine3</t>
+  </si>
+  <si>
+    <t>矿产增加描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minedesc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增加描述2</t>
+  </si>
+  <si>
+    <t>minedesc2</t>
+  </si>
+  <si>
+    <t>矿产增加描述3</t>
+  </si>
+  <si>
+    <t>minedesc3</t>
+  </si>
+  <si>
+    <t>矿产增加描述4</t>
+  </si>
+  <si>
+    <t>minedesc4</t>
+  </si>
+  <si>
+    <t>矿产增加描述5</t>
+  </si>
+  <si>
+    <t>minedesc5</t>
+  </si>
+  <si>
+    <t>矿产增加描述6</t>
+  </si>
+  <si>
+    <t>minedesc6</t>
+  </si>
+  <si>
+    <t>矿产增加描述7</t>
+  </si>
+  <si>
+    <t>minedesc7</t>
+  </si>
+  <si>
+    <t>矿产增加描述8</t>
+  </si>
+  <si>
+    <t>minedesc8</t>
+  </si>
+  <si>
+    <t>矿产增加描述9</t>
+  </si>
+  <si>
+    <t>minedesc9</t>
+  </si>
+  <si>
+    <t>矿产增加描述10</t>
+  </si>
+  <si>
+    <t>minedesc10</t>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join the event！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptocurrency exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密货币交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-设置弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-活动提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证（点击复制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORT(press to copy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你离开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的时间内获得的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告获取双倍奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome back,Ripper Miner!</t>
+  </si>
+  <si>
+    <t>You were offline</t>
+  </si>
+  <si>
+    <t>YOU EARNED</t>
+  </si>
+  <si>
+    <t>on Crypto World while you were gone</t>
+  </si>
+  <si>
+    <t>Watch an ad for Double Earnings</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocks</t>
+  </si>
+  <si>
+    <t>Unlocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想让你的利润最大化吗投资这些企业以解锁利润奖金！</t>
+  </si>
+  <si>
+    <t>want to maximize your profits？ invest in these businesses to unlock profit bonuses!</t>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>一共赚取了多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifetime earnings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash on hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁矿产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置矿产次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset mineral resources</t>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These make your life easier and help you optimize your assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些让你的生活更轻松，帮助优化资产！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megatoken</t>
+  </si>
+  <si>
+    <t>Managers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们被召唤去服务和帮助你消灭宇宙！</t>
+  </si>
+  <si>
+    <t>They are called to serve and help you to annihilate the Universe</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你赚的游戏币越多，你吸引的投资者就越多！他们增加利润，但你需要卖掉你的企业并开始结束！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more currency you earn, the more Investors you attract! Theyincrease profits,but your`ll need to sell your businesses and startover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your total Investors</t>
+  </si>
+  <si>
+    <t>你拥有的水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目中获得的额外利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Bonus Per Inverstor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启获得钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors claimed with restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLAIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取钻石数量</t>
+  </si>
+  <si>
+    <t>销售界面-售卖弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors ready to boost profits!</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取奖励需要重置你的矿产，但会让你更快的获取比特币。或者使用黄金保住你的矿产！</t>
+  </si>
+  <si>
+    <t>Claiming requires resetting your preogress,butyou`ll earn it back quickly in no time! Or,use Goldto keep your existing progress.</t>
+  </si>
+  <si>
+    <t>重置并且售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖并且不重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim &amp; Keep Progress</t>
+  </si>
+  <si>
+    <t>Reset &amp; Claim</t>
+  </si>
+  <si>
+    <t>你的黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Gold</t>
+  </si>
+  <si>
+    <t>商店内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad4</t>
+  </si>
+  <si>
+    <t>ad5</t>
   </si>
   <si>
     <t>ad3desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbulble1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbulble2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>million</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>billion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百亿京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万亿京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quetta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ronna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yotta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zetta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段预留1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段预留2</t>
-  </si>
-  <si>
-    <t>字段预留3</t>
-  </si>
-  <si>
-    <t>字段预留4</t>
-  </si>
-  <si>
-    <t>字段预留5</t>
-  </si>
-  <si>
-    <t>字段预留6</t>
-  </si>
-  <si>
-    <t>字段预留7</t>
-  </si>
-  <si>
-    <t>字段预留8</t>
-  </si>
-  <si>
-    <t>字段预留9</t>
-  </si>
-  <si>
-    <t>字段预留10</t>
-  </si>
-  <si>
-    <t>个人信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产5</t>
-  </si>
-  <si>
-    <t>矿产6</t>
-  </si>
-  <si>
-    <t>矿产7</t>
-  </si>
-  <si>
-    <t>矿产8</t>
-  </si>
-  <si>
-    <t>矿产9</t>
-  </si>
-  <si>
-    <t>矿产10</t>
-  </si>
-  <si>
-    <t>mine4</t>
-  </si>
-  <si>
-    <t>mine4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mine5</t>
-  </si>
-  <si>
-    <t>mine6</t>
-  </si>
-  <si>
-    <t>mine7</t>
-  </si>
-  <si>
-    <t>mine8</t>
-  </si>
-  <si>
-    <t>mine9</t>
-  </si>
-  <si>
-    <t>mine10</t>
-  </si>
-  <si>
-    <t>经理描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理7</t>
-  </si>
-  <si>
-    <t>经理7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理8</t>
-  </si>
-  <si>
-    <t>经理9</t>
-  </si>
-  <si>
-    <t>经理10</t>
-  </si>
-  <si>
-    <t>经理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理3</t>
-  </si>
-  <si>
-    <t>经理4</t>
-  </si>
-  <si>
-    <t>经理5</t>
-  </si>
-  <si>
-    <t>经理6</t>
-  </si>
-  <si>
-    <t>高级经理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理3</t>
-  </si>
-  <si>
-    <t>高级经理4</t>
-  </si>
-  <si>
-    <t>高级经理5</t>
-  </si>
-  <si>
-    <t>高级经理6</t>
-  </si>
-  <si>
-    <t>高级经理7</t>
-  </si>
-  <si>
-    <t>高级经理8</t>
-  </si>
-  <si>
-    <t>高级经理9</t>
-  </si>
-  <si>
-    <t>高级经理10</t>
-  </si>
-  <si>
-    <t>manger7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manger8</t>
-  </si>
-  <si>
-    <t>manger9</t>
-  </si>
-  <si>
-    <t>manger10</t>
-  </si>
-  <si>
-    <t>manager1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager2</t>
-  </si>
-  <si>
-    <t>manager3</t>
-  </si>
-  <si>
-    <t>manager4</t>
-  </si>
-  <si>
-    <t>manager5</t>
-  </si>
-  <si>
-    <t>manager6</t>
-  </si>
-  <si>
-    <t>manager7</t>
-  </si>
-  <si>
-    <t>manager8</t>
-  </si>
-  <si>
-    <t>manager9</t>
-  </si>
-  <si>
-    <t>manager10</t>
-  </si>
-  <si>
-    <t>leader1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader3</t>
-  </si>
-  <si>
-    <t>leader4</t>
-  </si>
-  <si>
-    <t>leader5</t>
-  </si>
-  <si>
-    <t>leader6</t>
-  </si>
-  <si>
-    <t>leader7</t>
-  </si>
-  <si>
-    <t>leader8</t>
-  </si>
-  <si>
-    <t>leader9</t>
-  </si>
-  <si>
-    <t>leader10</t>
-  </si>
-  <si>
-    <t>经理描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理描述2</t>
-  </si>
-  <si>
-    <t>经理描述3</t>
-  </si>
-  <si>
-    <t>经理描述4</t>
-  </si>
-  <si>
-    <t>经理描述5</t>
-  </si>
-  <si>
-    <t>经理描述6</t>
-  </si>
-  <si>
-    <t>经理描述7</t>
-  </si>
-  <si>
-    <t>经理描述8</t>
-  </si>
-  <si>
-    <t>经理描述9</t>
-  </si>
-  <si>
-    <t>经理描述10</t>
-  </si>
-  <si>
-    <t>高级经理描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理描述2</t>
-  </si>
-  <si>
-    <t>高级经理描述3</t>
-  </si>
-  <si>
-    <t>高级经理描述4</t>
-  </si>
-  <si>
-    <t>高级经理描述5</t>
-  </si>
-  <si>
-    <t>高级经理描述6</t>
-  </si>
-  <si>
-    <t>高级经理描述7</t>
-  </si>
-  <si>
-    <t>高级经理描述8</t>
-  </si>
-  <si>
-    <t>高级经理描述9</t>
-  </si>
-  <si>
-    <t>高级经理描述10</t>
-  </si>
-  <si>
-    <t>lalala1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala2</t>
-  </si>
-  <si>
-    <t>lalala3</t>
-  </si>
-  <si>
-    <t>lalala4</t>
-  </si>
-  <si>
-    <t>lalala5</t>
-  </si>
-  <si>
-    <t>lalala6</t>
-  </si>
-  <si>
-    <t>lalala7</t>
-  </si>
-  <si>
-    <t>lalala8</t>
-  </si>
-  <si>
-    <t>lalala9</t>
-  </si>
-  <si>
-    <t>lalala10</t>
-  </si>
-  <si>
-    <t>项目7</t>
-  </si>
-  <si>
-    <t>项目7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目8</t>
-  </si>
-  <si>
-    <t>项目8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目9</t>
-  </si>
-  <si>
-    <t>项目3</t>
-  </si>
-  <si>
-    <t>项目4</t>
-  </si>
-  <si>
-    <t>项目5</t>
-  </si>
-  <si>
-    <t>项目6</t>
-  </si>
-  <si>
-    <t>项目10</t>
-  </si>
-  <si>
-    <t>develop7</t>
-  </si>
-  <si>
-    <t>develop7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop8</t>
-  </si>
-  <si>
-    <t>develop9</t>
-  </si>
-  <si>
-    <t>develop10</t>
-  </si>
-  <si>
-    <t>全部翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶产出增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop2</t>
-  </si>
-  <si>
-    <t>develop3</t>
-  </si>
-  <si>
-    <t>develop4</t>
-  </si>
-  <si>
-    <t>develop5</t>
-  </si>
-  <si>
-    <t>develop6</t>
-  </si>
-  <si>
-    <t>crystal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述2</t>
-  </si>
-  <si>
-    <t>项目描述3</t>
-  </si>
-  <si>
-    <t>项目描述4</t>
-  </si>
-  <si>
-    <t>项目描述5</t>
-  </si>
-  <si>
-    <t>项目描述6</t>
-  </si>
-  <si>
-    <t>项目描述7</t>
-  </si>
-  <si>
-    <t>项目描述8</t>
-  </si>
-  <si>
-    <t>项目描述9</t>
-  </si>
-  <si>
-    <t>项目描述10</t>
-  </si>
-  <si>
-    <t>翻倍描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubledesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystaldesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增级1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增级2</t>
-  </si>
-  <si>
-    <t>矿产增级3</t>
-  </si>
-  <si>
-    <t>矿产增级4</t>
-  </si>
-  <si>
-    <t>矿产增级5</t>
-  </si>
-  <si>
-    <t>矿产增级6</t>
-  </si>
-  <si>
-    <t>矿产增级7</t>
-  </si>
-  <si>
-    <t>矿产增级8</t>
-  </si>
-  <si>
-    <t>矿产增级9</t>
-  </si>
-  <si>
-    <t>矿产增级10</t>
-  </si>
-  <si>
-    <t>mine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mine2</t>
-  </si>
-  <si>
-    <t>mine3</t>
-  </si>
-  <si>
-    <t>矿产增加描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minedesc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增加描述2</t>
-  </si>
-  <si>
-    <t>minedesc2</t>
-  </si>
-  <si>
-    <t>矿产增加描述3</t>
-  </si>
-  <si>
-    <t>minedesc3</t>
-  </si>
-  <si>
-    <t>矿产增加描述4</t>
-  </si>
-  <si>
-    <t>minedesc4</t>
-  </si>
-  <si>
-    <t>矿产增加描述5</t>
-  </si>
-  <si>
-    <t>minedesc5</t>
-  </si>
-  <si>
-    <t>矿产增加描述6</t>
-  </si>
-  <si>
-    <t>minedesc6</t>
-  </si>
-  <si>
-    <t>矿产增加描述7</t>
-  </si>
-  <si>
-    <t>minedesc7</t>
-  </si>
-  <si>
-    <t>矿产增加描述8</t>
-  </si>
-  <si>
-    <t>minedesc8</t>
-  </si>
-  <si>
-    <t>矿产增加描述9</t>
-  </si>
-  <si>
-    <t>minedesc9</t>
-  </si>
-  <si>
-    <t>矿产增加描述10</t>
-  </si>
-  <si>
-    <t>minedesc10</t>
-  </si>
-  <si>
-    <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动细则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join the event！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cryptocurrency exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密货币交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-设置弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-活动提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTINGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证（点击复制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPPORT(press to copy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTINUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-离线奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎回来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你离开了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不在的时间内获得的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看广告获取双倍奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome back,Ripper Miner!</t>
-  </si>
-  <si>
-    <t>You were offline</t>
-  </si>
-  <si>
-    <t>YOU EARNED</t>
-  </si>
-  <si>
-    <t>on Crypto World while you were gone</t>
-  </si>
-  <si>
-    <t>Watch an ad for Double Earnings</t>
-  </si>
-  <si>
-    <t>加载中……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlocks</t>
-  </si>
-  <si>
-    <t>Unlocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想让你的利润最大化吗投资这些企业以解锁利润奖金！</t>
-  </si>
-  <si>
-    <t>want to maximize your profits？ invest in these businesses to unlock profit bonuses!</t>
-  </si>
-  <si>
-    <t>解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>一共赚取了多少钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifetime earnings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有多少钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash on hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁矿产数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置矿产次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset mineral resources</t>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>These make your life easier and help you optimize your assets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些让你的生活更轻松，帮助优化资产！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Investors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Megatoken</t>
-  </si>
-  <si>
-    <t>Managers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们被召唤去服务和帮助你消灭宇宙！</t>
-  </si>
-  <si>
-    <t>They are called to serve and help you to annihilate the Universe</t>
-  </si>
-  <si>
-    <t>购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你赚的游戏币越多，你吸引的投资者就越多！他们增加利润，但你需要卖掉你的企业并开始结束！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The more currency you earn, the more Investors you attract! Theyincrease profits,but your`ll need to sell your businesses and startover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your total Investors</t>
-  </si>
-  <si>
-    <t>你拥有的水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目中获得的额外利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit Bonus Per Inverstor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启获得钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investors claimed with restart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLAIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取钻石数量</t>
-  </si>
-  <si>
-    <t>销售界面-售卖弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investors ready to boost profits!</t>
-  </si>
-  <si>
-    <t>新手引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取奖励需要重置你的矿产，但会让你更快的获取比特币。或者使用黄金保住你的矿产！</t>
-  </si>
-  <si>
-    <t>Claiming requires resetting your preogress,butyou`ll earn it back quickly in no time! Or,use Goldto keep your existing progress.</t>
-  </si>
-  <si>
-    <t>重置并且售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖并且不重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Claim &amp; Keep Progress</t>
-  </si>
-  <si>
-    <t>Reset &amp; Claim</t>
-  </si>
-  <si>
-    <t>你的黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your Gold</t>
-  </si>
-  <si>
-    <t>商店内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告内容</t>
+  </si>
+  <si>
+    <t>ad4desc</t>
+  </si>
+  <si>
+    <t>ad5desc</t>
+  </si>
+  <si>
+    <t>所有矿产产出速度减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有矿产产出翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取30分钟时间奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍的离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售资产时，额外获得2%的水晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1952,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1967,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2141,10 +2164,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -2168,10 +2191,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -2195,10 +2218,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -2222,10 +2245,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
@@ -2249,10 +2272,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -2276,10 +2299,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -2303,10 +2326,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -2494,10 +2517,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2521,10 +2544,10 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
@@ -2548,10 +2571,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
@@ -2575,10 +2598,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
@@ -2602,10 +2625,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
@@ -2629,10 +2652,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -2656,10 +2679,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
@@ -2683,10 +2706,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2">
         <v>17</v>
@@ -2710,10 +2733,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2">
         <v>18</v>
@@ -2737,10 +2760,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E29" s="2">
         <v>19</v>
@@ -2764,10 +2787,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E30" s="2">
         <v>20</v>
@@ -2791,10 +2814,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E31" s="2">
         <v>21</v>
@@ -2818,10 +2841,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -2845,10 +2868,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E33" s="2">
         <v>23</v>
@@ -2872,10 +2895,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E34" s="2">
         <v>24</v>
@@ -2899,10 +2922,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2">
         <v>25</v>
@@ -2926,10 +2949,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E36" s="2">
         <v>26</v>
@@ -2953,10 +2976,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E37" s="2">
         <v>27</v>
@@ -2980,10 +3003,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E38" s="2">
         <v>28</v>
@@ -3007,10 +3030,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E39" s="2">
         <v>29</v>
@@ -3034,10 +3057,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2">
         <v>30</v>
@@ -3061,10 +3084,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2">
         <v>31</v>
@@ -3088,10 +3111,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2">
         <v>32</v>
@@ -3115,10 +3138,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E43" s="2">
         <v>33</v>
@@ -3142,10 +3165,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E44" s="2">
         <v>34</v>
@@ -3169,10 +3192,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2">
         <v>35</v>
@@ -3196,10 +3219,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E46" s="2">
         <v>36</v>
@@ -3223,10 +3246,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E47" s="2">
         <v>37</v>
@@ -3250,10 +3273,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2">
         <v>38</v>
@@ -3277,10 +3300,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E49" s="2">
         <v>39</v>
@@ -3304,10 +3327,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E50" s="2">
         <v>40</v>
@@ -3331,10 +3354,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E51" s="2">
         <v>41</v>
@@ -3358,10 +3381,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E52" s="2">
         <v>42</v>
@@ -3385,10 +3408,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E53" s="2">
         <v>43</v>
@@ -3412,10 +3435,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E54" s="2">
         <v>44</v>
@@ -3439,10 +3462,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E55" s="2">
         <v>45</v>
@@ -3466,10 +3489,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E56" s="2">
         <v>46</v>
@@ -3493,10 +3516,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E57" s="2">
         <v>47</v>
@@ -3520,10 +3543,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E58" s="2">
         <v>48</v>
@@ -3547,10 +3570,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E59" s="2">
         <v>49</v>
@@ -3574,10 +3597,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E60" s="2">
         <v>50</v>
@@ -3601,10 +3624,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E61" s="2">
         <v>51</v>
@@ -3628,10 +3651,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E62" s="2">
         <v>52</v>
@@ -3655,10 +3678,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E63" s="2">
         <v>53</v>
@@ -3682,10 +3705,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E64" s="2">
         <v>54</v>
@@ -3709,10 +3732,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E65" s="2">
         <v>55</v>
@@ -3736,10 +3759,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2">
         <v>56</v>
@@ -3763,10 +3786,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2">
         <v>57</v>
@@ -3790,10 +3813,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2">
         <v>58</v>
@@ -3817,10 +3840,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2">
         <v>59</v>
@@ -3844,10 +3867,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2">
         <v>60</v>
@@ -3871,10 +3894,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2">
         <v>61</v>
@@ -3898,10 +3921,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E72" s="2">
         <v>62</v>
@@ -3925,10 +3948,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E73" s="2">
         <v>63</v>
@@ -3952,10 +3975,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E74" s="2">
         <v>64</v>
@@ -3979,10 +4002,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E75" s="2">
         <v>65</v>
@@ -4006,10 +4029,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2">
         <v>66</v>
@@ -4033,10 +4056,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2">
         <v>67</v>
@@ -4060,10 +4083,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2">
         <v>68</v>
@@ -4087,10 +4110,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2">
         <v>69</v>
@@ -4114,10 +4137,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2">
         <v>70</v>
@@ -4141,10 +4164,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2">
         <v>71</v>
@@ -4168,10 +4191,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2">
         <v>72</v>
@@ -4195,10 +4218,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E83" s="2">
         <v>73</v>
@@ -4222,10 +4245,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="E84" s="2">
         <v>74</v>
@@ -4249,10 +4272,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E85" s="2">
         <v>75</v>
@@ -4276,10 +4299,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E86" s="2">
         <v>76</v>
@@ -4303,10 +4326,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E87" s="2">
         <v>77</v>
@@ -4330,10 +4353,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E88" s="2">
         <v>78</v>
@@ -4357,10 +4380,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E89" s="2">
         <v>79</v>
@@ -4384,10 +4407,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E90" s="2">
         <v>80</v>
@@ -4411,10 +4434,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E91" s="2">
         <v>81</v>
@@ -4438,10 +4461,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E92" s="2">
         <v>82</v>
@@ -4465,10 +4488,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E93" s="2">
         <v>83</v>
@@ -4492,10 +4515,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E94" s="2">
         <v>84</v>
@@ -4519,10 +4542,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E95" s="2">
         <v>85</v>
@@ -4546,10 +4569,10 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E96" s="2">
         <v>86</v>
@@ -4573,10 +4596,10 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E97" s="2">
         <v>87</v>
@@ -4600,10 +4623,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E98" s="2">
         <v>88</v>
@@ -4627,10 +4650,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E99" s="2">
         <v>89</v>
@@ -4654,10 +4677,10 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E100" s="2">
         <v>90</v>
@@ -4681,10 +4704,10 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E101" s="2">
         <v>91</v>
@@ -4708,10 +4731,10 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E102" s="2">
         <v>92</v>
@@ -4735,10 +4758,10 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E103" s="2">
         <v>93</v>
@@ -4762,10 +4785,10 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E104" s="2">
         <v>94</v>
@@ -4789,10 +4812,10 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E105" s="2">
         <v>95</v>
@@ -4816,10 +4839,10 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E106" s="2">
         <v>96</v>
@@ -4843,10 +4866,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E107" s="2">
         <v>97</v>
@@ -4870,10 +4893,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E108" s="2">
         <v>98</v>
@@ -4897,10 +4920,10 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E109" s="2">
         <v>99</v>
@@ -4924,10 +4947,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E110" s="2">
         <v>100</v>
@@ -4951,10 +4974,10 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E111" s="2">
         <v>101</v>
@@ -4978,10 +5001,10 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E112" s="2">
         <v>102</v>
@@ -5005,10 +5028,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2">
         <v>103</v>
@@ -5032,10 +5055,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2">
         <v>104</v>
@@ -5059,10 +5082,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2">
         <v>105</v>
@@ -5086,10 +5109,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2">
         <v>106</v>
@@ -5113,10 +5136,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2">
         <v>107</v>
@@ -5140,10 +5163,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2">
         <v>108</v>
@@ -5167,10 +5190,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2">
         <v>109</v>
@@ -5194,10 +5217,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E120" s="2">
         <v>110</v>
@@ -5221,10 +5244,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E121" s="2">
         <v>111</v>
@@ -5248,10 +5271,10 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E122" s="2">
         <v>112</v>
@@ -5275,10 +5298,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E123" s="2">
         <v>113</v>
@@ -5302,10 +5325,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E124" s="2">
         <v>114</v>
@@ -5329,10 +5352,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E125" s="2">
         <v>115</v>
@@ -5356,10 +5379,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E126" s="2">
         <v>116</v>
@@ -5383,10 +5406,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E127" s="2">
         <v>117</v>
@@ -5410,10 +5433,10 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E128" s="2">
         <v>118</v>
@@ -5437,10 +5460,10 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E129" s="2">
         <v>119</v>
@@ -5628,10 +5651,10 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2">
         <v>16</v>
@@ -5655,10 +5678,10 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2">
         <v>17</v>
@@ -5682,10 +5705,10 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2">
         <v>18</v>
@@ -5709,10 +5732,10 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E139" s="2">
         <v>19</v>
@@ -5736,10 +5759,10 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2">
         <v>20</v>
@@ -5763,10 +5786,10 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E141" s="2">
         <v>21</v>
@@ -5790,10 +5813,10 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E142" s="2">
         <v>22</v>
@@ -5817,10 +5840,10 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2">
         <v>23</v>
@@ -5844,10 +5867,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E144" s="2">
         <v>24</v>
@@ -5871,10 +5894,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E145" s="2">
         <v>25</v>
@@ -5898,10 +5921,10 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E146" s="2">
         <v>26</v>
@@ -5925,10 +5948,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E147" s="2">
         <v>27</v>
@@ -5952,10 +5975,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E148" s="2">
         <v>28</v>
@@ -5979,10 +6002,10 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E149" s="2">
         <v>29</v>
@@ -6006,10 +6029,10 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E150" s="2">
         <v>30</v>
@@ -6033,10 +6056,10 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E151" s="2">
         <v>31</v>
@@ -6060,10 +6083,10 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E152" s="2">
         <v>32</v>
@@ -6087,10 +6110,10 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E153" s="2">
         <v>33</v>
@@ -6114,10 +6137,10 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E154" s="2">
         <v>34</v>
@@ -6141,10 +6164,10 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E155" s="2">
         <v>35</v>
@@ -6168,10 +6191,10 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E156" s="2">
         <v>36</v>
@@ -6195,10 +6218,10 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E157" s="2">
         <v>37</v>
@@ -6222,10 +6245,10 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E158" s="2">
         <v>38</v>
@@ -6249,10 +6272,10 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E159" s="2">
         <v>39</v>
@@ -6275,13 +6298,13 @@
         <v>30201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E160" s="2">
         <v>40</v>
@@ -6305,10 +6328,10 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E161" s="2">
         <v>41</v>
@@ -6332,10 +6355,10 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E162" s="2">
         <v>42</v>
@@ -6359,10 +6382,10 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E163" s="2">
         <v>43</v>
@@ -6386,10 +6409,10 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E164" s="2">
         <v>44</v>
@@ -6413,10 +6436,10 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E165" s="2">
         <v>45</v>
@@ -6440,10 +6463,10 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E166" s="2">
         <v>46</v>
@@ -6467,10 +6490,10 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E167" s="2">
         <v>47</v>
@@ -6494,10 +6517,10 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E168" s="2">
         <v>48</v>
@@ -6521,10 +6544,10 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E169" s="2">
         <v>49</v>
@@ -6548,10 +6571,10 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E170" s="2">
         <v>50</v>
@@ -6575,10 +6598,10 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E171" s="2">
         <v>51</v>
@@ -6602,10 +6625,10 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E172" s="2">
         <v>52</v>
@@ -6629,10 +6652,10 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E173" s="2">
         <v>53</v>
@@ -6656,10 +6679,10 @@
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E174" s="2">
         <v>54</v>
@@ -6683,10 +6706,10 @@
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E175" s="2">
         <v>55</v>
@@ -6710,10 +6733,10 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E176" s="2">
         <v>56</v>
@@ -6737,10 +6760,10 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E177" s="2">
         <v>57</v>
@@ -6764,10 +6787,10 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E178" s="2">
         <v>58</v>
@@ -6791,10 +6814,10 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E179" s="2">
         <v>59</v>
@@ -6818,10 +6841,10 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E180" s="2">
         <v>60</v>
@@ -6845,10 +6868,10 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E181" s="2">
         <v>61</v>
@@ -6872,10 +6895,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E182" s="2">
         <v>62</v>
@@ -6899,10 +6922,10 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E183" s="2">
         <v>63</v>
@@ -6926,10 +6949,10 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E184" s="2">
         <v>64</v>
@@ -6953,10 +6976,10 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E185" s="2">
         <v>65</v>
@@ -6980,10 +7003,10 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E186" s="2">
         <v>66</v>
@@ -7007,10 +7030,10 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E187" s="2">
         <v>67</v>
@@ -7034,10 +7057,10 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E188" s="2">
         <v>68</v>
@@ -7061,10 +7084,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E189" s="2">
         <v>69</v>
@@ -7224,13 +7247,13 @@
         <v>50101</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>64</v>
+        <v>421</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="E195" s="2">
         <v>111</v>
@@ -7254,10 +7277,10 @@
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
-        <v>65</v>
+        <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E196" s="2">
         <v>112</v>
@@ -7281,10 +7304,10 @@
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
-        <v>66</v>
+        <v>423</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E197" s="2">
         <v>113</v>
@@ -7304,779 +7327,779 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>50201</v>
+        <v>50104</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>67</v>
+        <v>424</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E198" s="2">
-        <v>114</v>
-      </c>
-      <c r="F198" s="2">
-        <v>214</v>
-      </c>
-      <c r="G198" s="2">
-        <v>314</v>
-      </c>
-      <c r="H198" s="2">
-        <v>414</v>
-      </c>
-      <c r="I198" s="2">
-        <v>514</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>50202</v>
+        <v>50105</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E199" s="2">
-        <v>115</v>
-      </c>
-      <c r="F199" s="2">
-        <v>215</v>
-      </c>
-      <c r="G199" s="2">
-        <v>315</v>
-      </c>
-      <c r="H199" s="2">
-        <v>415</v>
-      </c>
-      <c r="I199" s="2">
-        <v>515</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>50203</v>
+        <v>50201</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E200" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F200" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G200" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H200" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I200" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>60101</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>427</v>
-      </c>
+        <v>50202</v>
+      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E201" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F201" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G201" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H201" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I201" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>60102</v>
+        <v>50203</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="E202" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F202" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G202" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H202" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I202" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>60103</v>
+        <v>50204</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E203" s="2">
-        <v>119</v>
-      </c>
-      <c r="F203" s="2">
-        <v>219</v>
-      </c>
-      <c r="G203" s="2">
-        <v>319</v>
-      </c>
-      <c r="H203" s="2">
-        <v>419</v>
-      </c>
-      <c r="I203" s="2">
-        <v>519</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>60104</v>
+        <v>50205</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E204" s="2">
-        <v>120</v>
-      </c>
-      <c r="F204" s="2">
-        <v>220</v>
-      </c>
-      <c r="G204" s="2">
-        <v>320</v>
-      </c>
-      <c r="H204" s="2">
-        <v>420</v>
-      </c>
-      <c r="I204" s="2">
-        <v>520</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>60105</v>
-      </c>
-      <c r="B205" s="2"/>
+        <v>60101</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="C205" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E205" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F205" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G205" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H205" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I205" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
-        <v>70101</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="A206" s="2">
+        <v>60102</v>
+      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E206" s="2">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="F206" s="2">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="G206" s="2">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="H206" s="2">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="I206" s="2">
-        <v>3</v>
+        <v>518</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
-        <v>70102</v>
+      <c r="A207" s="2">
+        <v>60103</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E207" s="2">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="F207" s="2">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="G207" s="2">
-        <v>6</v>
+        <v>319</v>
       </c>
       <c r="H207" s="2">
-        <v>6</v>
+        <v>419</v>
       </c>
       <c r="I207" s="2">
-        <v>6</v>
+        <v>519</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
-        <v>70103</v>
+      <c r="A208" s="2">
+        <v>60104</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E208" s="2">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="F208" s="2">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="G208" s="2">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="H208" s="2">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="I208" s="2">
-        <v>9</v>
+        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
-        <v>70104</v>
+      <c r="A209" s="2">
+        <v>60105</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E209" s="2">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F209" s="2">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G209" s="2">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="H209" s="2">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="I209" s="2">
-        <v>12</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>70105</v>
-      </c>
-      <c r="B210" s="2"/>
+        <v>70101</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="C210" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E210" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F210" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G210" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H210" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I210" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>70106</v>
+        <v>70102</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E211" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F211" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G211" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H211" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I211" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>70107</v>
+        <v>70103</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E212" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F212" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G212" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H212" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I212" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>70108</v>
+        <v>70104</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E213" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F213" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G213" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H213" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I213" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>70109</v>
+        <v>70105</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E214" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F214" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G214" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H214" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I214" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>70110</v>
+      <c r="A215" s="4">
+        <v>70106</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E215" s="2">
+        <v>18</v>
+      </c>
+      <c r="F215" s="2">
+        <v>18</v>
+      </c>
+      <c r="G215" s="2">
+        <v>18</v>
+      </c>
+      <c r="H215" s="2">
+        <v>18</v>
+      </c>
+      <c r="I215" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>70107</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E215" s="2">
+      <c r="E216" s="2">
+        <v>21</v>
+      </c>
+      <c r="F216" s="2">
+        <v>21</v>
+      </c>
+      <c r="G216" s="2">
+        <v>21</v>
+      </c>
+      <c r="H216" s="2">
+        <v>21</v>
+      </c>
+      <c r="I216" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>70108</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E217" s="2">
+        <v>24</v>
+      </c>
+      <c r="F217" s="2">
+        <v>24</v>
+      </c>
+      <c r="G217" s="2">
+        <v>24</v>
+      </c>
+      <c r="H217" s="2">
+        <v>24</v>
+      </c>
+      <c r="I217" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>70109</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E218" s="2">
+        <v>27</v>
+      </c>
+      <c r="F218" s="2">
+        <v>27</v>
+      </c>
+      <c r="G218" s="2">
+        <v>27</v>
+      </c>
+      <c r="H218" s="2">
+        <v>27</v>
+      </c>
+      <c r="I218" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>70110</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" s="2">
         <v>30</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F219" s="2">
         <v>30</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G219" s="2">
         <v>30</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H219" s="2">
         <v>30</v>
       </c>
-      <c r="I215" s="2">
+      <c r="I219" s="2">
         <v>30</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
-        <v>70111</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E216" s="5">
-        <v>33</v>
-      </c>
-      <c r="F216" s="5">
-        <v>33</v>
-      </c>
-      <c r="G216" s="5">
-        <v>33</v>
-      </c>
-      <c r="H216" s="5">
-        <v>33</v>
-      </c>
-      <c r="I216" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
-        <v>70112</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E217" s="2">
-        <v>36</v>
-      </c>
-      <c r="F217" s="2">
-        <v>36</v>
-      </c>
-      <c r="G217" s="2">
-        <v>36</v>
-      </c>
-      <c r="H217" s="2">
-        <v>36</v>
-      </c>
-      <c r="I217" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
-        <v>70113</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E218" s="5">
-        <v>39</v>
-      </c>
-      <c r="F218" s="5">
-        <v>39</v>
-      </c>
-      <c r="G218" s="5">
-        <v>39</v>
-      </c>
-      <c r="H218" s="5">
-        <v>39</v>
-      </c>
-      <c r="I218" s="5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
-        <v>70114</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E219" s="2">
-        <v>42</v>
-      </c>
-      <c r="F219" s="2">
-        <v>42</v>
-      </c>
-      <c r="G219" s="2">
-        <v>42</v>
-      </c>
-      <c r="H219" s="2">
-        <v>42</v>
-      </c>
-      <c r="I219" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
-        <v>70115</v>
+        <v>70111</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" s="5">
+        <v>33</v>
+      </c>
+      <c r="F220" s="5">
+        <v>33</v>
+      </c>
+      <c r="G220" s="5">
+        <v>33</v>
+      </c>
+      <c r="H220" s="5">
+        <v>33</v>
+      </c>
+      <c r="I220" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>70112</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D220" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E220" s="5">
-        <v>45</v>
-      </c>
-      <c r="F220" s="5">
-        <v>45</v>
-      </c>
-      <c r="G220" s="5">
-        <v>45</v>
-      </c>
-      <c r="H220" s="5">
-        <v>45</v>
-      </c>
-      <c r="I220" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
-        <v>70201</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
+      <c r="E221" s="2">
+        <v>36</v>
+      </c>
+      <c r="F221" s="2">
+        <v>36</v>
+      </c>
+      <c r="G221" s="2">
+        <v>36</v>
+      </c>
+      <c r="H221" s="2">
+        <v>36</v>
+      </c>
+      <c r="I221" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
-        <v>70202</v>
+      <c r="A222" s="5">
+        <v>70113</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="5" t="s">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E222" s="5">
+        <v>39</v>
+      </c>
+      <c r="F222" s="5">
+        <v>39</v>
+      </c>
+      <c r="G222" s="5">
+        <v>39</v>
+      </c>
+      <c r="H222" s="5">
+        <v>39</v>
+      </c>
+      <c r="I222" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
-        <v>70203</v>
+      <c r="A223" s="5">
+        <v>70114</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="5" t="s">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="E223" s="2">
+        <v>42</v>
+      </c>
+      <c r="F223" s="2">
+        <v>42</v>
+      </c>
+      <c r="G223" s="2">
+        <v>42</v>
+      </c>
+      <c r="H223" s="2">
+        <v>42</v>
+      </c>
+      <c r="I223" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
-        <v>70204</v>
+      <c r="A224" s="5">
+        <v>70115</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="5" t="s">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="E224" s="5">
+        <v>45</v>
+      </c>
+      <c r="F224" s="5">
+        <v>45</v>
+      </c>
+      <c r="G224" s="5">
+        <v>45</v>
+      </c>
+      <c r="H224" s="5">
+        <v>45</v>
+      </c>
+      <c r="I224" s="5">
+        <v>45</v>
+      </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>80101</v>
+        <v>70201</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>80102</v>
+        <v>70202</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
+      <c r="C226" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>80103</v>
+        <v>70203</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
+      <c r="C227" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>80104</v>
+        <v>70204</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
+      <c r="C228" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>80105</v>
-      </c>
-      <c r="B229" s="2"/>
+        <v>80101</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C229" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -8086,16 +8109,14 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>80106</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>310</v>
-      </c>
+        <v>80102</v>
+      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -8105,16 +8126,14 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>80107</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>311</v>
-      </c>
+        <v>80103</v>
+      </c>
+      <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -8124,16 +8143,14 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>80201</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>321</v>
-      </c>
+        <v>80104</v>
+      </c>
+      <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -8143,16 +8160,14 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>80202</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>313</v>
-      </c>
+        <v>80105</v>
+      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -8162,16 +8177,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>80301</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>320</v>
+        <v>80106</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -8181,14 +8196,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>80302</v>
-      </c>
-      <c r="B235" s="7"/>
+        <v>80107</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="C235" s="2" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -8198,14 +8215,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>80303</v>
-      </c>
-      <c r="B236" s="7"/>
+        <v>80201</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="C236" s="2" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -8215,14 +8234,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>80304</v>
-      </c>
-      <c r="B237" s="7"/>
+        <v>80202</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="C237" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -8232,14 +8253,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>80305</v>
-      </c>
-      <c r="B238" s="7"/>
+        <v>80301</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="C238" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -8249,14 +8272,14 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>80306</v>
+        <v>80302</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -8266,14 +8289,14 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>80307</v>
+        <v>80303</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -8283,14 +8306,14 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>80401</v>
+        <v>80304</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -8300,14 +8323,14 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>80402</v>
+        <v>80305</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -8317,16 +8340,14 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>80501</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>350</v>
-      </c>
+        <v>80306</v>
+      </c>
+      <c r="B243" s="7"/>
       <c r="C243" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -8336,14 +8357,14 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>80502</v>
+        <v>80307</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -8353,14 +8374,14 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>80503</v>
+        <v>80401</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -8370,16 +8391,14 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>80601</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>356</v>
-      </c>
+        <v>80402</v>
+      </c>
+      <c r="B246" s="7"/>
       <c r="C246" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -8389,14 +8408,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>80602</v>
-      </c>
-      <c r="B247" s="7"/>
+        <v>80501</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="C247" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -8406,14 +8427,14 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>80603</v>
+        <v>80502</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -8423,14 +8444,14 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <v>80604</v>
+        <v>80503</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -8440,14 +8461,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
-        <v>80605</v>
-      </c>
-      <c r="B250" s="7"/>
+        <v>80601</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="C250" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -8457,16 +8480,14 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
-        <v>81101</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>80602</v>
+      </c>
+      <c r="B251" s="7"/>
       <c r="C251" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -8476,14 +8497,14 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
-        <v>81102</v>
-      </c>
-      <c r="B252" s="2"/>
+        <v>80603</v>
+      </c>
+      <c r="B252" s="7"/>
       <c r="C252" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -8493,14 +8514,14 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <v>81103</v>
-      </c>
-      <c r="B253" s="2"/>
+        <v>80604</v>
+      </c>
+      <c r="B253" s="7"/>
       <c r="C253" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -8510,14 +8531,14 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <v>81104</v>
-      </c>
-      <c r="B254" s="2"/>
+        <v>80605</v>
+      </c>
+      <c r="B254" s="7"/>
       <c r="C254" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -8527,14 +8548,16 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
-        <v>81105</v>
-      </c>
-      <c r="B255" s="2"/>
+        <v>81101</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C255" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -8544,14 +8567,14 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
-        <v>81106</v>
+        <v>81102</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -8561,14 +8584,14 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
-        <v>81107</v>
+        <v>81103</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -8578,14 +8601,14 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
-        <v>81108</v>
+        <v>81104</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -8595,16 +8618,14 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
-        <v>82101</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>81105</v>
+      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -8614,14 +8635,14 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
-        <v>82102</v>
+        <v>81106</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -8631,14 +8652,14 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
-        <v>82103</v>
+        <v>81107</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -8648,14 +8669,14 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
-        <v>82104</v>
+        <v>81108</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -8665,14 +8686,16 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
-        <v>82105</v>
-      </c>
-      <c r="B263" s="2"/>
+        <v>82101</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C263" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -8682,14 +8705,14 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
-        <v>82106</v>
+        <v>82102</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -8699,16 +8722,14 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
-        <v>83101</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>82103</v>
+      </c>
+      <c r="B265" s="2"/>
       <c r="C265" s="2" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -8718,14 +8739,14 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
-        <v>83102</v>
+        <v>82104</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266" t="s">
-        <v>396</v>
-      </c>
-      <c r="D266" t="s">
-        <v>397</v>
+      <c r="C266" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -8735,14 +8756,14 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
-        <v>83103</v>
+        <v>82105</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -8752,14 +8773,14 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
-        <v>83104</v>
+        <v>82106</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
         <v>390</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -8769,14 +8790,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
-        <v>83105</v>
-      </c>
-      <c r="B269" s="2"/>
+        <v>83101</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C269" s="2" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -8786,16 +8809,14 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
-        <v>84101</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>403</v>
+        <v>83102</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" t="s">
+        <v>388</v>
+      </c>
+      <c r="D270" t="s">
+        <v>389</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -8805,14 +8826,14 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
-        <v>84102</v>
+        <v>83103</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
@@ -8822,14 +8843,14 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
-        <v>84103</v>
+        <v>83104</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -8839,14 +8860,14 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
-        <v>84104</v>
+        <v>83105</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -8856,14 +8877,16 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
-        <v>84105</v>
-      </c>
-      <c r="B274" s="2"/>
+        <v>84101</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C274" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -8873,14 +8896,14 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
-        <v>84106</v>
+        <v>84102</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -8890,16 +8913,14 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
-        <v>84201</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>84103</v>
+      </c>
+      <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -8909,14 +8930,14 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
-        <v>84202</v>
+        <v>84104</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8926,14 +8947,14 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
-        <v>84203</v>
+        <v>84105</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8943,14 +8964,14 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
-        <v>84204</v>
+        <v>84106</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8960,14 +8981,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
-        <v>84205</v>
-      </c>
-      <c r="B280" s="2"/>
+        <v>84201</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="C280" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8977,14 +9000,14 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
-        <v>84206</v>
+        <v>84202</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -8994,15 +9017,15 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
-        <v>85101</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>84203</v>
+      </c>
+      <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D282" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -9011,13 +9034,15 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
-        <v>85102</v>
+        <v>84204</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D283" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -9026,13 +9051,15 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
-        <v>85103</v>
+        <v>84205</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D284" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -9041,13 +9068,15 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
-        <v>85104</v>
+        <v>84206</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D285" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -9056,11 +9085,13 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
-        <v>85105</v>
-      </c>
-      <c r="B286" s="2"/>
+        <v>85101</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C286" s="2" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9071,11 +9102,11 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
-        <v>85106</v>
+        <v>85102</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9086,11 +9117,11 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
-        <v>85107</v>
+        <v>85103</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9101,11 +9132,11 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
-        <v>85108</v>
+        <v>85104</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9116,11 +9147,11 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
-        <v>85109</v>
+        <v>85105</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9131,11 +9162,11 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
-        <v>85110</v>
+        <v>85106</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9146,13 +9177,11 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
-        <v>86101</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>85107</v>
+      </c>
+      <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9163,11 +9192,11 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
-        <v>86102</v>
+        <v>85108</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9178,11 +9207,11 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
-        <v>86103</v>
+        <v>85109</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9193,11 +9222,11 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
-        <v>86104</v>
+        <v>85110</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9208,11 +9237,13 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
-        <v>86105</v>
-      </c>
-      <c r="B296" s="2"/>
+        <v>86101</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C296" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9223,11 +9254,11 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
-        <v>86106</v>
+        <v>86102</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -9238,11 +9269,11 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
-        <v>86107</v>
+        <v>86103</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9253,11 +9284,11 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
-        <v>86108</v>
+        <v>86104</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9268,11 +9299,11 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
-        <v>86109</v>
+        <v>86105</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -9283,11 +9314,11 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
-        <v>86110</v>
+        <v>86106</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9298,13 +9329,11 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
-        <v>90101</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>86107</v>
+      </c>
+      <c r="B302" s="2"/>
       <c r="C302" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9315,11 +9344,11 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
-        <v>90102</v>
+        <v>86108</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -9327,6 +9356,68 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="4">
+        <v>86109</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" s="4">
+        <v>86110</v>
+      </c>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" s="4">
+        <v>90101</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" s="4">
+        <v>90102</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="538">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,14 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金矿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,1377 +192,1741 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>energy conservation</t>
+  </si>
+  <si>
+    <t>Emission reduction</t>
+  </si>
+  <si>
+    <t>Optimize the circuit</t>
+  </si>
+  <si>
+    <t>Reduce emissions</t>
+  </si>
+  <si>
+    <t>Optimize electrical circuits</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Changhong</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>Novice employees</t>
+  </si>
+  <si>
+    <t>Experienced employees</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>gold mine</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>ad1desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbulble2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万亿兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万亿京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ronna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yotta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zetta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段预留2</t>
+  </si>
+  <si>
+    <t>字段预留3</t>
+  </si>
+  <si>
+    <t>字段预留4</t>
+  </si>
+  <si>
+    <t>字段预留5</t>
+  </si>
+  <si>
+    <t>字段预留6</t>
+  </si>
+  <si>
+    <t>字段预留7</t>
+  </si>
+  <si>
+    <t>字段预留8</t>
+  </si>
+  <si>
+    <t>字段预留9</t>
+  </si>
+  <si>
+    <t>字段预留10</t>
+  </si>
+  <si>
+    <t>个人信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产5</t>
+  </si>
+  <si>
+    <t>矿产6</t>
+  </si>
+  <si>
+    <t>矿产7</t>
+  </si>
+  <si>
+    <t>矿产8</t>
+  </si>
+  <si>
+    <t>矿产9</t>
+  </si>
+  <si>
+    <t>矿产10</t>
+  </si>
+  <si>
+    <t>mine4</t>
+  </si>
+  <si>
+    <t>mine4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine5</t>
+  </si>
+  <si>
+    <t>mine6</t>
+  </si>
+  <si>
+    <t>mine7</t>
+  </si>
+  <si>
+    <t>mine8</t>
+  </si>
+  <si>
+    <t>mine9</t>
+  </si>
+  <si>
+    <t>mine10</t>
+  </si>
+  <si>
+    <t>经理描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理7</t>
+  </si>
+  <si>
+    <t>经理7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理8</t>
+  </si>
+  <si>
+    <t>经理9</t>
+  </si>
+  <si>
+    <t>经理10</t>
+  </si>
+  <si>
+    <t>经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理3</t>
+  </si>
+  <si>
+    <t>经理4</t>
+  </si>
+  <si>
+    <t>经理5</t>
+  </si>
+  <si>
+    <t>经理6</t>
+  </si>
+  <si>
+    <t>高级经理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理3</t>
+  </si>
+  <si>
+    <t>高级经理4</t>
+  </si>
+  <si>
+    <t>高级经理5</t>
+  </si>
+  <si>
+    <t>高级经理6</t>
+  </si>
+  <si>
+    <t>高级经理7</t>
+  </si>
+  <si>
+    <t>高级经理8</t>
+  </si>
+  <si>
+    <t>高级经理9</t>
+  </si>
+  <si>
+    <t>高级经理10</t>
+  </si>
+  <si>
+    <t>manger7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manger8</t>
+  </si>
+  <si>
+    <t>manger9</t>
+  </si>
+  <si>
+    <t>manger10</t>
+  </si>
+  <si>
+    <t>manager1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>manager3</t>
+  </si>
+  <si>
+    <t>manager4</t>
+  </si>
+  <si>
+    <t>manager5</t>
+  </si>
+  <si>
+    <t>manager6</t>
+  </si>
+  <si>
+    <t>manager7</t>
+  </si>
+  <si>
+    <t>manager8</t>
+  </si>
+  <si>
+    <t>manager9</t>
+  </si>
+  <si>
+    <t>manager10</t>
+  </si>
+  <si>
+    <t>leader1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader3</t>
+  </si>
+  <si>
+    <t>leader4</t>
+  </si>
+  <si>
+    <t>leader5</t>
+  </si>
+  <si>
+    <t>leader6</t>
+  </si>
+  <si>
+    <t>leader7</t>
+  </si>
+  <si>
+    <t>leader8</t>
+  </si>
+  <si>
+    <t>leader9</t>
+  </si>
+  <si>
+    <t>leader10</t>
+  </si>
+  <si>
+    <t>经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理描述2</t>
+  </si>
+  <si>
+    <t>经理描述3</t>
+  </si>
+  <si>
+    <t>经理描述4</t>
+  </si>
+  <si>
+    <t>经理描述5</t>
+  </si>
+  <si>
+    <t>经理描述6</t>
+  </si>
+  <si>
+    <t>经理描述7</t>
+  </si>
+  <si>
+    <t>经理描述8</t>
+  </si>
+  <si>
+    <t>经理描述9</t>
+  </si>
+  <si>
+    <t>经理描述10</t>
+  </si>
+  <si>
+    <t>高级经理描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经理描述2</t>
+  </si>
+  <si>
+    <t>高级经理描述3</t>
+  </si>
+  <si>
+    <t>高级经理描述4</t>
+  </si>
+  <si>
+    <t>高级经理描述5</t>
+  </si>
+  <si>
+    <t>高级经理描述6</t>
+  </si>
+  <si>
+    <t>高级经理描述7</t>
+  </si>
+  <si>
+    <t>高级经理描述8</t>
+  </si>
+  <si>
+    <t>高级经理描述9</t>
+  </si>
+  <si>
+    <t>高级经理描述10</t>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+  </si>
+  <si>
+    <t>lalala3</t>
+  </si>
+  <si>
+    <t>lalala4</t>
+  </si>
+  <si>
+    <t>lalala5</t>
+  </si>
+  <si>
+    <t>lalala6</t>
+  </si>
+  <si>
+    <t>lalala7</t>
+  </si>
+  <si>
+    <t>lalala8</t>
+  </si>
+  <si>
+    <t>lalala9</t>
+  </si>
+  <si>
+    <t>lalala10</t>
+  </si>
+  <si>
+    <t>项目7</t>
+  </si>
+  <si>
+    <t>项目7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目8</t>
+  </si>
+  <si>
+    <t>项目8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目9</t>
+  </si>
+  <si>
+    <t>项目3</t>
+  </si>
+  <si>
+    <t>项目4</t>
+  </si>
+  <si>
+    <t>项目5</t>
+  </si>
+  <si>
+    <t>项目6</t>
+  </si>
+  <si>
+    <t>项目10</t>
+  </si>
+  <si>
+    <t>develop7</t>
+  </si>
+  <si>
+    <t>develop7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop8</t>
+  </si>
+  <si>
+    <t>develop9</t>
+  </si>
+  <si>
+    <t>develop10</t>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶产出增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop2</t>
+  </si>
+  <si>
+    <t>develop3</t>
+  </si>
+  <si>
+    <t>develop4</t>
+  </si>
+  <si>
+    <t>develop5</t>
+  </si>
+  <si>
+    <t>develop6</t>
+  </si>
+  <si>
+    <t>crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述2</t>
+  </si>
+  <si>
+    <t>项目描述3</t>
+  </si>
+  <si>
+    <t>项目描述4</t>
+  </si>
+  <si>
+    <t>项目描述5</t>
+  </si>
+  <si>
+    <t>项目描述6</t>
+  </si>
+  <si>
+    <t>项目描述7</t>
+  </si>
+  <si>
+    <t>项目描述8</t>
+  </si>
+  <si>
+    <t>项目描述9</t>
+  </si>
+  <si>
+    <t>项目描述10</t>
+  </si>
+  <si>
+    <t>翻倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalala2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubledesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystaldesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增级2</t>
+  </si>
+  <si>
+    <t>矿产增级3</t>
+  </si>
+  <si>
+    <t>矿产增级4</t>
+  </si>
+  <si>
+    <t>矿产增级5</t>
+  </si>
+  <si>
+    <t>矿产增级6</t>
+  </si>
+  <si>
+    <t>矿产增级7</t>
+  </si>
+  <si>
+    <t>矿产增级8</t>
+  </si>
+  <si>
+    <t>矿产增级9</t>
+  </si>
+  <si>
+    <t>矿产增级10</t>
+  </si>
+  <si>
+    <t>mine1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine2</t>
+  </si>
+  <si>
+    <t>mine3</t>
+  </si>
+  <si>
+    <t>矿产增加描述1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minedesc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产增加描述2</t>
+  </si>
+  <si>
+    <t>minedesc2</t>
+  </si>
+  <si>
+    <t>矿产增加描述3</t>
+  </si>
+  <si>
+    <t>minedesc3</t>
+  </si>
+  <si>
+    <t>矿产增加描述4</t>
+  </si>
+  <si>
+    <t>minedesc4</t>
+  </si>
+  <si>
+    <t>矿产增加描述5</t>
+  </si>
+  <si>
+    <t>minedesc5</t>
+  </si>
+  <si>
+    <t>矿产增加描述6</t>
+  </si>
+  <si>
+    <t>minedesc6</t>
+  </si>
+  <si>
+    <t>矿产增加描述7</t>
+  </si>
+  <si>
+    <t>minedesc7</t>
+  </si>
+  <si>
+    <t>矿产增加描述8</t>
+  </si>
+  <si>
+    <t>minedesc8</t>
+  </si>
+  <si>
+    <t>矿产增加描述9</t>
+  </si>
+  <si>
+    <t>minedesc9</t>
+  </si>
+  <si>
+    <t>矿产增加描述10</t>
+  </si>
+  <si>
+    <t>minedesc10</t>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join the event！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptocurrency exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密货币交易所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-设置弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-活动提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证（点击复制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORT(press to copy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎回来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你离开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的时间内获得的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看广告获取双倍奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome back,Ripper Miner!</t>
+  </si>
+  <si>
+    <t>You were offline</t>
+  </si>
+  <si>
+    <t>YOU EARNED</t>
+  </si>
+  <si>
+    <t>on Crypto World while you were gone</t>
+  </si>
+  <si>
+    <t>Watch an ad for Double Earnings</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocks</t>
+  </si>
+  <si>
+    <t>Unlocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想让你的利润最大化吗投资这些企业以解锁利润奖金！</t>
+  </si>
+  <si>
+    <t>want to maximize your profits？ invest in these businesses to unlock profit bonuses!</t>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>一共赚取了多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifetime earnings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash on hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁矿产数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置矿产次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset mineral resources</t>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These make your life easier and help you optimize your assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些让你的生活更轻松，帮助优化资产！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Megatoken</t>
+  </si>
+  <si>
+    <t>Managers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们被召唤去服务和帮助你消灭宇宙！</t>
+  </si>
+  <si>
+    <t>They are called to serve and help you to annihilate the Universe</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你赚的游戏币越多，你吸引的投资者就越多！他们增加利润，但你需要卖掉你的企业并开始结束！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The more currency you earn, the more Investors you attract! Theyincrease profits,but your`ll need to sell your businesses and startover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your total Investors</t>
+  </si>
+  <si>
+    <t>你拥有的水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目中获得的额外利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Bonus Per Inverstor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启获得钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors claimed with restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLAIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取钻石数量</t>
+  </si>
+  <si>
+    <t>销售界面-售卖弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investors ready to boost profits!</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取奖励需要重置你的矿产，但会让你更快的获取比特币。或者使用黄金保住你的矿产！</t>
+  </si>
+  <si>
+    <t>Claiming requires resetting your preogress,butyou`ll earn it back quickly in no time! Or,use Goldto keep your existing progress.</t>
+  </si>
+  <si>
+    <t>重置并且售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖并且不重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claim &amp; Keep Progress</t>
+  </si>
+  <si>
+    <t>Reset &amp; Claim</t>
+  </si>
+  <si>
+    <t>你的黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Gold</t>
+  </si>
+  <si>
+    <t>商店内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad4</t>
+  </si>
+  <si>
+    <t>ad5</t>
+  </si>
+  <si>
+    <t>ad3desc</t>
+  </si>
+  <si>
+    <t>ad4desc</t>
+  </si>
+  <si>
+    <t>ad5desc</t>
+  </si>
+  <si>
+    <t>所有矿产产出速度减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有矿产产出翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取30分钟时间奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍的离线奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售资产时，额外获得2%的水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具-货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励（商城广告）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重制游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告效果翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆3</t>
+  </si>
+  <si>
+    <t>金矿堆4</t>
+  </si>
+  <si>
+    <t>金矿堆5</t>
+  </si>
+  <si>
+    <t>金矿堆6</t>
+  </si>
+  <si>
+    <t>小猪矿机100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美金（真实货币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>代币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>energy conservation</t>
-  </si>
-  <si>
-    <t>Emission reduction</t>
-  </si>
-  <si>
-    <t>Optimize the circuit</t>
-  </si>
-  <si>
-    <t>Reduce emissions</t>
-  </si>
-  <si>
-    <t>Optimize electrical circuits</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Changhong</t>
-  </si>
-  <si>
-    <t>trainee</t>
-  </si>
-  <si>
-    <t>Novice employees</t>
-  </si>
-  <si>
-    <t>Experienced employees</t>
-  </si>
-  <si>
-    <t>dollar</t>
-  </si>
-  <si>
-    <t>gold mine</t>
-  </si>
-  <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
-    <t>Feather</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>ad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>ad1desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad2desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbulble1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbulble2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>million</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>billion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万亿兆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百亿京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万亿京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quetta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ronna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yotta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zetta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>peta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段预留1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段预留2</t>
-  </si>
-  <si>
-    <t>字段预留3</t>
-  </si>
-  <si>
-    <t>字段预留4</t>
-  </si>
-  <si>
-    <t>字段预留5</t>
-  </si>
-  <si>
-    <t>字段预留6</t>
-  </si>
-  <si>
-    <t>字段预留7</t>
-  </si>
-  <si>
-    <t>字段预留8</t>
-  </si>
-  <si>
-    <t>字段预留9</t>
-  </si>
-  <si>
-    <t>字段预留10</t>
-  </si>
-  <si>
-    <t>个人信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产5</t>
-  </si>
-  <si>
-    <t>矿产6</t>
-  </si>
-  <si>
-    <t>矿产7</t>
-  </si>
-  <si>
-    <t>矿产8</t>
-  </si>
-  <si>
-    <t>矿产9</t>
-  </si>
-  <si>
-    <t>矿产10</t>
-  </si>
-  <si>
-    <t>mine4</t>
-  </si>
-  <si>
-    <t>mine4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mine5</t>
-  </si>
-  <si>
-    <t>mine6</t>
-  </si>
-  <si>
-    <t>mine7</t>
-  </si>
-  <si>
-    <t>mine8</t>
-  </si>
-  <si>
-    <t>mine9</t>
-  </si>
-  <si>
-    <t>mine10</t>
-  </si>
-  <si>
-    <t>经理描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理7</t>
-  </si>
-  <si>
-    <t>经理7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理8</t>
-  </si>
-  <si>
-    <t>经理9</t>
-  </si>
-  <si>
-    <t>经理10</t>
-  </si>
-  <si>
-    <t>经理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理3</t>
-  </si>
-  <si>
-    <t>经理4</t>
-  </si>
-  <si>
-    <t>经理5</t>
-  </si>
-  <si>
-    <t>经理6</t>
-  </si>
-  <si>
-    <t>高级经理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理3</t>
-  </si>
-  <si>
-    <t>高级经理4</t>
-  </si>
-  <si>
-    <t>高级经理5</t>
-  </si>
-  <si>
-    <t>高级经理6</t>
-  </si>
-  <si>
-    <t>高级经理7</t>
-  </si>
-  <si>
-    <t>高级经理8</t>
-  </si>
-  <si>
-    <t>高级经理9</t>
-  </si>
-  <si>
-    <t>高级经理10</t>
-  </si>
-  <si>
-    <t>manger7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manger8</t>
-  </si>
-  <si>
-    <t>manger9</t>
-  </si>
-  <si>
-    <t>manger10</t>
-  </si>
-  <si>
-    <t>manager1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager2</t>
-  </si>
-  <si>
-    <t>manager3</t>
-  </si>
-  <si>
-    <t>manager4</t>
-  </si>
-  <si>
-    <t>manager5</t>
-  </si>
-  <si>
-    <t>manager6</t>
-  </si>
-  <si>
-    <t>manager7</t>
-  </si>
-  <si>
-    <t>manager8</t>
-  </si>
-  <si>
-    <t>manager9</t>
-  </si>
-  <si>
-    <t>manager10</t>
-  </si>
-  <si>
-    <t>leader1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leader3</t>
-  </si>
-  <si>
-    <t>leader4</t>
-  </si>
-  <si>
-    <t>leader5</t>
-  </si>
-  <si>
-    <t>leader6</t>
-  </si>
-  <si>
-    <t>leader7</t>
-  </si>
-  <si>
-    <t>leader8</t>
-  </si>
-  <si>
-    <t>leader9</t>
-  </si>
-  <si>
-    <t>leader10</t>
-  </si>
-  <si>
-    <t>经理描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理描述2</t>
-  </si>
-  <si>
-    <t>经理描述3</t>
-  </si>
-  <si>
-    <t>经理描述4</t>
-  </si>
-  <si>
-    <t>经理描述5</t>
-  </si>
-  <si>
-    <t>经理描述6</t>
-  </si>
-  <si>
-    <t>经理描述7</t>
-  </si>
-  <si>
-    <t>经理描述8</t>
-  </si>
-  <si>
-    <t>经理描述9</t>
-  </si>
-  <si>
-    <t>经理描述10</t>
-  </si>
-  <si>
-    <t>高级经理描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经理描述2</t>
-  </si>
-  <si>
-    <t>高级经理描述3</t>
-  </si>
-  <si>
-    <t>高级经理描述4</t>
-  </si>
-  <si>
-    <t>高级经理描述5</t>
-  </si>
-  <si>
-    <t>高级经理描述6</t>
-  </si>
-  <si>
-    <t>高级经理描述7</t>
-  </si>
-  <si>
-    <t>高级经理描述8</t>
-  </si>
-  <si>
-    <t>高级经理描述9</t>
-  </si>
-  <si>
-    <t>高级经理描述10</t>
-  </si>
-  <si>
-    <t>lalala1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala2</t>
-  </si>
-  <si>
-    <t>lalala3</t>
-  </si>
-  <si>
-    <t>lalala4</t>
-  </si>
-  <si>
-    <t>lalala5</t>
-  </si>
-  <si>
-    <t>lalala6</t>
-  </si>
-  <si>
-    <t>lalala7</t>
-  </si>
-  <si>
-    <t>lalala8</t>
-  </si>
-  <si>
-    <t>lalala9</t>
-  </si>
-  <si>
-    <t>lalala10</t>
-  </si>
-  <si>
-    <t>项目7</t>
-  </si>
-  <si>
-    <t>项目7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目8</t>
-  </si>
-  <si>
-    <t>项目8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目9</t>
-  </si>
-  <si>
-    <t>项目3</t>
-  </si>
-  <si>
-    <t>项目4</t>
-  </si>
-  <si>
-    <t>项目5</t>
-  </si>
-  <si>
-    <t>项目6</t>
-  </si>
-  <si>
-    <t>项目10</t>
-  </si>
-  <si>
-    <t>develop7</t>
-  </si>
-  <si>
-    <t>develop7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop8</t>
-  </si>
-  <si>
-    <t>develop9</t>
-  </si>
-  <si>
-    <t>develop10</t>
-  </si>
-  <si>
-    <t>全部翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶产出增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop2</t>
-  </si>
-  <si>
-    <t>develop3</t>
-  </si>
-  <si>
-    <t>develop4</t>
-  </si>
-  <si>
-    <t>develop5</t>
-  </si>
-  <si>
-    <t>develop6</t>
-  </si>
-  <si>
-    <t>crystal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目描述2</t>
-  </si>
-  <si>
-    <t>项目描述3</t>
-  </si>
-  <si>
-    <t>项目描述4</t>
-  </si>
-  <si>
-    <t>项目描述5</t>
-  </si>
-  <si>
-    <t>项目描述6</t>
-  </si>
-  <si>
-    <t>项目描述7</t>
-  </si>
-  <si>
-    <t>项目描述8</t>
-  </si>
-  <si>
-    <t>项目描述9</t>
-  </si>
-  <si>
-    <t>项目描述10</t>
-  </si>
-  <si>
-    <t>翻倍描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lalala2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doubledesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystaldesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增级1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增级2</t>
-  </si>
-  <si>
-    <t>矿产增级3</t>
-  </si>
-  <si>
-    <t>矿产增级4</t>
-  </si>
-  <si>
-    <t>矿产增级5</t>
-  </si>
-  <si>
-    <t>矿产增级6</t>
-  </si>
-  <si>
-    <t>矿产增级7</t>
-  </si>
-  <si>
-    <t>矿产增级8</t>
-  </si>
-  <si>
-    <t>矿产增级9</t>
-  </si>
-  <si>
-    <t>矿产增级10</t>
-  </si>
-  <si>
-    <t>mine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mine2</t>
-  </si>
-  <si>
-    <t>mine3</t>
-  </si>
-  <si>
-    <t>矿产增加描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minedesc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产增加描述2</t>
-  </si>
-  <si>
-    <t>minedesc2</t>
-  </si>
-  <si>
-    <t>矿产增加描述3</t>
-  </si>
-  <si>
-    <t>minedesc3</t>
-  </si>
-  <si>
-    <t>矿产增加描述4</t>
-  </si>
-  <si>
-    <t>minedesc4</t>
-  </si>
-  <si>
-    <t>矿产增加描述5</t>
-  </si>
-  <si>
-    <t>minedesc5</t>
-  </si>
-  <si>
-    <t>矿产增加描述6</t>
-  </si>
-  <si>
-    <t>minedesc6</t>
-  </si>
-  <si>
-    <t>矿产增加描述7</t>
-  </si>
-  <si>
-    <t>minedesc7</t>
-  </si>
-  <si>
-    <t>矿产增加描述8</t>
-  </si>
-  <si>
-    <t>minedesc8</t>
-  </si>
-  <si>
-    <t>矿产增加描述9</t>
-  </si>
-  <si>
-    <t>minedesc9</t>
-  </si>
-  <si>
-    <t>矿产增加描述10</t>
-  </si>
-  <si>
-    <t>minedesc10</t>
-  </si>
-  <si>
-    <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动细则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Join the event！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cryptocurrency exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密货币交易所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-设置弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-活动提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTINGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sounds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证（点击复制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPPORT(press to copy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTINUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面-离线奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎回来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你离开了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不在的时间内获得的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看广告获取双倍奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome back,Ripper Miner!</t>
-  </si>
-  <si>
-    <t>You were offline</t>
-  </si>
-  <si>
-    <t>YOU EARNED</t>
-  </si>
-  <si>
-    <t>on Crypto World while you were gone</t>
-  </si>
-  <si>
-    <t>Watch an ad for Double Earnings</t>
-  </si>
-  <si>
-    <t>加载中……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlocks</t>
-  </si>
-  <si>
-    <t>Unlocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想让你的利润最大化吗投资这些企业以解锁利润奖金！</t>
-  </si>
-  <si>
-    <t>want to maximize your profits？ invest in these businesses to unlock profit bonuses!</t>
-  </si>
-  <si>
-    <t>解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>一共赚取了多少钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lifetime earnings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有多少钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash on hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁矿产数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置矿产次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset mineral resources</t>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>These make your life easier and help you optimize your assets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些让你的生活更轻松，帮助优化资产！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Investors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Megatoken</t>
-  </si>
-  <si>
-    <t>Managers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们被召唤去服务和帮助你消灭宇宙！</t>
-  </si>
-  <si>
-    <t>They are called to serve and help you to annihilate the Universe</t>
-  </si>
-  <si>
-    <t>购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇佣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你赚的游戏币越多，你吸引的投资者就越多！他们增加利润，但你需要卖掉你的企业并开始结束！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The more currency you earn, the more Investors you attract! Theyincrease profits,but your`ll need to sell your businesses and startover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your total Investors</t>
-  </si>
-  <si>
-    <t>你拥有的水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目中获得的额外利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit Bonus Per Inverstor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启获得钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investors claimed with restart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLAIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取钻石数量</t>
-  </si>
-  <si>
-    <t>销售界面-售卖弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investors ready to boost profits!</t>
-  </si>
-  <si>
-    <t>新手引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取奖励需要重置你的矿产，但会让你更快的获取比特币。或者使用黄金保住你的矿产！</t>
-  </si>
-  <si>
-    <t>Claiming requires resetting your preogress,butyou`ll earn it back quickly in no time! Or,use Goldto keep your existing progress.</t>
-  </si>
-  <si>
-    <t>重置并且售卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖并且不重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Claim &amp; Keep Progress</t>
-  </si>
-  <si>
-    <t>Reset &amp; Claim</t>
-  </si>
-  <si>
-    <t>你的黄金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your Gold</t>
-  </si>
-  <si>
-    <t>商店内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间跳跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离线奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad4</t>
-  </si>
-  <si>
-    <t>ad5</t>
-  </si>
-  <si>
-    <t>ad3desc</t>
-  </si>
-  <si>
-    <t>ad4desc</t>
-  </si>
-  <si>
-    <t>ad5desc</t>
-  </si>
-  <si>
-    <t>所有矿产产出速度减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有矿产产出翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取30分钟时间奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍的离线奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售资产时，额外获得2%的水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>增加5倍产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪矿机50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪（限时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin3</t>
+  </si>
+  <si>
+    <t>coin4</t>
+  </si>
+  <si>
+    <t>coin5</t>
+  </si>
+  <si>
+    <t>coin6</t>
+  </si>
+  <si>
+    <t>coin7</t>
+  </si>
+  <si>
+    <t>coin8</t>
+  </si>
+  <si>
+    <t>coin9</t>
+  </si>
+  <si>
+    <t>coin10</t>
+  </si>
+  <si>
+    <t>coin11</t>
+  </si>
+  <si>
+    <t>coin12</t>
+  </si>
+  <si>
+    <t>coin13</t>
+  </si>
+  <si>
+    <t>coin14</t>
+  </si>
+  <si>
+    <t>coin15</t>
+  </si>
+  <si>
+    <t>coin16</t>
+  </si>
+  <si>
+    <t>coin17</t>
+  </si>
+  <si>
+    <t>coin18</t>
+  </si>
+  <si>
+    <t>coin19</t>
+  </si>
+  <si>
+    <t>coin20</t>
+  </si>
+  <si>
+    <t>coin21</t>
+  </si>
+  <si>
+    <t>coin22</t>
+  </si>
+  <si>
+    <t>基础货币描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美金（真实货币）描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励1描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励2描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励3描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间奖励（商城广告）描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1倍产出描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2倍产出描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加5倍产出描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重制游戏描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度2倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产速度5倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告效果翻倍描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆1描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆2描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆3描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆4描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆5描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿堆6描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪矿机50描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪矿机100描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪（限时）描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿机描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coindesc</t>
+  </si>
+  <si>
+    <t>dollardesc</t>
+  </si>
+  <si>
+    <t>gold minedesc</t>
+  </si>
+  <si>
+    <t>Diamondsdesc</t>
+  </si>
+  <si>
+    <t>Featherdesc</t>
+  </si>
+  <si>
+    <t>Tokendesc</t>
+  </si>
+  <si>
+    <t>coin1desc</t>
+  </si>
+  <si>
+    <t>coin2desc</t>
+  </si>
+  <si>
+    <t>coin3desc</t>
+  </si>
+  <si>
+    <t>coin4desc</t>
+  </si>
+  <si>
+    <t>coin5desc</t>
+  </si>
+  <si>
+    <t>coin6desc</t>
+  </si>
+  <si>
+    <t>coin7desc</t>
+  </si>
+  <si>
+    <t>coin8desc</t>
+  </si>
+  <si>
+    <t>coin9desc</t>
+  </si>
+  <si>
+    <t>coin10desc</t>
+  </si>
+  <si>
+    <t>coin11desc</t>
+  </si>
+  <si>
+    <t>coin12desc</t>
+  </si>
+  <si>
+    <t>coin13desc</t>
+  </si>
+  <si>
+    <t>coin14desc</t>
+  </si>
+  <si>
+    <t>coin15desc</t>
+  </si>
+  <si>
+    <t>coin16desc</t>
+  </si>
+  <si>
+    <t>coin17desc</t>
+  </si>
+  <si>
+    <t>coin18desc</t>
+  </si>
+  <si>
+    <t>coin19desc</t>
+  </si>
+  <si>
+    <t>coin20desc</t>
+  </si>
+  <si>
+    <t>coin21desc</t>
+  </si>
+  <si>
+    <t>coin22desc</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2164,10 +2520,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -2191,10 +2547,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -2218,10 +2574,10 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -2245,10 +2601,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
@@ -2272,10 +2628,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -2299,10 +2655,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
@@ -2326,10 +2682,10 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -2358,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
@@ -2385,7 +2741,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -2412,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
@@ -2439,7 +2795,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>7</v>
@@ -2466,7 +2822,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
@@ -2493,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
         <v>9</v>
@@ -2517,10 +2873,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
@@ -2544,10 +2900,10 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
@@ -2571,10 +2927,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
@@ -2598,10 +2954,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
@@ -2625,10 +2981,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
@@ -2652,10 +3008,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -2679,10 +3035,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E26" s="2">
         <v>16</v>
@@ -2706,10 +3062,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E27" s="2">
         <v>17</v>
@@ -2733,10 +3089,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E28" s="2">
         <v>18</v>
@@ -2760,10 +3116,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E29" s="2">
         <v>19</v>
@@ -2787,10 +3143,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E30" s="2">
         <v>20</v>
@@ -2814,10 +3170,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E31" s="2">
         <v>21</v>
@@ -2841,10 +3197,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -2868,10 +3224,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E33" s="2">
         <v>23</v>
@@ -2895,10 +3251,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E34" s="2">
         <v>24</v>
@@ -2922,10 +3278,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E35" s="2">
         <v>25</v>
@@ -2949,10 +3305,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E36" s="2">
         <v>26</v>
@@ -2976,10 +3332,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E37" s="2">
         <v>27</v>
@@ -3003,10 +3359,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E38" s="2">
         <v>28</v>
@@ -3030,10 +3386,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2">
         <v>29</v>
@@ -3057,10 +3413,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2">
         <v>30</v>
@@ -3084,10 +3440,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2">
         <v>31</v>
@@ -3111,10 +3467,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2">
         <v>32</v>
@@ -3138,10 +3494,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2">
         <v>33</v>
@@ -3165,10 +3521,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2">
         <v>34</v>
@@ -3192,10 +3548,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E45" s="2">
         <v>35</v>
@@ -3219,10 +3575,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E46" s="2">
         <v>36</v>
@@ -3246,10 +3602,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E47" s="2">
         <v>37</v>
@@ -3273,10 +3629,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E48" s="2">
         <v>38</v>
@@ -3300,10 +3656,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E49" s="2">
         <v>39</v>
@@ -3327,10 +3683,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E50" s="2">
         <v>40</v>
@@ -3354,10 +3710,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E51" s="2">
         <v>41</v>
@@ -3381,10 +3737,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E52" s="2">
         <v>42</v>
@@ -3408,10 +3764,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E53" s="2">
         <v>43</v>
@@ -3435,10 +3791,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2">
         <v>44</v>
@@ -3462,10 +3818,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E55" s="2">
         <v>45</v>
@@ -3489,10 +3845,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E56" s="2">
         <v>46</v>
@@ -3516,10 +3872,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E57" s="2">
         <v>47</v>
@@ -3543,10 +3899,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E58" s="2">
         <v>48</v>
@@ -3570,10 +3926,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E59" s="2">
         <v>49</v>
@@ -3597,10 +3953,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E60" s="2">
         <v>50</v>
@@ -3624,10 +3980,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2">
         <v>51</v>
@@ -3651,10 +4007,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E62" s="2">
         <v>52</v>
@@ -3678,10 +4034,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E63" s="2">
         <v>53</v>
@@ -3705,10 +4061,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E64" s="2">
         <v>54</v>
@@ -3732,10 +4088,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E65" s="2">
         <v>55</v>
@@ -3759,10 +4115,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2">
         <v>56</v>
@@ -3786,10 +4142,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2">
         <v>57</v>
@@ -3813,10 +4169,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2">
         <v>58</v>
@@ -3840,10 +4196,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2">
         <v>59</v>
@@ -3867,10 +4223,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2">
         <v>60</v>
@@ -3894,10 +4250,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2">
         <v>61</v>
@@ -3921,10 +4277,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2">
         <v>62</v>
@@ -3948,10 +4304,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E73" s="2">
         <v>63</v>
@@ -3975,10 +4331,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E74" s="2">
         <v>64</v>
@@ -4002,10 +4358,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E75" s="2">
         <v>65</v>
@@ -4029,10 +4385,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2">
         <v>66</v>
@@ -4056,10 +4412,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2">
         <v>67</v>
@@ -4083,10 +4439,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2">
         <v>68</v>
@@ -4110,10 +4466,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2">
         <v>69</v>
@@ -4137,10 +4493,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2">
         <v>70</v>
@@ -4164,10 +4520,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2">
         <v>71</v>
@@ -4191,10 +4547,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2">
         <v>72</v>
@@ -4218,10 +4574,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E83" s="2">
         <v>73</v>
@@ -4245,10 +4601,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E84" s="2">
         <v>74</v>
@@ -4272,10 +4628,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E85" s="2">
         <v>75</v>
@@ -4299,10 +4655,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E86" s="2">
         <v>76</v>
@@ -4326,10 +4682,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E87" s="2">
         <v>77</v>
@@ -4353,10 +4709,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E88" s="2">
         <v>78</v>
@@ -4380,10 +4736,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E89" s="2">
         <v>79</v>
@@ -4407,10 +4763,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E90" s="2">
         <v>80</v>
@@ -4434,10 +4790,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2">
         <v>81</v>
@@ -4461,10 +4817,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E92" s="2">
         <v>82</v>
@@ -4488,10 +4844,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E93" s="2">
         <v>83</v>
@@ -4515,10 +4871,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E94" s="2">
         <v>84</v>
@@ -4542,10 +4898,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E95" s="2">
         <v>85</v>
@@ -4569,10 +4925,10 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E96" s="2">
         <v>86</v>
@@ -4596,10 +4952,10 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E97" s="2">
         <v>87</v>
@@ -4623,10 +4979,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E98" s="2">
         <v>88</v>
@@ -4650,10 +5006,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E99" s="2">
         <v>89</v>
@@ -4677,10 +5033,10 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E100" s="2">
         <v>90</v>
@@ -4704,10 +5060,10 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E101" s="2">
         <v>91</v>
@@ -4731,10 +5087,10 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E102" s="2">
         <v>92</v>
@@ -4758,10 +5114,10 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E103" s="2">
         <v>93</v>
@@ -4785,10 +5141,10 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E104" s="2">
         <v>94</v>
@@ -4812,10 +5168,10 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E105" s="2">
         <v>95</v>
@@ -4839,10 +5195,10 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E106" s="2">
         <v>96</v>
@@ -4866,10 +5222,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E107" s="2">
         <v>97</v>
@@ -4893,10 +5249,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E108" s="2">
         <v>98</v>
@@ -4920,10 +5276,10 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E109" s="2">
         <v>99</v>
@@ -4947,10 +5303,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E110" s="2">
         <v>100</v>
@@ -4974,10 +5330,10 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E111" s="2">
         <v>101</v>
@@ -5001,10 +5357,10 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E112" s="2">
         <v>102</v>
@@ -5028,10 +5384,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2">
         <v>103</v>
@@ -5055,10 +5411,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2">
         <v>104</v>
@@ -5082,10 +5438,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2">
         <v>105</v>
@@ -5109,10 +5465,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2">
         <v>106</v>
@@ -5136,10 +5492,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2">
         <v>107</v>
@@ -5163,10 +5519,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2">
         <v>108</v>
@@ -5190,10 +5546,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2">
         <v>109</v>
@@ -5217,10 +5573,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E120" s="2">
         <v>110</v>
@@ -5244,10 +5600,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E121" s="2">
         <v>111</v>
@@ -5271,10 +5627,10 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E122" s="2">
         <v>112</v>
@@ -5298,10 +5654,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E123" s="2">
         <v>113</v>
@@ -5325,10 +5681,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E124" s="2">
         <v>114</v>
@@ -5352,10 +5708,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E125" s="2">
         <v>115</v>
@@ -5379,10 +5735,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E126" s="2">
         <v>116</v>
@@ -5406,10 +5762,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E127" s="2">
         <v>117</v>
@@ -5433,10 +5789,10 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E128" s="2">
         <v>118</v>
@@ -5460,10 +5816,10 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E129" s="2">
         <v>119</v>
@@ -5492,7 +5848,7 @@
         <v>36</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
@@ -5519,7 +5875,7 @@
         <v>37</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E131" s="2">
         <v>11</v>
@@ -5546,7 +5902,7 @@
         <v>38</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E132" s="2">
         <v>12</v>
@@ -5573,7 +5929,7 @@
         <v>39</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E133" s="2">
         <v>13</v>
@@ -5600,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E134" s="2">
         <v>14</v>
@@ -5627,7 +5983,7 @@
         <v>41</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E135" s="2">
         <v>15</v>
@@ -5651,10 +6007,10 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2">
         <v>16</v>
@@ -5678,10 +6034,10 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E137" s="2">
         <v>17</v>
@@ -5705,10 +6061,10 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2">
         <v>18</v>
@@ -5732,10 +6088,10 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2">
         <v>19</v>
@@ -5759,10 +6115,10 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2">
         <v>20</v>
@@ -5786,10 +6142,10 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E141" s="2">
         <v>21</v>
@@ -5813,10 +6169,10 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E142" s="2">
         <v>22</v>
@@ -5840,10 +6196,10 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2">
         <v>23</v>
@@ -5867,10 +6223,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E144" s="2">
         <v>24</v>
@@ -5894,10 +6250,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E145" s="2">
         <v>25</v>
@@ -5921,10 +6277,10 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E146" s="2">
         <v>26</v>
@@ -5948,10 +6304,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E147" s="2">
         <v>27</v>
@@ -5975,10 +6331,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E148" s="2">
         <v>28</v>
@@ -6002,10 +6358,10 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E149" s="2">
         <v>29</v>
@@ -6029,10 +6385,10 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E150" s="2">
         <v>30</v>
@@ -6056,10 +6412,10 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E151" s="2">
         <v>31</v>
@@ -6083,10 +6439,10 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E152" s="2">
         <v>32</v>
@@ -6110,10 +6466,10 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E153" s="2">
         <v>33</v>
@@ -6137,10 +6493,10 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E154" s="2">
         <v>34</v>
@@ -6164,10 +6520,10 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E155" s="2">
         <v>35</v>
@@ -6191,10 +6547,10 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E156" s="2">
         <v>36</v>
@@ -6218,10 +6574,10 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E157" s="2">
         <v>37</v>
@@ -6245,10 +6601,10 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E158" s="2">
         <v>38</v>
@@ -6272,10 +6628,10 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E159" s="2">
         <v>39</v>
@@ -6298,13 +6654,13 @@
         <v>30201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E160" s="2">
         <v>40</v>
@@ -6328,10 +6684,10 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E161" s="2">
         <v>41</v>
@@ -6355,10 +6711,10 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E162" s="2">
         <v>42</v>
@@ -6382,10 +6738,10 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E163" s="2">
         <v>43</v>
@@ -6409,10 +6765,10 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E164" s="2">
         <v>44</v>
@@ -6436,10 +6792,10 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E165" s="2">
         <v>45</v>
@@ -6463,10 +6819,10 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E166" s="2">
         <v>46</v>
@@ -6490,10 +6846,10 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E167" s="2">
         <v>47</v>
@@ -6517,10 +6873,10 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E168" s="2">
         <v>48</v>
@@ -6544,10 +6900,10 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E169" s="2">
         <v>49</v>
@@ -6571,10 +6927,10 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E170" s="2">
         <v>50</v>
@@ -6598,10 +6954,10 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E171" s="2">
         <v>51</v>
@@ -6625,10 +6981,10 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E172" s="2">
         <v>52</v>
@@ -6652,10 +7008,10 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E173" s="2">
         <v>53</v>
@@ -6679,10 +7035,10 @@
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E174" s="2">
         <v>54</v>
@@ -6706,10 +7062,10 @@
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E175" s="2">
         <v>55</v>
@@ -6733,10 +7089,10 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E176" s="2">
         <v>56</v>
@@ -6760,10 +7116,10 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E177" s="2">
         <v>57</v>
@@ -6787,10 +7143,10 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E178" s="2">
         <v>58</v>
@@ -6814,10 +7170,10 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E179" s="2">
         <v>59</v>
@@ -6841,10 +7197,10 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E180" s="2">
         <v>60</v>
@@ -6868,10 +7224,10 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E181" s="2">
         <v>61</v>
@@ -6895,10 +7251,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E182" s="2">
         <v>62</v>
@@ -6922,10 +7278,10 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E183" s="2">
         <v>63</v>
@@ -6949,10 +7305,10 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E184" s="2">
         <v>64</v>
@@ -6976,10 +7332,10 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E185" s="2">
         <v>65</v>
@@ -7003,10 +7359,10 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E186" s="2">
         <v>66</v>
@@ -7030,10 +7386,10 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E187" s="2">
         <v>67</v>
@@ -7057,10 +7413,10 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E188" s="2">
         <v>68</v>
@@ -7084,10 +7440,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E189" s="2">
         <v>69</v>
@@ -7110,13 +7466,13 @@
         <v>40101</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>43</v>
+        <v>453</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>59</v>
+        <v>454</v>
       </c>
       <c r="E190" s="2">
         <v>16</v>
@@ -7140,10 +7496,10 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E191" s="2">
         <v>17</v>
@@ -7167,10 +7523,10 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E192" s="2">
         <v>18</v>
@@ -7194,10 +7550,10 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E193" s="2">
         <v>19</v>
@@ -7221,10 +7577,10 @@
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E194" s="2">
         <v>20</v>
@@ -7244,97 +7600,65 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>50101</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>40106</v>
+      </c>
+      <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E195" s="2">
-        <v>111</v>
-      </c>
-      <c r="F195" s="2">
-        <v>211</v>
-      </c>
-      <c r="G195" s="2">
-        <v>311</v>
-      </c>
-      <c r="H195" s="2">
-        <v>411</v>
-      </c>
-      <c r="I195" s="2">
-        <v>511</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>50102</v>
+        <v>40201</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="2" t="s">
-        <v>422</v>
+      <c r="C196" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E196" s="2">
-        <v>112</v>
-      </c>
-      <c r="F196" s="2">
-        <v>212</v>
-      </c>
-      <c r="G196" s="2">
-        <v>312</v>
-      </c>
-      <c r="H196" s="2">
-        <v>412</v>
-      </c>
-      <c r="I196" s="2">
-        <v>512</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>50103</v>
+        <v>40202</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="2" t="s">
-        <v>423</v>
+      <c r="C197" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E197" s="2">
-        <v>113</v>
-      </c>
-      <c r="F197" s="2">
-        <v>213</v>
-      </c>
-      <c r="G197" s="2">
-        <v>313</v>
-      </c>
-      <c r="H197" s="2">
-        <v>413</v>
-      </c>
-      <c r="I197" s="2">
-        <v>513</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>50104</v>
+        <v>40203</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2" t="s">
-        <v>424</v>
+      <c r="C198" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -7344,14 +7668,14 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>50105</v>
+        <v>40204</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="2" t="s">
-        <v>425</v>
+      <c r="C199" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -7361,95 +7685,65 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>50201</v>
+        <v>40205</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="2" t="s">
-        <v>431</v>
+      <c r="C200" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E200" s="2">
-        <v>114</v>
-      </c>
-      <c r="F200" s="2">
-        <v>214</v>
-      </c>
-      <c r="G200" s="2">
-        <v>314</v>
-      </c>
-      <c r="H200" s="2">
-        <v>414</v>
-      </c>
-      <c r="I200" s="2">
-        <v>514</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>50202</v>
+        <v>40206</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="2" t="s">
-        <v>432</v>
+      <c r="C201" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E201" s="2">
-        <v>115</v>
-      </c>
-      <c r="F201" s="2">
-        <v>215</v>
-      </c>
-      <c r="G201" s="2">
-        <v>315</v>
-      </c>
-      <c r="H201" s="2">
-        <v>415</v>
-      </c>
-      <c r="I201" s="2">
-        <v>515</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>50203</v>
+        <v>40207</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="2" t="s">
-        <v>433</v>
+      <c r="C202" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E202" s="2">
-        <v>116</v>
-      </c>
-      <c r="F202" s="2">
-        <v>216</v>
-      </c>
-      <c r="G202" s="2">
-        <v>316</v>
-      </c>
-      <c r="H202" s="2">
-        <v>416</v>
-      </c>
-      <c r="I202" s="2">
-        <v>516</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>50204</v>
+        <v>40208</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="2" t="s">
-        <v>434</v>
+      <c r="C203" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -7459,14 +7753,14 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>50205</v>
+        <v>40209</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -7476,630 +7770,422 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>60101</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>419</v>
-      </c>
+        <v>40210</v>
+      </c>
+      <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>68</v>
+        <v>452</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E205" s="2">
-        <v>117</v>
-      </c>
-      <c r="F205" s="2">
-        <v>217</v>
-      </c>
-      <c r="G205" s="2">
-        <v>317</v>
-      </c>
-      <c r="H205" s="2">
-        <v>417</v>
-      </c>
-      <c r="I205" s="2">
-        <v>517</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>60102</v>
+        <v>40211</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E206" s="2">
-        <v>118</v>
-      </c>
-      <c r="F206" s="2">
-        <v>218</v>
-      </c>
-      <c r="G206" s="2">
-        <v>318</v>
-      </c>
-      <c r="H206" s="2">
-        <v>418</v>
-      </c>
-      <c r="I206" s="2">
-        <v>518</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>60103</v>
+        <v>40212</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="2" t="s">
-        <v>70</v>
+      <c r="C207" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E207" s="2">
-        <v>119</v>
-      </c>
-      <c r="F207" s="2">
-        <v>219</v>
-      </c>
-      <c r="G207" s="2">
-        <v>319</v>
-      </c>
-      <c r="H207" s="2">
-        <v>419</v>
-      </c>
-      <c r="I207" s="2">
-        <v>519</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>60104</v>
+        <v>40213</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="2" t="s">
-        <v>71</v>
+      <c r="C208" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E208" s="2">
-        <v>120</v>
-      </c>
-      <c r="F208" s="2">
-        <v>220</v>
-      </c>
-      <c r="G208" s="2">
-        <v>320</v>
-      </c>
-      <c r="H208" s="2">
-        <v>420</v>
-      </c>
-      <c r="I208" s="2">
-        <v>520</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>60105</v>
+        <v>40214</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="2" t="s">
-        <v>72</v>
+      <c r="C209" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E209" s="2">
-        <v>121</v>
-      </c>
-      <c r="F209" s="2">
-        <v>221</v>
-      </c>
-      <c r="G209" s="2">
-        <v>321</v>
-      </c>
-      <c r="H209" s="2">
-        <v>421</v>
-      </c>
-      <c r="I209" s="2">
-        <v>521</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
-        <v>70101</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>78</v>
+      <c r="A210" s="2">
+        <v>40215</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E210" s="2">
-        <v>3</v>
-      </c>
-      <c r="F210" s="2">
-        <v>3</v>
-      </c>
-      <c r="G210" s="2">
-        <v>3</v>
-      </c>
-      <c r="H210" s="2">
-        <v>3</v>
-      </c>
-      <c r="I210" s="2">
-        <v>3</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
-        <v>70102</v>
+      <c r="A211" s="2">
+        <v>40216</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="2" t="s">
-        <v>80</v>
+      <c r="C211" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E211" s="2">
-        <v>6</v>
-      </c>
-      <c r="F211" s="2">
-        <v>6</v>
-      </c>
-      <c r="G211" s="2">
-        <v>6</v>
-      </c>
-      <c r="H211" s="2">
-        <v>6</v>
-      </c>
-      <c r="I211" s="2">
-        <v>6</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
-        <v>70103</v>
+      <c r="A212" s="2">
+        <v>40217</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="2" t="s">
-        <v>81</v>
+      <c r="C212" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E212" s="2">
-        <v>9</v>
-      </c>
-      <c r="F212" s="2">
-        <v>9</v>
-      </c>
-      <c r="G212" s="2">
-        <v>9</v>
-      </c>
-      <c r="H212" s="2">
-        <v>9</v>
-      </c>
-      <c r="I212" s="2">
-        <v>9</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
-        <v>70104</v>
+      <c r="A213" s="2">
+        <v>40218</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E213" s="2">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2">
-        <v>12</v>
-      </c>
-      <c r="G213" s="2">
-        <v>12</v>
-      </c>
-      <c r="H213" s="2">
-        <v>12</v>
-      </c>
-      <c r="I213" s="2">
-        <v>12</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
-        <v>70105</v>
+      <c r="A214" s="2">
+        <v>40219</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E214" s="2">
-        <v>15</v>
-      </c>
-      <c r="F214" s="2">
-        <v>15</v>
-      </c>
-      <c r="G214" s="2">
-        <v>15</v>
-      </c>
-      <c r="H214" s="2">
-        <v>15</v>
-      </c>
-      <c r="I214" s="2">
-        <v>15</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
-        <v>70106</v>
+      <c r="A215" s="2">
+        <v>40220</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>86</v>
+        <v>448</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E215" s="2">
-        <v>18</v>
-      </c>
-      <c r="F215" s="2">
-        <v>18</v>
-      </c>
-      <c r="G215" s="2">
-        <v>18</v>
-      </c>
-      <c r="H215" s="2">
-        <v>18</v>
-      </c>
-      <c r="I215" s="2">
-        <v>18</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
-        <v>70107</v>
+      <c r="A216" s="2">
+        <v>40221</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E216" s="2">
-        <v>21</v>
-      </c>
-      <c r="F216" s="2">
-        <v>21</v>
-      </c>
-      <c r="G216" s="2">
-        <v>21</v>
-      </c>
-      <c r="H216" s="2">
-        <v>21</v>
-      </c>
-      <c r="I216" s="2">
-        <v>21</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>70108</v>
+      <c r="A217" s="2">
+        <v>40301</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E217" s="2">
-        <v>24</v>
-      </c>
-      <c r="F217" s="2">
-        <v>24</v>
-      </c>
-      <c r="G217" s="2">
-        <v>24</v>
-      </c>
-      <c r="H217" s="2">
-        <v>24</v>
-      </c>
-      <c r="I217" s="2">
-        <v>24</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>70109</v>
+      <c r="A218" s="2">
+        <v>41101</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>90</v>
+        <v>482</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E218" s="2">
-        <v>27</v>
-      </c>
-      <c r="F218" s="2">
-        <v>27</v>
-      </c>
-      <c r="G218" s="2">
-        <v>27</v>
-      </c>
-      <c r="H218" s="2">
-        <v>27</v>
-      </c>
-      <c r="I218" s="2">
-        <v>27</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>70110</v>
+        <v>41102</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>91</v>
+        <v>483</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E219" s="2">
-        <v>30</v>
-      </c>
-      <c r="F219" s="2">
-        <v>30</v>
-      </c>
-      <c r="G219" s="2">
-        <v>30</v>
-      </c>
-      <c r="H219" s="2">
-        <v>30</v>
-      </c>
-      <c r="I219" s="2">
-        <v>30</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
-        <v>70111</v>
+      <c r="A220" s="2">
+        <v>41103</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E220" s="5">
-        <v>33</v>
-      </c>
-      <c r="F220" s="5">
-        <v>33</v>
-      </c>
-      <c r="G220" s="5">
-        <v>33</v>
-      </c>
-      <c r="H220" s="5">
-        <v>33</v>
-      </c>
-      <c r="I220" s="5">
-        <v>33</v>
-      </c>
+      <c r="C220" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
-        <v>70112</v>
+      <c r="A221" s="2">
+        <v>41104</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E221" s="2">
-        <v>36</v>
-      </c>
-      <c r="F221" s="2">
-        <v>36</v>
-      </c>
-      <c r="G221" s="2">
-        <v>36</v>
-      </c>
-      <c r="H221" s="2">
-        <v>36</v>
-      </c>
-      <c r="I221" s="2">
-        <v>36</v>
-      </c>
+      <c r="C221" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
-        <v>70113</v>
+      <c r="A222" s="2">
+        <v>41105</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E222" s="5">
-        <v>39</v>
-      </c>
-      <c r="F222" s="5">
-        <v>39</v>
-      </c>
-      <c r="G222" s="5">
-        <v>39</v>
-      </c>
-      <c r="H222" s="5">
-        <v>39</v>
-      </c>
-      <c r="I222" s="5">
-        <v>39</v>
-      </c>
+      <c r="C222" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
-        <v>70114</v>
+      <c r="A223" s="2">
+        <v>41106</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E223" s="2">
-        <v>42</v>
-      </c>
-      <c r="F223" s="2">
-        <v>42</v>
-      </c>
-      <c r="G223" s="2">
-        <v>42</v>
-      </c>
-      <c r="H223" s="2">
-        <v>42</v>
-      </c>
-      <c r="I223" s="2">
-        <v>42</v>
-      </c>
+      <c r="C223" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
-        <v>70115</v>
+      <c r="A224" s="2">
+        <v>41201</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E224" s="5">
-        <v>45</v>
-      </c>
-      <c r="F224" s="5">
-        <v>45</v>
-      </c>
-      <c r="G224" s="5">
-        <v>45</v>
-      </c>
-      <c r="H224" s="5">
-        <v>45</v>
-      </c>
-      <c r="I224" s="5">
-        <v>45</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
-        <v>70201</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="A225" s="2">
+        <v>41202</v>
+      </c>
+      <c r="B225" s="2"/>
       <c r="C225" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
+        <v>489</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
-        <v>70202</v>
+      <c r="A226" s="2">
+        <v>41203</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
+        <v>490</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
-        <v>70203</v>
+      <c r="A227" s="2">
+        <v>41204</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
+        <v>491</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
-        <v>70204</v>
+      <c r="A228" s="2">
+        <v>41205</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
+        <v>492</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
-        <v>80101</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>293</v>
+      <c r="A229" s="2">
+        <v>41206</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -8108,15 +8194,15 @@
       <c r="I229" s="2"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
-        <v>80102</v>
+      <c r="A230" s="2">
+        <v>41207</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="2" t="s">
-        <v>294</v>
+      <c r="C230" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>294</v>
+        <v>522</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -8125,15 +8211,15 @@
       <c r="I230" s="2"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
-        <v>80103</v>
+      <c r="A231" s="2">
+        <v>41208</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="2" t="s">
-        <v>295</v>
+      <c r="C231" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>295</v>
+        <v>523</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -8142,15 +8228,15 @@
       <c r="I231" s="2"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
-        <v>80104</v>
+      <c r="A232" s="2">
+        <v>41209</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
-        <v>299</v>
+        <v>496</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>296</v>
+        <v>524</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -8159,15 +8245,15 @@
       <c r="I232" s="2"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
-        <v>80105</v>
+      <c r="A233" s="2">
+        <v>41210</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>297</v>
+        <v>525</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -8176,17 +8262,15 @@
       <c r="I233" s="2"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
-        <v>80106</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="A234" s="2">
+        <v>41211</v>
+      </c>
+      <c r="B234" s="2"/>
       <c r="C234" s="2" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>307</v>
+        <v>526</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -8195,17 +8279,15 @@
       <c r="I234" s="2"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
-        <v>80107</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>301</v>
+      <c r="A235" s="2">
+        <v>41212</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>306</v>
+        <v>527</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -8214,17 +8296,15 @@
       <c r="I235" s="2"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
-        <v>80201</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>308</v>
+      <c r="A236" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>309</v>
+        <v>528</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -8233,17 +8313,15 @@
       <c r="I236" s="2"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
-        <v>80202</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>311</v>
+      <c r="A237" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>310</v>
+        <v>529</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -8252,17 +8330,15 @@
       <c r="I237" s="2"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
-        <v>80301</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>324</v>
+      <c r="A238" s="2">
+        <v>41215</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -8271,15 +8347,15 @@
       <c r="I238" s="2"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
-        <v>80302</v>
-      </c>
-      <c r="B239" s="7"/>
-      <c r="C239" s="2" t="s">
-        <v>325</v>
+      <c r="A239" s="2">
+        <v>41216</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="5" t="s">
+        <v>503</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>330</v>
+        <v>531</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -8288,15 +8364,15 @@
       <c r="I239" s="2"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
-        <v>80303</v>
-      </c>
-      <c r="B240" s="7"/>
-      <c r="C240" s="2" t="s">
-        <v>326</v>
+      <c r="A240" s="2">
+        <v>41217</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>331</v>
+        <v>532</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -8305,15 +8381,15 @@
       <c r="I240" s="2"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
-        <v>80304</v>
-      </c>
-      <c r="B241" s="7"/>
+      <c r="A241" s="2">
+        <v>41218</v>
+      </c>
+      <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>332</v>
+        <v>533</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -8322,15 +8398,15 @@
       <c r="I241" s="2"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>80305</v>
-      </c>
-      <c r="B242" s="7"/>
+      <c r="A242" s="2">
+        <v>41219</v>
+      </c>
+      <c r="B242" s="2"/>
       <c r="C242" s="2" t="s">
-        <v>328</v>
+        <v>506</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>338</v>
+        <v>534</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -8339,15 +8415,15 @@
       <c r="I242" s="2"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>80306</v>
-      </c>
-      <c r="B243" s="7"/>
+      <c r="A243" s="2">
+        <v>41220</v>
+      </c>
+      <c r="B243" s="2"/>
       <c r="C243" s="2" t="s">
-        <v>333</v>
+        <v>508</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>340</v>
+        <v>535</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -8356,15 +8432,15 @@
       <c r="I243" s="2"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
-        <v>80307</v>
-      </c>
-      <c r="B244" s="7"/>
+      <c r="A244" s="2">
+        <v>41221</v>
+      </c>
+      <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>341</v>
+        <v>536</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -8373,15 +8449,15 @@
       <c r="I244" s="2"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
-        <v>80401</v>
-      </c>
-      <c r="B245" s="7"/>
+      <c r="A245" s="2">
+        <v>41301</v>
+      </c>
+      <c r="B245" s="2"/>
       <c r="C245" s="2" t="s">
-        <v>337</v>
+        <v>509</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>339</v>
+        <v>537</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -8390,68 +8466,98 @@
       <c r="I245" s="2"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
-        <v>80402</v>
-      </c>
-      <c r="B246" s="7"/>
+      <c r="A246" s="2">
+        <v>50101</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="C246" s="2" t="s">
-        <v>335</v>
+        <v>418</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="E246" s="2">
+        <v>111</v>
+      </c>
+      <c r="F246" s="2">
+        <v>211</v>
+      </c>
+      <c r="G246" s="2">
+        <v>311</v>
+      </c>
+      <c r="H246" s="2">
+        <v>411</v>
+      </c>
+      <c r="I246" s="2">
+        <v>511</v>
+      </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
-        <v>80501</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="A247" s="2">
+        <v>50102</v>
+      </c>
+      <c r="B247" s="2"/>
       <c r="C247" s="2" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E247" s="2">
+        <v>112</v>
+      </c>
+      <c r="F247" s="2">
+        <v>212</v>
+      </c>
+      <c r="G247" s="2">
+        <v>312</v>
+      </c>
+      <c r="H247" s="2">
+        <v>412</v>
+      </c>
+      <c r="I247" s="2">
+        <v>512</v>
+      </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
-        <v>80502</v>
-      </c>
-      <c r="B248" s="7"/>
+      <c r="A248" s="2">
+        <v>50103</v>
+      </c>
+      <c r="B248" s="2"/>
       <c r="C248" s="2" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="E248" s="2">
+        <v>113</v>
+      </c>
+      <c r="F248" s="2">
+        <v>213</v>
+      </c>
+      <c r="G248" s="2">
+        <v>313</v>
+      </c>
+      <c r="H248" s="2">
+        <v>413</v>
+      </c>
+      <c r="I248" s="2">
+        <v>513</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
-        <v>80503</v>
-      </c>
-      <c r="B249" s="7"/>
+      <c r="A249" s="2">
+        <v>50104</v>
+      </c>
+      <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -8460,17 +8566,15 @@
       <c r="I249" s="2"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <v>80601</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>348</v>
-      </c>
+      <c r="A250" s="2">
+        <v>50105</v>
+      </c>
+      <c r="B250" s="2"/>
       <c r="C250" s="2" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -8479,66 +8583,96 @@
       <c r="I250" s="2"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
-        <v>80602</v>
-      </c>
-      <c r="B251" s="7"/>
+      <c r="A251" s="2">
+        <v>50201</v>
+      </c>
+      <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E251" s="2">
+        <v>114</v>
+      </c>
+      <c r="F251" s="2">
+        <v>214</v>
+      </c>
+      <c r="G251" s="2">
+        <v>314</v>
+      </c>
+      <c r="H251" s="2">
+        <v>414</v>
+      </c>
+      <c r="I251" s="2">
+        <v>514</v>
+      </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
-        <v>80603</v>
-      </c>
-      <c r="B252" s="7"/>
+      <c r="A252" s="2">
+        <v>50202</v>
+      </c>
+      <c r="B252" s="2"/>
       <c r="C252" s="2" t="s">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>115</v>
+      </c>
+      <c r="F252" s="2">
+        <v>215</v>
+      </c>
+      <c r="G252" s="2">
+        <v>315</v>
+      </c>
+      <c r="H252" s="2">
+        <v>415</v>
+      </c>
+      <c r="I252" s="2">
+        <v>515</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
-        <v>80604</v>
-      </c>
-      <c r="B253" s="7"/>
+      <c r="A253" s="2">
+        <v>50203</v>
+      </c>
+      <c r="B253" s="2"/>
       <c r="C253" s="2" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="E253" s="2">
+        <v>116</v>
+      </c>
+      <c r="F253" s="2">
+        <v>216</v>
+      </c>
+      <c r="G253" s="2">
+        <v>316</v>
+      </c>
+      <c r="H253" s="2">
+        <v>416</v>
+      </c>
+      <c r="I253" s="2">
+        <v>516</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
-        <v>80605</v>
-      </c>
-      <c r="B254" s="7"/>
+      <c r="A254" s="2">
+        <v>50204</v>
+      </c>
+      <c r="B254" s="2"/>
       <c r="C254" s="2" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -8547,17 +8681,15 @@
       <c r="I254" s="2"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
-        <v>81101</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A255" s="2">
+        <v>50205</v>
+      </c>
+      <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -8566,431 +8698,631 @@
       <c r="I255" s="2"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
-        <v>81102</v>
-      </c>
-      <c r="B256" s="2"/>
+      <c r="A256" s="2">
+        <v>60101</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="C256" s="2" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E256" s="2">
+        <v>117</v>
+      </c>
+      <c r="F256" s="2">
+        <v>217</v>
+      </c>
+      <c r="G256" s="2">
+        <v>317</v>
+      </c>
+      <c r="H256" s="2">
+        <v>417</v>
+      </c>
+      <c r="I256" s="2">
+        <v>517</v>
+      </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
-        <v>81103</v>
+      <c r="A257" s="2">
+        <v>60102</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
-        <v>366</v>
+        <v>66</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E257" s="2">
+        <v>118</v>
+      </c>
+      <c r="F257" s="2">
+        <v>218</v>
+      </c>
+      <c r="G257" s="2">
+        <v>318</v>
+      </c>
+      <c r="H257" s="2">
+        <v>418</v>
+      </c>
+      <c r="I257" s="2">
+        <v>518</v>
+      </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
-        <v>81104</v>
+      <c r="A258" s="2">
+        <v>60103</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2" t="s">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E258" s="2">
+        <v>119</v>
+      </c>
+      <c r="F258" s="2">
+        <v>219</v>
+      </c>
+      <c r="G258" s="2">
+        <v>319</v>
+      </c>
+      <c r="H258" s="2">
+        <v>419</v>
+      </c>
+      <c r="I258" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
-        <v>81105</v>
+      <c r="A259" s="2">
+        <v>60104</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2" t="s">
-        <v>369</v>
+        <v>68</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E259" s="2">
+        <v>120</v>
+      </c>
+      <c r="F259" s="2">
+        <v>220</v>
+      </c>
+      <c r="G259" s="2">
+        <v>320</v>
+      </c>
+      <c r="H259" s="2">
+        <v>420</v>
+      </c>
+      <c r="I259" s="2">
+        <v>520</v>
+      </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
-        <v>81106</v>
+      <c r="A260" s="2">
+        <v>60105</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E260" s="2">
+        <v>121</v>
+      </c>
+      <c r="F260" s="2">
+        <v>221</v>
+      </c>
+      <c r="G260" s="2">
+        <v>321</v>
+      </c>
+      <c r="H260" s="2">
+        <v>421</v>
+      </c>
+      <c r="I260" s="2">
+        <v>521</v>
+      </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
-        <v>81107</v>
-      </c>
-      <c r="B261" s="2"/>
+        <v>70101</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="C261" s="2" t="s">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E261" s="2">
+        <v>3</v>
+      </c>
+      <c r="F261" s="2">
+        <v>3</v>
+      </c>
+      <c r="G261" s="2">
+        <v>3</v>
+      </c>
+      <c r="H261" s="2">
+        <v>3</v>
+      </c>
+      <c r="I261" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
-        <v>81108</v>
+        <v>70102</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="E262" s="2">
+        <v>6</v>
+      </c>
+      <c r="F262" s="2">
+        <v>6</v>
+      </c>
+      <c r="G262" s="2">
+        <v>6</v>
+      </c>
+      <c r="H262" s="2">
+        <v>6</v>
+      </c>
+      <c r="I262" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
-        <v>82101</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>70103</v>
+      </c>
+      <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E263" s="2">
+        <v>9</v>
+      </c>
+      <c r="F263" s="2">
+        <v>9</v>
+      </c>
+      <c r="G263" s="2">
+        <v>9</v>
+      </c>
+      <c r="H263" s="2">
+        <v>9</v>
+      </c>
+      <c r="I263" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
-        <v>82102</v>
+        <v>70104</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E264" s="2">
+        <v>12</v>
+      </c>
+      <c r="F264" s="2">
+        <v>12</v>
+      </c>
+      <c r="G264" s="2">
+        <v>12</v>
+      </c>
+      <c r="H264" s="2">
+        <v>12</v>
+      </c>
+      <c r="I264" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
-        <v>82103</v>
+        <v>70105</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="E265" s="2">
+        <v>15</v>
+      </c>
+      <c r="F265" s="2">
+        <v>15</v>
+      </c>
+      <c r="G265" s="2">
+        <v>15</v>
+      </c>
+      <c r="H265" s="2">
+        <v>15</v>
+      </c>
+      <c r="I265" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
-        <v>82104</v>
+        <v>70106</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="E266" s="2">
+        <v>18</v>
+      </c>
+      <c r="F266" s="2">
+        <v>18</v>
+      </c>
+      <c r="G266" s="2">
+        <v>18</v>
+      </c>
+      <c r="H266" s="2">
+        <v>18</v>
+      </c>
+      <c r="I266" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
-        <v>82105</v>
+        <v>70107</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E267" s="2">
+        <v>21</v>
+      </c>
+      <c r="F267" s="2">
+        <v>21</v>
+      </c>
+      <c r="G267" s="2">
+        <v>21</v>
+      </c>
+      <c r="H267" s="2">
+        <v>21</v>
+      </c>
+      <c r="I267" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
-        <v>82106</v>
+        <v>70108</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
-        <v>390</v>
+        <v>86</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="E268" s="2">
+        <v>24</v>
+      </c>
+      <c r="F268" s="2">
+        <v>24</v>
+      </c>
+      <c r="G268" s="2">
+        <v>24</v>
+      </c>
+      <c r="H268" s="2">
+        <v>24</v>
+      </c>
+      <c r="I268" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
-        <v>83101</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>70109</v>
+      </c>
+      <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="E269" s="2">
+        <v>27</v>
+      </c>
+      <c r="F269" s="2">
+        <v>27</v>
+      </c>
+      <c r="G269" s="2">
+        <v>27</v>
+      </c>
+      <c r="H269" s="2">
+        <v>27</v>
+      </c>
+      <c r="I269" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
-        <v>83102</v>
+      <c r="A270" s="2">
+        <v>70110</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270" t="s">
-        <v>388</v>
-      </c>
-      <c r="D270" t="s">
-        <v>389</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
+      <c r="C270" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E270" s="2">
+        <v>30</v>
+      </c>
+      <c r="F270" s="2">
+        <v>30</v>
+      </c>
+      <c r="G270" s="2">
+        <v>30</v>
+      </c>
+      <c r="H270" s="2">
+        <v>30</v>
+      </c>
+      <c r="I270" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
-        <v>83103</v>
+      <c r="A271" s="5">
+        <v>70111</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
+      <c r="C271" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E271" s="5">
+        <v>33</v>
+      </c>
+      <c r="F271" s="5">
+        <v>33</v>
+      </c>
+      <c r="G271" s="5">
+        <v>33</v>
+      </c>
+      <c r="H271" s="5">
+        <v>33</v>
+      </c>
+      <c r="I271" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
-        <v>83104</v>
+      <c r="A272" s="5">
+        <v>70112</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
+      <c r="C272" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E272" s="2">
+        <v>36</v>
+      </c>
+      <c r="F272" s="2">
+        <v>36</v>
+      </c>
+      <c r="G272" s="2">
+        <v>36</v>
+      </c>
+      <c r="H272" s="2">
+        <v>36</v>
+      </c>
+      <c r="I272" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
-        <v>83105</v>
+      <c r="A273" s="5">
+        <v>70113</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
+      <c r="C273" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E273" s="5">
+        <v>39</v>
+      </c>
+      <c r="F273" s="5">
+        <v>39</v>
+      </c>
+      <c r="G273" s="5">
+        <v>39</v>
+      </c>
+      <c r="H273" s="5">
+        <v>39</v>
+      </c>
+      <c r="I273" s="5">
+        <v>39</v>
+      </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
-        <v>84101</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
+      <c r="A274" s="5">
+        <v>70114</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E274" s="2">
+        <v>42</v>
+      </c>
+      <c r="F274" s="2">
+        <v>42</v>
+      </c>
+      <c r="G274" s="2">
+        <v>42</v>
+      </c>
+      <c r="H274" s="2">
+        <v>42</v>
+      </c>
+      <c r="I274" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
-        <v>84102</v>
+      <c r="A275" s="5">
+        <v>70115</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
+      <c r="C275" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E275" s="5">
+        <v>45</v>
+      </c>
+      <c r="F275" s="5">
+        <v>45</v>
+      </c>
+      <c r="G275" s="5">
+        <v>45</v>
+      </c>
+      <c r="H275" s="5">
+        <v>45</v>
+      </c>
+      <c r="I275" s="5">
+        <v>45</v>
+      </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
-        <v>84103</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
+        <v>70201</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
-        <v>84104</v>
+        <v>70202</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
+      <c r="C277" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
-        <v>84105</v>
+        <v>70203</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
+      <c r="C278" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
-        <v>84106</v>
+        <v>70204</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
+      <c r="C279" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
-        <v>84201</v>
+        <v>80101</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>407</v>
+        <v>290</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>409</v>
+        <v>290</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -9000,14 +9332,14 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
-        <v>84202</v>
+        <v>80102</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -9017,14 +9349,14 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
-        <v>84203</v>
+        <v>80103</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -9034,14 +9366,14 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
-        <v>84204</v>
+        <v>80104</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -9051,14 +9383,14 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
-        <v>84205</v>
+        <v>80105</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>406</v>
+        <v>295</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -9068,14 +9400,16 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
-        <v>84206</v>
-      </c>
-      <c r="B285" s="2"/>
+        <v>80106</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="C285" s="2" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -9085,15 +9419,17 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
-        <v>85101</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>123</v>
+        <v>80107</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D286" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -9102,13 +9438,17 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
-        <v>85102</v>
-      </c>
-      <c r="B287" s="2"/>
+        <v>80201</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="C287" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D287" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -9117,13 +9457,17 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
-        <v>85103</v>
-      </c>
-      <c r="B288" s="2"/>
+        <v>80202</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="C288" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D288" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -9132,13 +9476,17 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
-        <v>85104</v>
-      </c>
-      <c r="B289" s="2"/>
+        <v>80301</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="C289" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D289" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -9147,13 +9495,15 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
-        <v>85105</v>
-      </c>
-      <c r="B290" s="2"/>
+        <v>80302</v>
+      </c>
+      <c r="B290" s="7"/>
       <c r="C290" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D290" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -9162,13 +9512,15 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
-        <v>85106</v>
-      </c>
-      <c r="B291" s="2"/>
+        <v>80303</v>
+      </c>
+      <c r="B291" s="7"/>
       <c r="C291" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D291" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -9177,13 +9529,15 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
-        <v>85107</v>
-      </c>
-      <c r="B292" s="2"/>
+        <v>80304</v>
+      </c>
+      <c r="B292" s="7"/>
       <c r="C292" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D292" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -9192,13 +9546,15 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
-        <v>85108</v>
-      </c>
-      <c r="B293" s="2"/>
+        <v>80305</v>
+      </c>
+      <c r="B293" s="7"/>
       <c r="C293" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D293" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -9207,13 +9563,15 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
-        <v>85109</v>
-      </c>
-      <c r="B294" s="2"/>
+        <v>80306</v>
+      </c>
+      <c r="B294" s="7"/>
       <c r="C294" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D294" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -9222,13 +9580,15 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
-        <v>85110</v>
-      </c>
-      <c r="B295" s="2"/>
+        <v>80307</v>
+      </c>
+      <c r="B295" s="7"/>
       <c r="C295" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D295" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -9237,15 +9597,15 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
-        <v>86101</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>80401</v>
+      </c>
+      <c r="B296" s="7"/>
       <c r="C296" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D296" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -9254,13 +9614,15 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
-        <v>86102</v>
-      </c>
-      <c r="B297" s="2"/>
+        <v>80402</v>
+      </c>
+      <c r="B297" s="7"/>
       <c r="C297" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D297" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -9269,13 +9631,17 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
-        <v>86103</v>
-      </c>
-      <c r="B298" s="2"/>
+        <v>80501</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="C298" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D298" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -9284,13 +9650,15 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
-        <v>86104</v>
-      </c>
-      <c r="B299" s="2"/>
+        <v>80502</v>
+      </c>
+      <c r="B299" s="7"/>
       <c r="C299" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D299" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -9299,13 +9667,15 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
-        <v>86105</v>
-      </c>
-      <c r="B300" s="2"/>
+        <v>80503</v>
+      </c>
+      <c r="B300" s="7"/>
       <c r="C300" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D300" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -9314,13 +9684,17 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
-        <v>86106</v>
-      </c>
-      <c r="B301" s="2"/>
+        <v>80601</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="C301" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -9329,13 +9703,15 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
-        <v>86107</v>
-      </c>
-      <c r="B302" s="2"/>
+        <v>80602</v>
+      </c>
+      <c r="B302" s="7"/>
       <c r="C302" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D302" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -9344,13 +9720,15 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
-        <v>86108</v>
-      </c>
-      <c r="B303" s="2"/>
+        <v>80603</v>
+      </c>
+      <c r="B303" s="7"/>
       <c r="C303" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D303" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -9359,13 +9737,15 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
-        <v>86109</v>
-      </c>
-      <c r="B304" s="2"/>
+        <v>80604</v>
+      </c>
+      <c r="B304" s="7"/>
       <c r="C304" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D304" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -9374,13 +9754,15 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
-        <v>86110</v>
-      </c>
-      <c r="B305" s="2"/>
+        <v>80605</v>
+      </c>
+      <c r="B305" s="7"/>
       <c r="C305" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D305" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -9389,15 +9771,17 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
-        <v>90101</v>
+        <v>81101</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D306" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -9406,18 +9790,857 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
-        <v>90102</v>
+        <v>81102</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" s="4">
+        <v>81103</v>
+      </c>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" s="4">
+        <v>81104</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" s="4">
+        <v>81105</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" s="4">
+        <v>81106</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" s="4">
+        <v>81107</v>
+      </c>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" s="4">
+        <v>81108</v>
+      </c>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A314" s="4">
+        <v>82101</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" s="4">
+        <v>82102</v>
+      </c>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A316" s="4">
+        <v>82103</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" s="4">
+        <v>82104</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" s="4">
+        <v>82105</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" s="4">
+        <v>82106</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2"/>
+      <c r="I319" s="2"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" s="4">
+        <v>83101</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321" s="4">
+        <v>83102</v>
+      </c>
+      <c r="B321" s="2"/>
+      <c r="C321" t="s">
+        <v>385</v>
+      </c>
+      <c r="D321" t="s">
+        <v>386</v>
+      </c>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322" s="4">
+        <v>83103</v>
+      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="2"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323" s="4">
+        <v>83104</v>
+      </c>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
+      <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324" s="4">
+        <v>83105</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325" s="4">
+        <v>84101</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326" s="4">
+        <v>84102</v>
+      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327" s="4">
+        <v>84103</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328" s="4">
+        <v>84104</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329" s="4">
+        <v>84105</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330" s="4">
+        <v>84106</v>
+      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331" s="4">
+        <v>84201</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332" s="4">
+        <v>84202</v>
+      </c>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A333" s="4">
+        <v>84203</v>
+      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A334" s="4">
+        <v>84204</v>
+      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A335" s="4">
+        <v>84205</v>
+      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A336" s="4">
+        <v>84206</v>
+      </c>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A337" s="4">
+        <v>85101</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A338" s="4">
+        <v>85102</v>
+      </c>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A339" s="4">
+        <v>85103</v>
+      </c>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A340" s="4">
+        <v>85104</v>
+      </c>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A341" s="4">
+        <v>85105</v>
+      </c>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A342" s="4">
+        <v>85106</v>
+      </c>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A343" s="4">
+        <v>85107</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A344" s="4">
+        <v>85108</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>85109</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A346" s="4">
+        <v>85110</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A347" s="4">
+        <v>86101</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A348" s="4">
+        <v>86102</v>
+      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A349" s="4">
+        <v>86103</v>
+      </c>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A350" s="4">
+        <v>86104</v>
+      </c>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A351" s="4">
+        <v>86105</v>
+      </c>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A352" s="4">
+        <v>86106</v>
+      </c>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A353" s="4">
+        <v>86107</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="2"/>
+      <c r="I353" s="2"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A354" s="4">
+        <v>86108</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>86109</v>
+      </c>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A356" s="4">
+        <v>86110</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+      <c r="I356" s="2"/>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A357" s="4">
+        <v>90101</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A358" s="4">
+        <v>90102</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+      <c r="I358" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
